--- a/00.기획서/221016_스테이지 기획서_V110.xlsx
+++ b/00.기획서/221016_스테이지 기획서_V110.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA_23\Desktop\RoketTeam\RocketTeamDocu\00.기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\RocketTeamDocu\00.기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="docu_1" sheetId="7" r:id="rId1"/>
@@ -6340,10 +6340,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>붕대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>start_charID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6448,10 +6444,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>안약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7009,6 +7001,14 @@
   </si>
   <si>
     <t>choose_3_3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밴드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비타민</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8020,26 +8020,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -8050,28 +8065,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8095,22 +8143,16 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8122,70 +8164,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8200,10 +8200,16 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8215,13 +8221,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8234,15 +8243,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8926,7 +8926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:V90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8935,50 +8935,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
     </row>
     <row r="3" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="96"/>
     </row>
     <row r="5" spans="3:22" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="3"/>
@@ -9074,12 +9074,12 @@
     </row>
     <row r="14" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="15" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -9197,136 +9197,136 @@
       </c>
     </row>
     <row r="51" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E51" s="61" t="s">
+      <c r="E51" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="61"/>
-      <c r="G51" s="61" t="s">
+      <c r="F51" s="75"/>
+      <c r="G51" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="H51" s="61"/>
-      <c r="I51" s="61"/>
-      <c r="J51" s="61"/>
-      <c r="K51" s="61"/>
-      <c r="L51" s="61"/>
-      <c r="M51" s="61"/>
-      <c r="N51" s="61"/>
-      <c r="O51" s="61"/>
-      <c r="P51" s="61"/>
-      <c r="Q51" s="61"/>
-      <c r="R51" s="61"/>
-      <c r="S51" s="61"/>
-      <c r="T51" s="61"/>
+      <c r="H51" s="75"/>
+      <c r="I51" s="75"/>
+      <c r="J51" s="75"/>
+      <c r="K51" s="75"/>
+      <c r="L51" s="75"/>
+      <c r="M51" s="75"/>
+      <c r="N51" s="75"/>
+      <c r="O51" s="75"/>
+      <c r="P51" s="75"/>
+      <c r="Q51" s="75"/>
+      <c r="R51" s="75"/>
+      <c r="S51" s="75"/>
+      <c r="T51" s="75"/>
     </row>
     <row r="52" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E52" s="60" t="s">
+      <c r="E52" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="F52" s="60"/>
-      <c r="G52" s="84" t="s">
+      <c r="F52" s="101"/>
+      <c r="G52" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="H52" s="84"/>
-      <c r="I52" s="84"/>
-      <c r="J52" s="84"/>
-      <c r="K52" s="84"/>
-      <c r="L52" s="84"/>
-      <c r="M52" s="84"/>
-      <c r="N52" s="84"/>
-      <c r="O52" s="84"/>
-      <c r="P52" s="84"/>
-      <c r="Q52" s="84"/>
-      <c r="R52" s="84"/>
-      <c r="S52" s="84"/>
-      <c r="T52" s="84"/>
+      <c r="H52" s="62"/>
+      <c r="I52" s="62"/>
+      <c r="J52" s="62"/>
+      <c r="K52" s="62"/>
+      <c r="L52" s="62"/>
+      <c r="M52" s="62"/>
+      <c r="N52" s="62"/>
+      <c r="O52" s="62"/>
+      <c r="P52" s="62"/>
+      <c r="Q52" s="62"/>
+      <c r="R52" s="62"/>
+      <c r="S52" s="62"/>
+      <c r="T52" s="62"/>
     </row>
     <row r="53" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E53" s="60" t="s">
+      <c r="E53" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="F53" s="60"/>
-      <c r="G53" s="84" t="s">
+      <c r="F53" s="101"/>
+      <c r="G53" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="H53" s="84"/>
-      <c r="I53" s="84"/>
-      <c r="J53" s="84"/>
-      <c r="K53" s="84"/>
-      <c r="L53" s="84"/>
-      <c r="M53" s="84"/>
-      <c r="N53" s="84"/>
-      <c r="O53" s="84"/>
-      <c r="P53" s="84"/>
-      <c r="Q53" s="84"/>
-      <c r="R53" s="84"/>
-      <c r="S53" s="84"/>
-      <c r="T53" s="84"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="62"/>
+      <c r="J53" s="62"/>
+      <c r="K53" s="62"/>
+      <c r="L53" s="62"/>
+      <c r="M53" s="62"/>
+      <c r="N53" s="62"/>
+      <c r="O53" s="62"/>
+      <c r="P53" s="62"/>
+      <c r="Q53" s="62"/>
+      <c r="R53" s="62"/>
+      <c r="S53" s="62"/>
+      <c r="T53" s="62"/>
     </row>
     <row r="54" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E54" s="60" t="s">
+      <c r="E54" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="F54" s="60"/>
-      <c r="G54" s="84" t="s">
+      <c r="F54" s="101"/>
+      <c r="G54" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="H54" s="84"/>
-      <c r="I54" s="84"/>
-      <c r="J54" s="84"/>
-      <c r="K54" s="84"/>
-      <c r="L54" s="84"/>
-      <c r="M54" s="84"/>
-      <c r="N54" s="84"/>
-      <c r="O54" s="84"/>
-      <c r="P54" s="84"/>
-      <c r="Q54" s="84"/>
-      <c r="R54" s="84"/>
-      <c r="S54" s="84"/>
-      <c r="T54" s="84"/>
+      <c r="H54" s="62"/>
+      <c r="I54" s="62"/>
+      <c r="J54" s="62"/>
+      <c r="K54" s="62"/>
+      <c r="L54" s="62"/>
+      <c r="M54" s="62"/>
+      <c r="N54" s="62"/>
+      <c r="O54" s="62"/>
+      <c r="P54" s="62"/>
+      <c r="Q54" s="62"/>
+      <c r="R54" s="62"/>
+      <c r="S54" s="62"/>
+      <c r="T54" s="62"/>
     </row>
     <row r="55" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E55" s="60" t="s">
+      <c r="E55" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="F55" s="60"/>
-      <c r="G55" s="84" t="s">
+      <c r="F55" s="101"/>
+      <c r="G55" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="H55" s="84"/>
-      <c r="I55" s="84"/>
-      <c r="J55" s="84"/>
-      <c r="K55" s="84"/>
-      <c r="L55" s="84"/>
-      <c r="M55" s="84"/>
-      <c r="N55" s="84"/>
-      <c r="O55" s="84"/>
-      <c r="P55" s="84"/>
-      <c r="Q55" s="84"/>
-      <c r="R55" s="84"/>
-      <c r="S55" s="84"/>
-      <c r="T55" s="84"/>
+      <c r="H55" s="62"/>
+      <c r="I55" s="62"/>
+      <c r="J55" s="62"/>
+      <c r="K55" s="62"/>
+      <c r="L55" s="62"/>
+      <c r="M55" s="62"/>
+      <c r="N55" s="62"/>
+      <c r="O55" s="62"/>
+      <c r="P55" s="62"/>
+      <c r="Q55" s="62"/>
+      <c r="R55" s="62"/>
+      <c r="S55" s="62"/>
+      <c r="T55" s="62"/>
     </row>
     <row r="56" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E56" s="60" t="s">
+      <c r="E56" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="F56" s="60"/>
-      <c r="G56" s="84" t="s">
+      <c r="F56" s="101"/>
+      <c r="G56" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="H56" s="84"/>
-      <c r="I56" s="84"/>
-      <c r="J56" s="84"/>
-      <c r="K56" s="84"/>
-      <c r="L56" s="84"/>
-      <c r="M56" s="84"/>
-      <c r="N56" s="84"/>
-      <c r="O56" s="84"/>
-      <c r="P56" s="84"/>
-      <c r="Q56" s="84"/>
-      <c r="R56" s="84"/>
-      <c r="S56" s="84"/>
-      <c r="T56" s="84"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="62"/>
+      <c r="J56" s="62"/>
+      <c r="K56" s="62"/>
+      <c r="L56" s="62"/>
+      <c r="M56" s="62"/>
+      <c r="N56" s="62"/>
+      <c r="O56" s="62"/>
+      <c r="P56" s="62"/>
+      <c r="Q56" s="62"/>
+      <c r="R56" s="62"/>
+      <c r="S56" s="62"/>
+      <c r="T56" s="62"/>
     </row>
     <row r="58" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
@@ -9337,170 +9337,170 @@
       <c r="E59" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F59" s="71" t="s">
+      <c r="F59" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="G59" s="53"/>
+      <c r="G59" s="88"/>
       <c r="H59" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="I59" s="51" t="s">
+      <c r="I59" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="J59" s="52"/>
-      <c r="K59" s="52"/>
-      <c r="L59" s="52"/>
-      <c r="M59" s="52"/>
-      <c r="N59" s="52"/>
-      <c r="O59" s="52"/>
-      <c r="P59" s="52"/>
-      <c r="Q59" s="52"/>
-      <c r="R59" s="52"/>
-      <c r="S59" s="52"/>
-      <c r="T59" s="53"/>
+      <c r="J59" s="98"/>
+      <c r="K59" s="98"/>
+      <c r="L59" s="98"/>
+      <c r="M59" s="98"/>
+      <c r="N59" s="98"/>
+      <c r="O59" s="98"/>
+      <c r="P59" s="98"/>
+      <c r="Q59" s="98"/>
+      <c r="R59" s="98"/>
+      <c r="S59" s="98"/>
+      <c r="T59" s="88"/>
     </row>
     <row r="60" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E60" s="66" t="s">
+      <c r="E60" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="F60" s="80" t="s">
+      <c r="F60" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="G60" s="56"/>
+      <c r="G60" s="61"/>
       <c r="H60" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="I60" s="54" t="s">
+      <c r="I60" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="J60" s="55"/>
-      <c r="K60" s="55"/>
-      <c r="L60" s="55"/>
-      <c r="M60" s="55"/>
-      <c r="N60" s="55"/>
-      <c r="O60" s="55"/>
-      <c r="P60" s="55"/>
-      <c r="Q60" s="55"/>
-      <c r="R60" s="55"/>
-      <c r="S60" s="55"/>
-      <c r="T60" s="56"/>
+      <c r="J60" s="60"/>
+      <c r="K60" s="60"/>
+      <c r="L60" s="60"/>
+      <c r="M60" s="60"/>
+      <c r="N60" s="60"/>
+      <c r="O60" s="60"/>
+      <c r="P60" s="60"/>
+      <c r="Q60" s="60"/>
+      <c r="R60" s="60"/>
+      <c r="S60" s="60"/>
+      <c r="T60" s="61"/>
     </row>
     <row r="61" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E61" s="69"/>
-      <c r="F61" s="64" t="s">
+      <c r="E61" s="85"/>
+      <c r="F61" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="G61" s="65"/>
+      <c r="G61" s="81"/>
       <c r="H61" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="I61" s="82" t="s">
+      <c r="I61" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="J61" s="83"/>
-      <c r="K61" s="83"/>
-      <c r="L61" s="83"/>
-      <c r="M61" s="83"/>
-      <c r="N61" s="83"/>
-      <c r="O61" s="83"/>
-      <c r="P61" s="83"/>
-      <c r="Q61" s="83"/>
-      <c r="R61" s="83"/>
-      <c r="S61" s="83"/>
-      <c r="T61" s="65"/>
+      <c r="J61" s="80"/>
+      <c r="K61" s="80"/>
+      <c r="L61" s="80"/>
+      <c r="M61" s="80"/>
+      <c r="N61" s="80"/>
+      <c r="O61" s="80"/>
+      <c r="P61" s="80"/>
+      <c r="Q61" s="80"/>
+      <c r="R61" s="80"/>
+      <c r="S61" s="80"/>
+      <c r="T61" s="81"/>
     </row>
     <row r="62" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E62" s="66" t="s">
+      <c r="E62" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="F62" s="81" t="s">
+      <c r="F62" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="G62" s="59"/>
-      <c r="H62" s="95" t="s">
+      <c r="G62" s="78"/>
+      <c r="H62" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="I62" s="57" t="s">
+      <c r="I62" s="99" t="s">
         <v>118</v>
       </c>
-      <c r="J62" s="58"/>
-      <c r="K62" s="58"/>
-      <c r="L62" s="58"/>
-      <c r="M62" s="58"/>
-      <c r="N62" s="58"/>
-      <c r="O62" s="58"/>
-      <c r="P62" s="58"/>
-      <c r="Q62" s="58"/>
-      <c r="R62" s="58"/>
-      <c r="S62" s="58"/>
-      <c r="T62" s="59"/>
+      <c r="J62" s="100"/>
+      <c r="K62" s="100"/>
+      <c r="L62" s="100"/>
+      <c r="M62" s="100"/>
+      <c r="N62" s="100"/>
+      <c r="O62" s="100"/>
+      <c r="P62" s="100"/>
+      <c r="Q62" s="100"/>
+      <c r="R62" s="100"/>
+      <c r="S62" s="100"/>
+      <c r="T62" s="78"/>
     </row>
     <row r="63" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="68"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="50"/>
-      <c r="H63" s="96"/>
-      <c r="I63" s="62" t="s">
+      <c r="E63" s="84"/>
+      <c r="F63" s="76"/>
+      <c r="G63" s="58"/>
+      <c r="H63" s="51"/>
+      <c r="I63" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="J63" s="63"/>
-      <c r="K63" s="63"/>
-      <c r="L63" s="63"/>
-      <c r="M63" s="63"/>
-      <c r="N63" s="63"/>
-      <c r="O63" s="63"/>
-      <c r="P63" s="63"/>
-      <c r="Q63" s="63"/>
-      <c r="R63" s="63"/>
-      <c r="S63" s="63"/>
-      <c r="T63" s="50"/>
+      <c r="J63" s="57"/>
+      <c r="K63" s="57"/>
+      <c r="L63" s="57"/>
+      <c r="M63" s="57"/>
+      <c r="N63" s="57"/>
+      <c r="O63" s="57"/>
+      <c r="P63" s="57"/>
+      <c r="Q63" s="57"/>
+      <c r="R63" s="57"/>
+      <c r="S63" s="57"/>
+      <c r="T63" s="58"/>
     </row>
     <row r="64" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E64" s="68"/>
-      <c r="F64" s="49" t="s">
+      <c r="E64" s="84"/>
+      <c r="F64" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="G64" s="50"/>
-      <c r="H64" s="97" t="s">
+      <c r="G64" s="58"/>
+      <c r="H64" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="I64" s="62" t="s">
+      <c r="I64" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="J64" s="63"/>
-      <c r="K64" s="63"/>
-      <c r="L64" s="63"/>
-      <c r="M64" s="63"/>
-      <c r="N64" s="63"/>
-      <c r="O64" s="63"/>
-      <c r="P64" s="63"/>
-      <c r="Q64" s="63"/>
-      <c r="R64" s="63"/>
-      <c r="S64" s="63"/>
-      <c r="T64" s="50"/>
+      <c r="J64" s="57"/>
+      <c r="K64" s="57"/>
+      <c r="L64" s="57"/>
+      <c r="M64" s="57"/>
+      <c r="N64" s="57"/>
+      <c r="O64" s="57"/>
+      <c r="P64" s="57"/>
+      <c r="Q64" s="57"/>
+      <c r="R64" s="57"/>
+      <c r="S64" s="57"/>
+      <c r="T64" s="58"/>
     </row>
     <row r="65" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E65" s="68"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="50"/>
-      <c r="H65" s="96"/>
-      <c r="I65" s="62" t="s">
+      <c r="E65" s="84"/>
+      <c r="F65" s="76"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="J65" s="63"/>
-      <c r="K65" s="63"/>
-      <c r="L65" s="63"/>
-      <c r="M65" s="63"/>
-      <c r="N65" s="63"/>
-      <c r="O65" s="63"/>
-      <c r="P65" s="63"/>
-      <c r="Q65" s="63"/>
-      <c r="R65" s="63"/>
-      <c r="S65" s="63"/>
-      <c r="T65" s="50"/>
+      <c r="J65" s="57"/>
+      <c r="K65" s="57"/>
+      <c r="L65" s="57"/>
+      <c r="M65" s="57"/>
+      <c r="N65" s="57"/>
+      <c r="O65" s="57"/>
+      <c r="P65" s="57"/>
+      <c r="Q65" s="57"/>
+      <c r="R65" s="57"/>
+      <c r="S65" s="57"/>
+      <c r="T65" s="58"/>
     </row>
     <row r="66" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E66" s="68"/>
+      <c r="E66" s="84"/>
       <c r="F66" s="10" t="s">
         <v>114</v>
       </c>
@@ -9508,347 +9508,347 @@
       <c r="H66" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="I66" s="62" t="s">
+      <c r="I66" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="J66" s="63"/>
-      <c r="K66" s="63"/>
-      <c r="L66" s="63"/>
-      <c r="M66" s="63"/>
-      <c r="N66" s="63"/>
-      <c r="O66" s="63"/>
-      <c r="P66" s="63"/>
-      <c r="Q66" s="63"/>
-      <c r="R66" s="63"/>
-      <c r="S66" s="63"/>
-      <c r="T66" s="50"/>
+      <c r="J66" s="57"/>
+      <c r="K66" s="57"/>
+      <c r="L66" s="57"/>
+      <c r="M66" s="57"/>
+      <c r="N66" s="57"/>
+      <c r="O66" s="57"/>
+      <c r="P66" s="57"/>
+      <c r="Q66" s="57"/>
+      <c r="R66" s="57"/>
+      <c r="S66" s="57"/>
+      <c r="T66" s="58"/>
     </row>
     <row r="67" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E67" s="68"/>
-      <c r="F67" s="49" t="s">
+      <c r="E67" s="84"/>
+      <c r="F67" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="G67" s="50"/>
+      <c r="G67" s="58"/>
       <c r="H67" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="I67" s="62" t="s">
+      <c r="I67" s="56" t="s">
         <v>191</v>
       </c>
-      <c r="J67" s="63"/>
-      <c r="K67" s="63"/>
-      <c r="L67" s="63"/>
-      <c r="M67" s="63"/>
-      <c r="N67" s="63"/>
-      <c r="O67" s="63"/>
-      <c r="P67" s="63"/>
-      <c r="Q67" s="63"/>
-      <c r="R67" s="63"/>
-      <c r="S67" s="63"/>
-      <c r="T67" s="50"/>
+      <c r="J67" s="57"/>
+      <c r="K67" s="57"/>
+      <c r="L67" s="57"/>
+      <c r="M67" s="57"/>
+      <c r="N67" s="57"/>
+      <c r="O67" s="57"/>
+      <c r="P67" s="57"/>
+      <c r="Q67" s="57"/>
+      <c r="R67" s="57"/>
+      <c r="S67" s="57"/>
+      <c r="T67" s="58"/>
     </row>
     <row r="68" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E68" s="68"/>
-      <c r="F68" s="49" t="s">
+      <c r="E68" s="84"/>
+      <c r="F68" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="G68" s="50"/>
+      <c r="G68" s="58"/>
       <c r="H68" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="I68" s="62" t="s">
+      <c r="I68" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="J68" s="63"/>
-      <c r="K68" s="63"/>
-      <c r="L68" s="63"/>
-      <c r="M68" s="63"/>
-      <c r="N68" s="63"/>
-      <c r="O68" s="63"/>
-      <c r="P68" s="63"/>
-      <c r="Q68" s="63"/>
-      <c r="R68" s="63"/>
-      <c r="S68" s="63"/>
-      <c r="T68" s="50"/>
+      <c r="J68" s="57"/>
+      <c r="K68" s="57"/>
+      <c r="L68" s="57"/>
+      <c r="M68" s="57"/>
+      <c r="N68" s="57"/>
+      <c r="O68" s="57"/>
+      <c r="P68" s="57"/>
+      <c r="Q68" s="57"/>
+      <c r="R68" s="57"/>
+      <c r="S68" s="57"/>
+      <c r="T68" s="58"/>
     </row>
     <row r="69" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E69" s="68"/>
-      <c r="F69" s="49" t="s">
+      <c r="E69" s="84"/>
+      <c r="F69" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="G69" s="50"/>
-      <c r="H69" s="97" t="s">
+      <c r="G69" s="58"/>
+      <c r="H69" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="I69" s="62" t="s">
+      <c r="I69" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="J69" s="63"/>
-      <c r="K69" s="63"/>
-      <c r="L69" s="63"/>
-      <c r="M69" s="63"/>
-      <c r="N69" s="63"/>
-      <c r="O69" s="63"/>
-      <c r="P69" s="63"/>
-      <c r="Q69" s="63"/>
-      <c r="R69" s="63"/>
-      <c r="S69" s="63"/>
-      <c r="T69" s="50"/>
+      <c r="J69" s="57"/>
+      <c r="K69" s="57"/>
+      <c r="L69" s="57"/>
+      <c r="M69" s="57"/>
+      <c r="N69" s="57"/>
+      <c r="O69" s="57"/>
+      <c r="P69" s="57"/>
+      <c r="Q69" s="57"/>
+      <c r="R69" s="57"/>
+      <c r="S69" s="57"/>
+      <c r="T69" s="58"/>
     </row>
     <row r="70" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E70" s="68"/>
-      <c r="F70" s="49"/>
-      <c r="G70" s="50"/>
-      <c r="H70" s="96"/>
-      <c r="I70" s="62" t="s">
+      <c r="E70" s="84"/>
+      <c r="F70" s="76"/>
+      <c r="G70" s="58"/>
+      <c r="H70" s="51"/>
+      <c r="I70" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="J70" s="63"/>
-      <c r="K70" s="63"/>
-      <c r="L70" s="63"/>
-      <c r="M70" s="63"/>
-      <c r="N70" s="63"/>
-      <c r="O70" s="63"/>
-      <c r="P70" s="63"/>
-      <c r="Q70" s="63"/>
-      <c r="R70" s="63"/>
-      <c r="S70" s="63"/>
-      <c r="T70" s="50"/>
+      <c r="J70" s="57"/>
+      <c r="K70" s="57"/>
+      <c r="L70" s="57"/>
+      <c r="M70" s="57"/>
+      <c r="N70" s="57"/>
+      <c r="O70" s="57"/>
+      <c r="P70" s="57"/>
+      <c r="Q70" s="57"/>
+      <c r="R70" s="57"/>
+      <c r="S70" s="57"/>
+      <c r="T70" s="58"/>
     </row>
     <row r="71" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E71" s="68"/>
-      <c r="F71" s="49" t="s">
+      <c r="E71" s="84"/>
+      <c r="F71" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="G71" s="50"/>
-      <c r="H71" s="97" t="s">
+      <c r="G71" s="58"/>
+      <c r="H71" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="I71" s="62" t="s">
+      <c r="I71" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="J71" s="63"/>
-      <c r="K71" s="63"/>
-      <c r="L71" s="63"/>
-      <c r="M71" s="63"/>
-      <c r="N71" s="63"/>
-      <c r="O71" s="63"/>
-      <c r="P71" s="63"/>
-      <c r="Q71" s="63"/>
-      <c r="R71" s="63"/>
-      <c r="S71" s="63"/>
-      <c r="T71" s="50"/>
+      <c r="J71" s="57"/>
+      <c r="K71" s="57"/>
+      <c r="L71" s="57"/>
+      <c r="M71" s="57"/>
+      <c r="N71" s="57"/>
+      <c r="O71" s="57"/>
+      <c r="P71" s="57"/>
+      <c r="Q71" s="57"/>
+      <c r="R71" s="57"/>
+      <c r="S71" s="57"/>
+      <c r="T71" s="58"/>
     </row>
     <row r="72" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E72" s="68"/>
-      <c r="F72" s="49"/>
-      <c r="G72" s="50"/>
-      <c r="H72" s="96"/>
-      <c r="I72" s="91" t="s">
+      <c r="E72" s="84"/>
+      <c r="F72" s="76"/>
+      <c r="G72" s="58"/>
+      <c r="H72" s="51"/>
+      <c r="I72" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="J72" s="91"/>
-      <c r="K72" s="91"/>
-      <c r="L72" s="91"/>
-      <c r="M72" s="91"/>
-      <c r="N72" s="91"/>
-      <c r="O72" s="91"/>
-      <c r="P72" s="91"/>
-      <c r="Q72" s="91"/>
-      <c r="R72" s="91"/>
-      <c r="S72" s="91"/>
-      <c r="T72" s="92"/>
+      <c r="J72" s="49"/>
+      <c r="K72" s="49"/>
+      <c r="L72" s="49"/>
+      <c r="M72" s="49"/>
+      <c r="N72" s="49"/>
+      <c r="O72" s="49"/>
+      <c r="P72" s="49"/>
+      <c r="Q72" s="49"/>
+      <c r="R72" s="49"/>
+      <c r="S72" s="49"/>
+      <c r="T72" s="48"/>
     </row>
     <row r="73" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E73" s="68"/>
-      <c r="F73" s="49" t="s">
+      <c r="E73" s="84"/>
+      <c r="F73" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="G73" s="50"/>
+      <c r="G73" s="58"/>
       <c r="H73" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="I73" s="62" t="s">
-        <v>386</v>
-      </c>
-      <c r="J73" s="63"/>
-      <c r="K73" s="63"/>
-      <c r="L73" s="63"/>
-      <c r="M73" s="63"/>
-      <c r="N73" s="63"/>
-      <c r="O73" s="63"/>
-      <c r="P73" s="63"/>
-      <c r="Q73" s="63"/>
-      <c r="R73" s="63"/>
-      <c r="S73" s="63"/>
-      <c r="T73" s="50"/>
+      <c r="I73" s="56" t="s">
+        <v>384</v>
+      </c>
+      <c r="J73" s="57"/>
+      <c r="K73" s="57"/>
+      <c r="L73" s="57"/>
+      <c r="M73" s="57"/>
+      <c r="N73" s="57"/>
+      <c r="O73" s="57"/>
+      <c r="P73" s="57"/>
+      <c r="Q73" s="57"/>
+      <c r="R73" s="57"/>
+      <c r="S73" s="57"/>
+      <c r="T73" s="58"/>
     </row>
     <row r="74" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E74" s="68"/>
-      <c r="F74" s="98" t="s">
-        <v>384</v>
-      </c>
-      <c r="G74" s="92"/>
+      <c r="E74" s="84"/>
+      <c r="F74" s="47" t="s">
+        <v>382</v>
+      </c>
+      <c r="G74" s="48"/>
       <c r="H74" s="45" t="s">
+        <v>381</v>
+      </c>
+      <c r="I74" s="47" t="s">
         <v>383</v>
       </c>
-      <c r="I74" s="98" t="s">
-        <v>385</v>
-      </c>
-      <c r="J74" s="91"/>
-      <c r="K74" s="91"/>
-      <c r="L74" s="91"/>
-      <c r="M74" s="91"/>
-      <c r="N74" s="91"/>
-      <c r="O74" s="91"/>
-      <c r="P74" s="91"/>
-      <c r="Q74" s="91"/>
-      <c r="R74" s="91"/>
-      <c r="S74" s="91"/>
-      <c r="T74" s="92"/>
+      <c r="J74" s="49"/>
+      <c r="K74" s="49"/>
+      <c r="L74" s="49"/>
+      <c r="M74" s="49"/>
+      <c r="N74" s="49"/>
+      <c r="O74" s="49"/>
+      <c r="P74" s="49"/>
+      <c r="Q74" s="49"/>
+      <c r="R74" s="49"/>
+      <c r="S74" s="49"/>
+      <c r="T74" s="48"/>
     </row>
     <row r="75" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E75" s="68"/>
-      <c r="F75" s="49" t="s">
+      <c r="E75" s="84"/>
+      <c r="F75" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="G75" s="50"/>
-      <c r="H75" s="97" t="s">
+      <c r="G75" s="58"/>
+      <c r="H75" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="I75" s="62" t="s">
-        <v>228</v>
-      </c>
-      <c r="J75" s="63"/>
-      <c r="K75" s="63"/>
-      <c r="L75" s="63"/>
-      <c r="M75" s="63"/>
-      <c r="N75" s="63"/>
-      <c r="O75" s="63"/>
-      <c r="P75" s="63"/>
-      <c r="Q75" s="63"/>
-      <c r="R75" s="63"/>
-      <c r="S75" s="63"/>
-      <c r="T75" s="50"/>
+      <c r="I75" s="56" t="s">
+        <v>227</v>
+      </c>
+      <c r="J75" s="57"/>
+      <c r="K75" s="57"/>
+      <c r="L75" s="57"/>
+      <c r="M75" s="57"/>
+      <c r="N75" s="57"/>
+      <c r="O75" s="57"/>
+      <c r="P75" s="57"/>
+      <c r="Q75" s="57"/>
+      <c r="R75" s="57"/>
+      <c r="S75" s="57"/>
+      <c r="T75" s="58"/>
     </row>
     <row r="76" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E76" s="68"/>
-      <c r="F76" s="49"/>
-      <c r="G76" s="50"/>
-      <c r="H76" s="96"/>
-      <c r="I76" s="62" t="s">
+      <c r="E76" s="84"/>
+      <c r="F76" s="76"/>
+      <c r="G76" s="58"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="J76" s="63"/>
-      <c r="K76" s="63"/>
-      <c r="L76" s="63"/>
-      <c r="M76" s="63"/>
-      <c r="N76" s="63"/>
-      <c r="O76" s="63"/>
-      <c r="P76" s="63"/>
-      <c r="Q76" s="63"/>
-      <c r="R76" s="63"/>
-      <c r="S76" s="63"/>
-      <c r="T76" s="50"/>
+      <c r="J76" s="57"/>
+      <c r="K76" s="57"/>
+      <c r="L76" s="57"/>
+      <c r="M76" s="57"/>
+      <c r="N76" s="57"/>
+      <c r="O76" s="57"/>
+      <c r="P76" s="57"/>
+      <c r="Q76" s="57"/>
+      <c r="R76" s="57"/>
+      <c r="S76" s="57"/>
+      <c r="T76" s="58"/>
     </row>
     <row r="77" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E77" s="68"/>
-      <c r="F77" s="49" t="s">
+      <c r="E77" s="84"/>
+      <c r="F77" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="G77" s="50"/>
-      <c r="H77" s="97" t="s">
+      <c r="G77" s="58"/>
+      <c r="H77" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="I77" s="62" t="s">
+      <c r="I77" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="J77" s="63"/>
-      <c r="K77" s="63"/>
-      <c r="L77" s="63"/>
-      <c r="M77" s="63"/>
-      <c r="N77" s="63"/>
-      <c r="O77" s="63"/>
-      <c r="P77" s="63"/>
-      <c r="Q77" s="63"/>
-      <c r="R77" s="63"/>
-      <c r="S77" s="63"/>
-      <c r="T77" s="50"/>
+      <c r="J77" s="57"/>
+      <c r="K77" s="57"/>
+      <c r="L77" s="57"/>
+      <c r="M77" s="57"/>
+      <c r="N77" s="57"/>
+      <c r="O77" s="57"/>
+      <c r="P77" s="57"/>
+      <c r="Q77" s="57"/>
+      <c r="R77" s="57"/>
+      <c r="S77" s="57"/>
+      <c r="T77" s="58"/>
     </row>
     <row r="78" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E78" s="68"/>
-      <c r="F78" s="49"/>
-      <c r="G78" s="50"/>
-      <c r="H78" s="96"/>
-      <c r="I78" s="62" t="s">
+      <c r="E78" s="84"/>
+      <c r="F78" s="76"/>
+      <c r="G78" s="58"/>
+      <c r="H78" s="51"/>
+      <c r="I78" s="56" t="s">
         <v>202</v>
       </c>
-      <c r="J78" s="63"/>
-      <c r="K78" s="63"/>
-      <c r="L78" s="63"/>
-      <c r="M78" s="63"/>
-      <c r="N78" s="63"/>
-      <c r="O78" s="63"/>
-      <c r="P78" s="63"/>
-      <c r="Q78" s="63"/>
-      <c r="R78" s="63"/>
-      <c r="S78" s="63"/>
-      <c r="T78" s="50"/>
+      <c r="J78" s="57"/>
+      <c r="K78" s="57"/>
+      <c r="L78" s="57"/>
+      <c r="M78" s="57"/>
+      <c r="N78" s="57"/>
+      <c r="O78" s="57"/>
+      <c r="P78" s="57"/>
+      <c r="Q78" s="57"/>
+      <c r="R78" s="57"/>
+      <c r="S78" s="57"/>
+      <c r="T78" s="58"/>
     </row>
     <row r="79" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E79" s="68"/>
-      <c r="F79" s="49" t="s">
+      <c r="E79" s="84"/>
+      <c r="F79" s="76" t="s">
         <v>199</v>
       </c>
-      <c r="G79" s="50"/>
+      <c r="G79" s="58"/>
       <c r="H79" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="I79" s="62" t="s">
+      <c r="I79" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="J79" s="63"/>
-      <c r="K79" s="63"/>
-      <c r="L79" s="63"/>
-      <c r="M79" s="63"/>
-      <c r="N79" s="63"/>
-      <c r="O79" s="63"/>
-      <c r="P79" s="63"/>
-      <c r="Q79" s="63"/>
-      <c r="R79" s="63"/>
-      <c r="S79" s="63"/>
-      <c r="T79" s="50"/>
+      <c r="J79" s="57"/>
+      <c r="K79" s="57"/>
+      <c r="L79" s="57"/>
+      <c r="M79" s="57"/>
+      <c r="N79" s="57"/>
+      <c r="O79" s="57"/>
+      <c r="P79" s="57"/>
+      <c r="Q79" s="57"/>
+      <c r="R79" s="57"/>
+      <c r="S79" s="57"/>
+      <c r="T79" s="58"/>
     </row>
     <row r="80" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E80" s="68"/>
-      <c r="F80" s="49" t="s">
+      <c r="E80" s="84"/>
+      <c r="F80" s="76" t="s">
         <v>200</v>
       </c>
-      <c r="G80" s="50"/>
+      <c r="G80" s="58"/>
       <c r="H80" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="I80" s="91" t="s">
+      <c r="I80" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="J80" s="91"/>
-      <c r="K80" s="91"/>
-      <c r="L80" s="91"/>
-      <c r="M80" s="91"/>
-      <c r="N80" s="91"/>
-      <c r="O80" s="91"/>
-      <c r="P80" s="91"/>
-      <c r="Q80" s="91"/>
-      <c r="R80" s="91"/>
-      <c r="S80" s="91"/>
-      <c r="T80" s="92"/>
+      <c r="J80" s="49"/>
+      <c r="K80" s="49"/>
+      <c r="L80" s="49"/>
+      <c r="M80" s="49"/>
+      <c r="N80" s="49"/>
+      <c r="O80" s="49"/>
+      <c r="P80" s="49"/>
+      <c r="Q80" s="49"/>
+      <c r="R80" s="49"/>
+      <c r="S80" s="49"/>
+      <c r="T80" s="48"/>
     </row>
     <row r="81" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E81" s="70"/>
-      <c r="F81" s="98" t="s">
+      <c r="E81" s="86"/>
+      <c r="F81" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="G81" s="92"/>
+      <c r="G81" s="48"/>
       <c r="H81" s="31" t="s">
         <v>203</v>
       </c>
@@ -9868,170 +9868,170 @@
       <c r="T81" s="32"/>
     </row>
     <row r="82" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E82" s="69"/>
-      <c r="F82" s="78" t="s">
+      <c r="E82" s="85"/>
+      <c r="F82" s="92" t="s">
         <v>208</v>
       </c>
-      <c r="G82" s="79"/>
+      <c r="G82" s="93"/>
       <c r="H82" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="I82" s="93" t="s">
+      <c r="I82" s="72" t="s">
         <v>209</v>
       </c>
-      <c r="J82" s="93"/>
-      <c r="K82" s="93"/>
-      <c r="L82" s="93"/>
-      <c r="M82" s="93"/>
-      <c r="N82" s="93"/>
-      <c r="O82" s="93"/>
-      <c r="P82" s="93"/>
-      <c r="Q82" s="93"/>
-      <c r="R82" s="93"/>
-      <c r="S82" s="93"/>
-      <c r="T82" s="94"/>
+      <c r="J82" s="72"/>
+      <c r="K82" s="72"/>
+      <c r="L82" s="72"/>
+      <c r="M82" s="72"/>
+      <c r="N82" s="72"/>
+      <c r="O82" s="72"/>
+      <c r="P82" s="72"/>
+      <c r="Q82" s="72"/>
+      <c r="R82" s="72"/>
+      <c r="S82" s="72"/>
+      <c r="T82" s="73"/>
     </row>
     <row r="83" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="66" t="s">
+      <c r="E83" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="F83" s="80" t="s">
+      <c r="F83" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="G83" s="56"/>
+      <c r="G83" s="61"/>
       <c r="H83" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="I83" s="54" t="s">
+      <c r="I83" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="J83" s="55"/>
-      <c r="K83" s="55"/>
-      <c r="L83" s="55"/>
-      <c r="M83" s="55"/>
-      <c r="N83" s="55"/>
-      <c r="O83" s="55"/>
-      <c r="P83" s="55"/>
-      <c r="Q83" s="55"/>
-      <c r="R83" s="55"/>
-      <c r="S83" s="55"/>
-      <c r="T83" s="56"/>
+      <c r="J83" s="60"/>
+      <c r="K83" s="60"/>
+      <c r="L83" s="60"/>
+      <c r="M83" s="60"/>
+      <c r="N83" s="60"/>
+      <c r="O83" s="60"/>
+      <c r="P83" s="60"/>
+      <c r="Q83" s="60"/>
+      <c r="R83" s="60"/>
+      <c r="S83" s="60"/>
+      <c r="T83" s="61"/>
     </row>
     <row r="84" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E84" s="67"/>
-      <c r="F84" s="99" t="s">
+      <c r="E84" s="83"/>
+      <c r="F84" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="G84" s="100"/>
-      <c r="H84" s="97" t="s">
+      <c r="G84" s="53"/>
+      <c r="H84" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="I84" s="98" t="s">
+      <c r="I84" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="J84" s="91"/>
-      <c r="K84" s="91"/>
-      <c r="L84" s="91"/>
-      <c r="M84" s="91"/>
-      <c r="N84" s="91"/>
-      <c r="O84" s="91"/>
-      <c r="P84" s="91"/>
-      <c r="Q84" s="91"/>
-      <c r="R84" s="91"/>
-      <c r="S84" s="91"/>
-      <c r="T84" s="92"/>
+      <c r="J84" s="49"/>
+      <c r="K84" s="49"/>
+      <c r="L84" s="49"/>
+      <c r="M84" s="49"/>
+      <c r="N84" s="49"/>
+      <c r="O84" s="49"/>
+      <c r="P84" s="49"/>
+      <c r="Q84" s="49"/>
+      <c r="R84" s="49"/>
+      <c r="S84" s="49"/>
+      <c r="T84" s="48"/>
     </row>
     <row r="85" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E85" s="67"/>
-      <c r="F85" s="101"/>
-      <c r="G85" s="102"/>
-      <c r="H85" s="96"/>
-      <c r="I85" s="98" t="s">
+      <c r="E85" s="83"/>
+      <c r="F85" s="54"/>
+      <c r="G85" s="55"/>
+      <c r="H85" s="51"/>
+      <c r="I85" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="J85" s="91"/>
-      <c r="K85" s="91"/>
-      <c r="L85" s="91"/>
-      <c r="M85" s="91"/>
-      <c r="N85" s="91"/>
-      <c r="O85" s="91"/>
-      <c r="P85" s="91"/>
-      <c r="Q85" s="91"/>
-      <c r="R85" s="91"/>
-      <c r="S85" s="91"/>
-      <c r="T85" s="92"/>
+      <c r="J85" s="49"/>
+      <c r="K85" s="49"/>
+      <c r="L85" s="49"/>
+      <c r="M85" s="49"/>
+      <c r="N85" s="49"/>
+      <c r="O85" s="49"/>
+      <c r="P85" s="49"/>
+      <c r="Q85" s="49"/>
+      <c r="R85" s="49"/>
+      <c r="S85" s="49"/>
+      <c r="T85" s="48"/>
     </row>
     <row r="86" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E86" s="68"/>
-      <c r="F86" s="72" t="s">
+      <c r="E86" s="84"/>
+      <c r="F86" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="G86" s="73"/>
+      <c r="G86" s="65"/>
       <c r="H86" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="I86" s="85" t="s">
+      <c r="I86" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="J86" s="86"/>
-      <c r="K86" s="86"/>
-      <c r="L86" s="86"/>
-      <c r="M86" s="86"/>
-      <c r="N86" s="86"/>
-      <c r="O86" s="86"/>
-      <c r="P86" s="86"/>
-      <c r="Q86" s="86"/>
-      <c r="R86" s="86"/>
-      <c r="S86" s="86"/>
-      <c r="T86" s="73"/>
+      <c r="J86" s="64"/>
+      <c r="K86" s="64"/>
+      <c r="L86" s="64"/>
+      <c r="M86" s="64"/>
+      <c r="N86" s="64"/>
+      <c r="O86" s="64"/>
+      <c r="P86" s="64"/>
+      <c r="Q86" s="64"/>
+      <c r="R86" s="64"/>
+      <c r="S86" s="64"/>
+      <c r="T86" s="65"/>
     </row>
     <row r="87" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E87" s="68"/>
-      <c r="F87" s="74" t="s">
+      <c r="E87" s="84"/>
+      <c r="F87" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="G87" s="75"/>
+      <c r="G87" s="68"/>
       <c r="H87" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="I87" s="87" t="s">
+      <c r="I87" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="J87" s="88"/>
-      <c r="K87" s="88"/>
-      <c r="L87" s="88"/>
-      <c r="M87" s="88"/>
-      <c r="N87" s="88"/>
-      <c r="O87" s="88"/>
-      <c r="P87" s="88"/>
-      <c r="Q87" s="88"/>
-      <c r="R87" s="88"/>
-      <c r="S87" s="88"/>
-      <c r="T87" s="75"/>
+      <c r="J87" s="67"/>
+      <c r="K87" s="67"/>
+      <c r="L87" s="67"/>
+      <c r="M87" s="67"/>
+      <c r="N87" s="67"/>
+      <c r="O87" s="67"/>
+      <c r="P87" s="67"/>
+      <c r="Q87" s="67"/>
+      <c r="R87" s="67"/>
+      <c r="S87" s="67"/>
+      <c r="T87" s="68"/>
     </row>
     <row r="88" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E88" s="69"/>
-      <c r="F88" s="76" t="s">
+      <c r="E88" s="85"/>
+      <c r="F88" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="G88" s="77"/>
+      <c r="G88" s="71"/>
       <c r="H88" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="I88" s="89" t="s">
+      <c r="I88" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="J88" s="90"/>
-      <c r="K88" s="90"/>
-      <c r="L88" s="90"/>
-      <c r="M88" s="90"/>
-      <c r="N88" s="90"/>
-      <c r="O88" s="90"/>
-      <c r="P88" s="90"/>
-      <c r="Q88" s="90"/>
-      <c r="R88" s="90"/>
-      <c r="S88" s="90"/>
-      <c r="T88" s="77"/>
+      <c r="J88" s="70"/>
+      <c r="K88" s="70"/>
+      <c r="L88" s="70"/>
+      <c r="M88" s="70"/>
+      <c r="N88" s="70"/>
+      <c r="O88" s="70"/>
+      <c r="P88" s="70"/>
+      <c r="Q88" s="70"/>
+      <c r="R88" s="70"/>
+      <c r="S88" s="70"/>
+      <c r="T88" s="71"/>
     </row>
     <row r="89" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F89" s="7" t="s">
@@ -10040,26 +10040,54 @@
     </row>
     <row r="90" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F90" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="I74:T74"/>
-    <mergeCell ref="I84:T84"/>
-    <mergeCell ref="I85:T85"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="F84:G85"/>
-    <mergeCell ref="I77:T77"/>
-    <mergeCell ref="I83:T83"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="I71:T71"/>
-    <mergeCell ref="I73:T73"/>
-    <mergeCell ref="I75:T75"/>
-    <mergeCell ref="I76:T76"/>
-    <mergeCell ref="I69:T69"/>
-    <mergeCell ref="I70:T70"/>
+    <mergeCell ref="C2:V3"/>
+    <mergeCell ref="F69:G70"/>
+    <mergeCell ref="I59:T59"/>
+    <mergeCell ref="I60:T60"/>
+    <mergeCell ref="I62:T62"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="I64:T64"/>
+    <mergeCell ref="I65:T65"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="E83:E88"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E62:E82"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="F77:G78"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F75:G76"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F71:G72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F64:G65"/>
+    <mergeCell ref="F62:G63"/>
+    <mergeCell ref="I61:T61"/>
+    <mergeCell ref="I67:T67"/>
+    <mergeCell ref="I68:T68"/>
+    <mergeCell ref="I63:T63"/>
+    <mergeCell ref="G51:T51"/>
+    <mergeCell ref="G52:T52"/>
+    <mergeCell ref="G53:T53"/>
+    <mergeCell ref="G54:T54"/>
+    <mergeCell ref="G55:T55"/>
     <mergeCell ref="G56:T56"/>
     <mergeCell ref="I86:T86"/>
     <mergeCell ref="I87:T87"/>
@@ -10076,49 +10104,21 @@
     <mergeCell ref="H75:H76"/>
     <mergeCell ref="H77:H78"/>
     <mergeCell ref="I66:T66"/>
-    <mergeCell ref="G51:T51"/>
-    <mergeCell ref="G52:T52"/>
-    <mergeCell ref="G53:T53"/>
-    <mergeCell ref="G54:T54"/>
-    <mergeCell ref="G55:T55"/>
-    <mergeCell ref="F64:G65"/>
-    <mergeCell ref="F62:G63"/>
-    <mergeCell ref="I61:T61"/>
-    <mergeCell ref="I67:T67"/>
-    <mergeCell ref="I68:T68"/>
-    <mergeCell ref="I63:T63"/>
-    <mergeCell ref="E83:E88"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="E62:E82"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="F77:G78"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F75:G76"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F71:G72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="C2:V3"/>
-    <mergeCell ref="F69:G70"/>
-    <mergeCell ref="I59:T59"/>
-    <mergeCell ref="I60:T60"/>
-    <mergeCell ref="I62:T62"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="I64:T64"/>
-    <mergeCell ref="I65:T65"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="I71:T71"/>
+    <mergeCell ref="I73:T73"/>
+    <mergeCell ref="I75:T75"/>
+    <mergeCell ref="I76:T76"/>
+    <mergeCell ref="I69:T69"/>
+    <mergeCell ref="I70:T70"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="I74:T74"/>
+    <mergeCell ref="I84:T84"/>
+    <mergeCell ref="I85:T85"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="F84:G85"/>
+    <mergeCell ref="I77:T77"/>
+    <mergeCell ref="I83:T83"/>
+    <mergeCell ref="F81:G81"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10141,46 +10141,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="95"/>
+      <c r="T3" s="95"/>
     </row>
     <row r="4" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
     </row>
     <row r="6" spans="3:20" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="5"/>
@@ -10316,7 +10316,7 @@
         <v>107</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>106</v>
@@ -10380,8 +10380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AG11"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10389,7 +10389,7 @@
     <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="39.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.625" bestFit="1" customWidth="1"/>
@@ -10413,50 +10413,50 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="107" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="121" t="s">
-        <v>379</v>
-      </c>
-      <c r="J3" s="120"/>
-      <c r="K3" s="112" t="s">
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="110" t="s">
+        <v>377</v>
+      </c>
+      <c r="J3" s="109"/>
+      <c r="K3" s="116" t="s">
         <v>91</v>
       </c>
-      <c r="L3" s="112"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
-      <c r="U3" s="113"/>
-      <c r="V3" s="114"/>
-      <c r="W3" s="115" t="s">
+      <c r="L3" s="116"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="107"/>
+      <c r="W3" s="118" t="s">
         <v>198</v>
       </c>
-      <c r="X3" s="114"/>
-      <c r="Y3" s="121" t="s">
+      <c r="X3" s="107"/>
+      <c r="Y3" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="Z3" s="119"/>
-      <c r="AA3" s="120"/>
-      <c r="AB3" s="107" t="s">
+      <c r="Z3" s="108"/>
+      <c r="AA3" s="109"/>
+      <c r="AB3" s="114" t="s">
         <v>89</v>
       </c>
-      <c r="AC3" s="108"/>
-      <c r="AD3" s="108"/>
-      <c r="AE3" s="108"/>
-      <c r="AF3" s="108"/>
-      <c r="AG3" s="108"/>
+      <c r="AC3" s="115"/>
+      <c r="AD3" s="115"/>
+      <c r="AE3" s="115"/>
+      <c r="AF3" s="115"/>
+      <c r="AG3" s="115"/>
     </row>
     <row r="4" spans="2:33" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
@@ -10490,7 +10490,7 @@
         <v>86</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="M4" s="12" t="s">
         <v>85</v>
@@ -10502,7 +10502,7 @@
         <v>86</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>85</v>
@@ -10511,10 +10511,10 @@
         <v>85</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="U4" s="12" t="s">
         <v>86</v>
@@ -10528,11 +10528,11 @@
       <c r="X4" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="Y4" s="116" t="s">
+      <c r="Y4" s="119" t="s">
         <v>85</v>
       </c>
-      <c r="Z4" s="117"/>
-      <c r="AA4" s="118"/>
+      <c r="Z4" s="120"/>
+      <c r="AA4" s="121"/>
       <c r="AB4" s="23" t="s">
         <v>86</v>
       </c>
@@ -10575,7 +10575,7 @@
         <v>78</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J5" s="21" t="s">
         <v>77</v>
@@ -10584,7 +10584,7 @@
         <v>157</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="M5" s="39" t="s">
         <v>76</v>
@@ -10596,7 +10596,7 @@
         <v>74</v>
       </c>
       <c r="P5" s="46" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="Q5" s="21" t="s">
         <v>73</v>
@@ -10608,7 +10608,7 @@
         <v>192</v>
       </c>
       <c r="T5" s="46" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="U5" s="21" t="s">
         <v>71</v>
@@ -10622,11 +10622,11 @@
       <c r="X5" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="Y5" s="109" t="s">
-        <v>377</v>
-      </c>
-      <c r="Z5" s="110"/>
-      <c r="AA5" s="111"/>
+      <c r="Y5" s="111" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z5" s="112"/>
+      <c r="AA5" s="113"/>
       <c r="AB5" s="22" t="s">
         <v>207</v>
       </c>
@@ -10661,14 +10661,14 @@
         <v>127.122929</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H6" s="39"/>
       <c r="I6" s="39">
         <v>0</v>
       </c>
       <c r="J6" s="39" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="K6" s="35"/>
       <c r="L6" s="35"/>
@@ -10717,7 +10717,7 @@
         <v>112</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J7" s="17">
         <v>2</v>
@@ -10736,11 +10736,11 @@
       <c r="V7" s="17"/>
       <c r="W7" s="36"/>
       <c r="X7" s="37"/>
-      <c r="Y7" s="109">
+      <c r="Y7" s="111">
         <v>1</v>
       </c>
-      <c r="Z7" s="110"/>
-      <c r="AA7" s="111"/>
+      <c r="Z7" s="112"/>
+      <c r="AA7" s="113"/>
       <c r="AB7" s="22"/>
       <c r="AC7" s="21"/>
       <c r="AD7" s="21"/>
@@ -10765,7 +10765,7 @@
         <v>127.123762</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="21">
@@ -10788,9 +10788,9 @@
       <c r="V8" s="1"/>
       <c r="W8" s="36"/>
       <c r="X8" s="37"/>
-      <c r="Y8" s="109"/>
-      <c r="Z8" s="110"/>
-      <c r="AA8" s="111"/>
+      <c r="Y8" s="111"/>
+      <c r="Z8" s="112"/>
+      <c r="AA8" s="113"/>
       <c r="AB8" s="9" t="s">
         <v>193</v>
       </c>
@@ -10839,7 +10839,7 @@
         <v>11</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>225</v>
+        <v>391</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="1">
@@ -10849,7 +10849,7 @@
         <v>8</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P9" s="1"/>
       <c r="Q9" s="1">
@@ -10859,7 +10859,7 @@
         <v>9</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>252</v>
+        <v>392</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1">
@@ -10870,9 +10870,9 @@
       </c>
       <c r="W9" s="36"/>
       <c r="X9" s="37"/>
-      <c r="Y9" s="109"/>
-      <c r="Z9" s="110"/>
-      <c r="AA9" s="111"/>
+      <c r="Y9" s="111"/>
+      <c r="Z9" s="112"/>
+      <c r="AA9" s="113"/>
       <c r="AB9" s="9"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
@@ -10926,9 +10926,9 @@
       <c r="X10" s="37">
         <v>13</v>
       </c>
-      <c r="Y10" s="109"/>
-      <c r="Z10" s="110"/>
-      <c r="AA10" s="111"/>
+      <c r="Y10" s="111"/>
+      <c r="Z10" s="112"/>
+      <c r="AA10" s="113"/>
       <c r="AB10" s="9"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
@@ -10938,16 +10938,11 @@
     </row>
     <row r="11" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="Y8:AA8"/>
     <mergeCell ref="AB3:AG3"/>
     <mergeCell ref="Y9:AA9"/>
     <mergeCell ref="Y10:AA10"/>
@@ -10955,6 +10950,11 @@
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y4:AA4"/>
     <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="Y8:AA8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11029,7 +11029,7 @@
         <v>136</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
@@ -11051,7 +11051,7 @@
         <v>135</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
@@ -11062,7 +11062,7 @@
         <v>140</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
@@ -11073,7 +11073,7 @@
         <v>141</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
@@ -11095,7 +11095,7 @@
         <v>144</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
@@ -11106,7 +11106,7 @@
         <v>135</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
@@ -11128,7 +11128,7 @@
         <v>139</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
@@ -11172,7 +11172,7 @@
         <v>139</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
@@ -11183,7 +11183,7 @@
         <v>148</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
@@ -11194,7 +11194,7 @@
         <v>149</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
@@ -11205,7 +11205,7 @@
         <v>131</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
@@ -11216,7 +11216,7 @@
         <v>151</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
@@ -11227,7 +11227,7 @@
         <v>152</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
@@ -11238,7 +11238,7 @@
         <v>139</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
@@ -11282,7 +11282,7 @@
         <v>135</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
@@ -11293,7 +11293,7 @@
         <v>135</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
@@ -11326,7 +11326,7 @@
         <v>162</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
@@ -11337,7 +11337,7 @@
         <v>163</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
@@ -11348,7 +11348,7 @@
         <v>160</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
@@ -11370,7 +11370,7 @@
         <v>164</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
@@ -11425,7 +11425,7 @@
         <v>163</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
@@ -11436,7 +11436,7 @@
         <v>174</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
@@ -11447,7 +11447,7 @@
         <v>174</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
@@ -11469,7 +11469,7 @@
         <v>158</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
@@ -11491,7 +11491,7 @@
         <v>163</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
@@ -11502,7 +11502,7 @@
         <v>178</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
@@ -11513,7 +11513,7 @@
         <v>178</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
@@ -11535,7 +11535,7 @@
         <v>163</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
@@ -11557,7 +11557,7 @@
         <v>163</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
@@ -11590,7 +11590,7 @@
         <v>163</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
@@ -11601,7 +11601,7 @@
         <v>160</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
@@ -11678,7 +11678,7 @@
         <v>224</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.3">
@@ -11689,7 +11689,7 @@
         <v>217</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
@@ -11697,10 +11697,10 @@
         <v>8</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.3">
@@ -11711,7 +11711,7 @@
         <v>217</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.3">
@@ -11722,7 +11722,7 @@
         <v>218</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
@@ -11733,7 +11733,7 @@
         <v>217</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
@@ -11741,10 +11741,10 @@
         <v>8</v>
       </c>
       <c r="C71" s="27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.3">
@@ -11752,10 +11752,10 @@
         <v>8</v>
       </c>
       <c r="C72" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="D72" s="28" t="s">
         <v>232</v>
-      </c>
-      <c r="D72" s="28" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
@@ -11766,7 +11766,7 @@
         <v>217</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
@@ -11774,10 +11774,10 @@
         <v>8</v>
       </c>
       <c r="C74" s="27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.3">
@@ -11785,10 +11785,10 @@
         <v>8</v>
       </c>
       <c r="C75" s="27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.3">
@@ -11796,10 +11796,10 @@
         <v>8</v>
       </c>
       <c r="C76" s="27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.3">
@@ -11810,7 +11810,7 @@
         <v>217</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.3">
@@ -11818,10 +11818,10 @@
         <v>8</v>
       </c>
       <c r="C78" s="27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.3">
@@ -11829,10 +11829,10 @@
         <v>8</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D79" s="28" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.3">
@@ -11840,10 +11840,10 @@
         <v>8</v>
       </c>
       <c r="C80" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="D80" s="28" t="s">
         <v>241</v>
-      </c>
-      <c r="D80" s="28" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.3">
@@ -11851,10 +11851,10 @@
         <v>8</v>
       </c>
       <c r="C81" s="27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.3">
@@ -11862,10 +11862,10 @@
         <v>9</v>
       </c>
       <c r="C82" s="27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.3">
@@ -11873,10 +11873,10 @@
         <v>9</v>
       </c>
       <c r="C83" s="27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.3">
@@ -11884,10 +11884,10 @@
         <v>9</v>
       </c>
       <c r="C84" s="27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D84" s="28" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.3">
@@ -11895,10 +11895,10 @@
         <v>9</v>
       </c>
       <c r="C85" s="27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D85" s="28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.3">
@@ -11906,10 +11906,10 @@
         <v>9</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.3">
@@ -11917,10 +11917,10 @@
         <v>9</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.3">
@@ -11931,7 +11931,7 @@
         <v>217</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.3">
@@ -11939,10 +11939,10 @@
         <v>9</v>
       </c>
       <c r="C89" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.3">
@@ -11953,7 +11953,7 @@
         <v>217</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.3">
@@ -11961,10 +11961,10 @@
         <v>10</v>
       </c>
       <c r="C91" s="27" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.3">
@@ -11975,7 +11975,7 @@
         <v>217</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.3">
@@ -11983,10 +11983,10 @@
         <v>10</v>
       </c>
       <c r="C93" s="27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.3">
@@ -11997,7 +11997,7 @@
         <v>221</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.3">
@@ -12008,7 +12008,7 @@
         <v>217</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.3">
@@ -12019,7 +12019,7 @@
         <v>217</v>
       </c>
       <c r="D96" s="28" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.3">
@@ -12030,7 +12030,7 @@
         <v>218</v>
       </c>
       <c r="D97" s="28" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
@@ -12041,7 +12041,7 @@
         <v>217</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.3">
@@ -12052,7 +12052,7 @@
         <v>217</v>
       </c>
       <c r="D99" s="28" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.3">
@@ -12060,10 +12060,10 @@
         <v>10</v>
       </c>
       <c r="C100" s="27" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D100" s="28" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.3">
@@ -12074,7 +12074,7 @@
         <v>217</v>
       </c>
       <c r="D101" s="28" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.3">
@@ -12085,7 +12085,7 @@
         <v>217</v>
       </c>
       <c r="D102" s="28" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.3">
@@ -12096,7 +12096,7 @@
         <v>217</v>
       </c>
       <c r="D103" s="28" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.3">
@@ -12104,10 +12104,10 @@
         <v>12</v>
       </c>
       <c r="C104" s="27" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D104" s="28" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.3">
@@ -12115,10 +12115,10 @@
         <v>12</v>
       </c>
       <c r="C105" s="27" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D105" s="28" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.3">
@@ -12129,7 +12129,7 @@
         <v>217</v>
       </c>
       <c r="D106" s="28" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.3">
@@ -12140,7 +12140,7 @@
         <v>221</v>
       </c>
       <c r="D107" s="28" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.3">
@@ -12151,7 +12151,7 @@
         <v>217</v>
       </c>
       <c r="D108" s="28" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.3">
@@ -12159,10 +12159,10 @@
         <v>12</v>
       </c>
       <c r="C109" s="27" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D109" s="28" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.3">
@@ -12173,7 +12173,7 @@
         <v>218</v>
       </c>
       <c r="D110" s="28" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.3">
@@ -12181,10 +12181,10 @@
         <v>12</v>
       </c>
       <c r="C111" s="27" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D111" s="28" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.3">
@@ -12192,10 +12192,10 @@
         <v>12</v>
       </c>
       <c r="C112" s="27" t="s">
+        <v>264</v>
+      </c>
+      <c r="D112" s="28" t="s">
         <v>266</v>
-      </c>
-      <c r="D112" s="28" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.3">
@@ -12206,7 +12206,7 @@
         <v>218</v>
       </c>
       <c r="D113" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.3">
@@ -12217,7 +12217,7 @@
         <v>217</v>
       </c>
       <c r="D114" s="28" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.3">
@@ -12228,7 +12228,7 @@
         <v>218</v>
       </c>
       <c r="D115" s="28" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.3">
@@ -12239,7 +12239,7 @@
         <v>221</v>
       </c>
       <c r="D116" s="28" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.3">
@@ -12250,7 +12250,7 @@
         <v>217</v>
       </c>
       <c r="D117" s="28" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.3">
@@ -12261,7 +12261,7 @@
         <v>218</v>
       </c>
       <c r="D118" s="28" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.3">
@@ -12272,7 +12272,7 @@
         <v>217</v>
       </c>
       <c r="D119" s="28" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.3">
@@ -12280,10 +12280,10 @@
         <v>12</v>
       </c>
       <c r="C120" s="27" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D120" s="28" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.3">
@@ -12291,10 +12291,10 @@
         <v>12</v>
       </c>
       <c r="C121" s="27" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D121" s="28" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.3">
@@ -12302,10 +12302,10 @@
         <v>13</v>
       </c>
       <c r="C122" s="27" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D122" s="28" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.3">
@@ -12313,10 +12313,10 @@
         <v>13</v>
       </c>
       <c r="C123" s="27" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D123" s="28" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.3">
@@ -12327,7 +12327,7 @@
         <v>221</v>
       </c>
       <c r="D124" s="28" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.3">
@@ -12335,10 +12335,10 @@
         <v>13</v>
       </c>
       <c r="C125" s="27" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D125" s="28" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.3">
@@ -12349,7 +12349,7 @@
         <v>217</v>
       </c>
       <c r="D126" s="28" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.3">
@@ -12357,10 +12357,10 @@
         <v>14</v>
       </c>
       <c r="C127" s="27" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D127" s="28" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.3">
@@ -12371,7 +12371,7 @@
         <v>217</v>
       </c>
       <c r="D128" s="28" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.3">
@@ -12379,10 +12379,10 @@
         <v>14</v>
       </c>
       <c r="C129" s="27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D129" s="28" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.3">
@@ -12393,7 +12393,7 @@
         <v>218</v>
       </c>
       <c r="D130" s="28" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.3">
@@ -12404,7 +12404,7 @@
         <v>218</v>
       </c>
       <c r="D131" s="28" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.3">
@@ -12415,7 +12415,7 @@
         <v>217</v>
       </c>
       <c r="D132" s="28" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.3">
@@ -12426,7 +12426,7 @@
         <v>217</v>
       </c>
       <c r="D133" s="28" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.3">
@@ -12437,7 +12437,7 @@
         <v>217</v>
       </c>
       <c r="D134" s="28" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.3">
@@ -12448,7 +12448,7 @@
         <v>217</v>
       </c>
       <c r="D135" s="28" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.3">
@@ -12456,10 +12456,10 @@
         <v>15</v>
       </c>
       <c r="C136" s="27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D136" s="28" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.3">
@@ -12467,10 +12467,10 @@
         <v>15</v>
       </c>
       <c r="C137" s="27" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D137" s="28" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.3">
@@ -12478,10 +12478,10 @@
         <v>15</v>
       </c>
       <c r="C138" s="27" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D138" s="28" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.3">
@@ -12489,10 +12489,10 @@
         <v>15</v>
       </c>
       <c r="C139" s="27" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D139" s="28" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.3">
@@ -12503,7 +12503,7 @@
         <v>217</v>
       </c>
       <c r="D140" s="28" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.3">
@@ -12511,10 +12511,10 @@
         <v>15</v>
       </c>
       <c r="C141" s="27" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D141" s="28" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.3">
@@ -12525,7 +12525,7 @@
         <v>217</v>
       </c>
       <c r="D142" s="28" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.3">
@@ -12536,7 +12536,7 @@
         <v>221</v>
       </c>
       <c r="D143" s="28" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.3">
@@ -12544,10 +12544,10 @@
         <v>15</v>
       </c>
       <c r="C144" s="27" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D144" s="28" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>

--- a/00.기획서/221016_스테이지 기획서_V110.xlsx
+++ b/00.기획서/221016_스테이지 기획서_V110.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\RocketTeamDocu\00.기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RocketTeamDocu\00.기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="docu_1" sheetId="7" r:id="rId1"/>
@@ -6828,14 +6828,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(아무거나 집어서 사 온 것은…안약이었다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안약을… 사 온 거야?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>하하하…있잖아 정신없이 약국에 들어갔더니 아무것도 기억이 안 나는 거야.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -7009,6 +7001,14 @@
   </si>
   <si>
     <t>비타민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(아무거나 집어서 사 온 것은…비타민이었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비타민을… 사 온 거야?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8020,41 +8020,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -8065,61 +8050,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8143,16 +8095,22 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8164,28 +8122,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8200,16 +8200,10 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8221,16 +8215,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8243,6 +8234,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8935,50 +8935,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="96"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
     </row>
     <row r="3" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="96"/>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
     </row>
     <row r="5" spans="3:22" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="3"/>
@@ -9074,12 +9074,12 @@
     </row>
     <row r="14" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -9197,136 +9197,136 @@
       </c>
     </row>
     <row r="51" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E51" s="75" t="s">
+      <c r="E51" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="75"/>
-      <c r="G51" s="75" t="s">
+      <c r="F51" s="61"/>
+      <c r="G51" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="H51" s="75"/>
-      <c r="I51" s="75"/>
-      <c r="J51" s="75"/>
-      <c r="K51" s="75"/>
-      <c r="L51" s="75"/>
-      <c r="M51" s="75"/>
-      <c r="N51" s="75"/>
-      <c r="O51" s="75"/>
-      <c r="P51" s="75"/>
-      <c r="Q51" s="75"/>
-      <c r="R51" s="75"/>
-      <c r="S51" s="75"/>
-      <c r="T51" s="75"/>
+      <c r="H51" s="61"/>
+      <c r="I51" s="61"/>
+      <c r="J51" s="61"/>
+      <c r="K51" s="61"/>
+      <c r="L51" s="61"/>
+      <c r="M51" s="61"/>
+      <c r="N51" s="61"/>
+      <c r="O51" s="61"/>
+      <c r="P51" s="61"/>
+      <c r="Q51" s="61"/>
+      <c r="R51" s="61"/>
+      <c r="S51" s="61"/>
+      <c r="T51" s="61"/>
     </row>
     <row r="52" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E52" s="101" t="s">
+      <c r="E52" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="F52" s="101"/>
-      <c r="G52" s="62" t="s">
+      <c r="F52" s="60"/>
+      <c r="G52" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="H52" s="62"/>
-      <c r="I52" s="62"/>
-      <c r="J52" s="62"/>
-      <c r="K52" s="62"/>
-      <c r="L52" s="62"/>
-      <c r="M52" s="62"/>
-      <c r="N52" s="62"/>
-      <c r="O52" s="62"/>
-      <c r="P52" s="62"/>
-      <c r="Q52" s="62"/>
-      <c r="R52" s="62"/>
-      <c r="S52" s="62"/>
-      <c r="T52" s="62"/>
+      <c r="H52" s="84"/>
+      <c r="I52" s="84"/>
+      <c r="J52" s="84"/>
+      <c r="K52" s="84"/>
+      <c r="L52" s="84"/>
+      <c r="M52" s="84"/>
+      <c r="N52" s="84"/>
+      <c r="O52" s="84"/>
+      <c r="P52" s="84"/>
+      <c r="Q52" s="84"/>
+      <c r="R52" s="84"/>
+      <c r="S52" s="84"/>
+      <c r="T52" s="84"/>
     </row>
     <row r="53" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E53" s="101" t="s">
+      <c r="E53" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="F53" s="101"/>
-      <c r="G53" s="62" t="s">
+      <c r="F53" s="60"/>
+      <c r="G53" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="H53" s="62"/>
-      <c r="I53" s="62"/>
-      <c r="J53" s="62"/>
-      <c r="K53" s="62"/>
-      <c r="L53" s="62"/>
-      <c r="M53" s="62"/>
-      <c r="N53" s="62"/>
-      <c r="O53" s="62"/>
-      <c r="P53" s="62"/>
-      <c r="Q53" s="62"/>
-      <c r="R53" s="62"/>
-      <c r="S53" s="62"/>
-      <c r="T53" s="62"/>
+      <c r="H53" s="84"/>
+      <c r="I53" s="84"/>
+      <c r="J53" s="84"/>
+      <c r="K53" s="84"/>
+      <c r="L53" s="84"/>
+      <c r="M53" s="84"/>
+      <c r="N53" s="84"/>
+      <c r="O53" s="84"/>
+      <c r="P53" s="84"/>
+      <c r="Q53" s="84"/>
+      <c r="R53" s="84"/>
+      <c r="S53" s="84"/>
+      <c r="T53" s="84"/>
     </row>
     <row r="54" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E54" s="101" t="s">
+      <c r="E54" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F54" s="101"/>
-      <c r="G54" s="62" t="s">
+      <c r="F54" s="60"/>
+      <c r="G54" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="H54" s="62"/>
-      <c r="I54" s="62"/>
-      <c r="J54" s="62"/>
-      <c r="K54" s="62"/>
-      <c r="L54" s="62"/>
-      <c r="M54" s="62"/>
-      <c r="N54" s="62"/>
-      <c r="O54" s="62"/>
-      <c r="P54" s="62"/>
-      <c r="Q54" s="62"/>
-      <c r="R54" s="62"/>
-      <c r="S54" s="62"/>
-      <c r="T54" s="62"/>
+      <c r="H54" s="84"/>
+      <c r="I54" s="84"/>
+      <c r="J54" s="84"/>
+      <c r="K54" s="84"/>
+      <c r="L54" s="84"/>
+      <c r="M54" s="84"/>
+      <c r="N54" s="84"/>
+      <c r="O54" s="84"/>
+      <c r="P54" s="84"/>
+      <c r="Q54" s="84"/>
+      <c r="R54" s="84"/>
+      <c r="S54" s="84"/>
+      <c r="T54" s="84"/>
     </row>
     <row r="55" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E55" s="101" t="s">
+      <c r="E55" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="F55" s="101"/>
-      <c r="G55" s="62" t="s">
+      <c r="F55" s="60"/>
+      <c r="G55" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="H55" s="62"/>
-      <c r="I55" s="62"/>
-      <c r="J55" s="62"/>
-      <c r="K55" s="62"/>
-      <c r="L55" s="62"/>
-      <c r="M55" s="62"/>
-      <c r="N55" s="62"/>
-      <c r="O55" s="62"/>
-      <c r="P55" s="62"/>
-      <c r="Q55" s="62"/>
-      <c r="R55" s="62"/>
-      <c r="S55" s="62"/>
-      <c r="T55" s="62"/>
+      <c r="H55" s="84"/>
+      <c r="I55" s="84"/>
+      <c r="J55" s="84"/>
+      <c r="K55" s="84"/>
+      <c r="L55" s="84"/>
+      <c r="M55" s="84"/>
+      <c r="N55" s="84"/>
+      <c r="O55" s="84"/>
+      <c r="P55" s="84"/>
+      <c r="Q55" s="84"/>
+      <c r="R55" s="84"/>
+      <c r="S55" s="84"/>
+      <c r="T55" s="84"/>
     </row>
     <row r="56" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E56" s="101" t="s">
+      <c r="E56" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="F56" s="101"/>
-      <c r="G56" s="62" t="s">
+      <c r="F56" s="60"/>
+      <c r="G56" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="H56" s="62"/>
-      <c r="I56" s="62"/>
-      <c r="J56" s="62"/>
-      <c r="K56" s="62"/>
-      <c r="L56" s="62"/>
-      <c r="M56" s="62"/>
-      <c r="N56" s="62"/>
-      <c r="O56" s="62"/>
-      <c r="P56" s="62"/>
-      <c r="Q56" s="62"/>
-      <c r="R56" s="62"/>
-      <c r="S56" s="62"/>
-      <c r="T56" s="62"/>
+      <c r="H56" s="84"/>
+      <c r="I56" s="84"/>
+      <c r="J56" s="84"/>
+      <c r="K56" s="84"/>
+      <c r="L56" s="84"/>
+      <c r="M56" s="84"/>
+      <c r="N56" s="84"/>
+      <c r="O56" s="84"/>
+      <c r="P56" s="84"/>
+      <c r="Q56" s="84"/>
+      <c r="R56" s="84"/>
+      <c r="S56" s="84"/>
+      <c r="T56" s="84"/>
     </row>
     <row r="58" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
@@ -9337,170 +9337,170 @@
       <c r="E59" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F59" s="87" t="s">
+      <c r="F59" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="G59" s="88"/>
+      <c r="G59" s="53"/>
       <c r="H59" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="I59" s="97" t="s">
+      <c r="I59" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="J59" s="98"/>
-      <c r="K59" s="98"/>
-      <c r="L59" s="98"/>
-      <c r="M59" s="98"/>
-      <c r="N59" s="98"/>
-      <c r="O59" s="98"/>
-      <c r="P59" s="98"/>
-      <c r="Q59" s="98"/>
-      <c r="R59" s="98"/>
-      <c r="S59" s="98"/>
-      <c r="T59" s="88"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="52"/>
+      <c r="L59" s="52"/>
+      <c r="M59" s="52"/>
+      <c r="N59" s="52"/>
+      <c r="O59" s="52"/>
+      <c r="P59" s="52"/>
+      <c r="Q59" s="52"/>
+      <c r="R59" s="52"/>
+      <c r="S59" s="52"/>
+      <c r="T59" s="53"/>
     </row>
     <row r="60" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E60" s="82" t="s">
+      <c r="E60" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="F60" s="94" t="s">
+      <c r="F60" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="G60" s="61"/>
+      <c r="G60" s="56"/>
       <c r="H60" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="I60" s="59" t="s">
+      <c r="I60" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="J60" s="60"/>
-      <c r="K60" s="60"/>
-      <c r="L60" s="60"/>
-      <c r="M60" s="60"/>
-      <c r="N60" s="60"/>
-      <c r="O60" s="60"/>
-      <c r="P60" s="60"/>
-      <c r="Q60" s="60"/>
-      <c r="R60" s="60"/>
-      <c r="S60" s="60"/>
-      <c r="T60" s="61"/>
+      <c r="J60" s="55"/>
+      <c r="K60" s="55"/>
+      <c r="L60" s="55"/>
+      <c r="M60" s="55"/>
+      <c r="N60" s="55"/>
+      <c r="O60" s="55"/>
+      <c r="P60" s="55"/>
+      <c r="Q60" s="55"/>
+      <c r="R60" s="55"/>
+      <c r="S60" s="55"/>
+      <c r="T60" s="56"/>
     </row>
     <row r="61" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E61" s="85"/>
-      <c r="F61" s="102" t="s">
+      <c r="E61" s="69"/>
+      <c r="F61" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="G61" s="81"/>
+      <c r="G61" s="65"/>
       <c r="H61" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="I61" s="79" t="s">
+      <c r="I61" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="J61" s="80"/>
-      <c r="K61" s="80"/>
-      <c r="L61" s="80"/>
-      <c r="M61" s="80"/>
-      <c r="N61" s="80"/>
-      <c r="O61" s="80"/>
-      <c r="P61" s="80"/>
-      <c r="Q61" s="80"/>
-      <c r="R61" s="80"/>
-      <c r="S61" s="80"/>
-      <c r="T61" s="81"/>
+      <c r="J61" s="83"/>
+      <c r="K61" s="83"/>
+      <c r="L61" s="83"/>
+      <c r="M61" s="83"/>
+      <c r="N61" s="83"/>
+      <c r="O61" s="83"/>
+      <c r="P61" s="83"/>
+      <c r="Q61" s="83"/>
+      <c r="R61" s="83"/>
+      <c r="S61" s="83"/>
+      <c r="T61" s="65"/>
     </row>
     <row r="62" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E62" s="82" t="s">
+      <c r="E62" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="F62" s="77" t="s">
+      <c r="F62" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="G62" s="78"/>
-      <c r="H62" s="74" t="s">
+      <c r="G62" s="59"/>
+      <c r="H62" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="I62" s="99" t="s">
+      <c r="I62" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="J62" s="100"/>
-      <c r="K62" s="100"/>
-      <c r="L62" s="100"/>
-      <c r="M62" s="100"/>
-      <c r="N62" s="100"/>
-      <c r="O62" s="100"/>
-      <c r="P62" s="100"/>
-      <c r="Q62" s="100"/>
-      <c r="R62" s="100"/>
-      <c r="S62" s="100"/>
-      <c r="T62" s="78"/>
+      <c r="J62" s="58"/>
+      <c r="K62" s="58"/>
+      <c r="L62" s="58"/>
+      <c r="M62" s="58"/>
+      <c r="N62" s="58"/>
+      <c r="O62" s="58"/>
+      <c r="P62" s="58"/>
+      <c r="Q62" s="58"/>
+      <c r="R62" s="58"/>
+      <c r="S62" s="58"/>
+      <c r="T62" s="59"/>
     </row>
     <row r="63" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="84"/>
-      <c r="F63" s="76"/>
-      <c r="G63" s="58"/>
-      <c r="H63" s="51"/>
-      <c r="I63" s="56" t="s">
+      <c r="E63" s="68"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="96"/>
+      <c r="I63" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="J63" s="57"/>
-      <c r="K63" s="57"/>
-      <c r="L63" s="57"/>
-      <c r="M63" s="57"/>
-      <c r="N63" s="57"/>
-      <c r="O63" s="57"/>
-      <c r="P63" s="57"/>
-      <c r="Q63" s="57"/>
-      <c r="R63" s="57"/>
-      <c r="S63" s="57"/>
-      <c r="T63" s="58"/>
+      <c r="J63" s="63"/>
+      <c r="K63" s="63"/>
+      <c r="L63" s="63"/>
+      <c r="M63" s="63"/>
+      <c r="N63" s="63"/>
+      <c r="O63" s="63"/>
+      <c r="P63" s="63"/>
+      <c r="Q63" s="63"/>
+      <c r="R63" s="63"/>
+      <c r="S63" s="63"/>
+      <c r="T63" s="50"/>
     </row>
     <row r="64" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E64" s="84"/>
-      <c r="F64" s="76" t="s">
+      <c r="E64" s="68"/>
+      <c r="F64" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="G64" s="58"/>
-      <c r="H64" s="50" t="s">
+      <c r="G64" s="50"/>
+      <c r="H64" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="I64" s="56" t="s">
+      <c r="I64" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="J64" s="57"/>
-      <c r="K64" s="57"/>
-      <c r="L64" s="57"/>
-      <c r="M64" s="57"/>
-      <c r="N64" s="57"/>
-      <c r="O64" s="57"/>
-      <c r="P64" s="57"/>
-      <c r="Q64" s="57"/>
-      <c r="R64" s="57"/>
-      <c r="S64" s="57"/>
-      <c r="T64" s="58"/>
+      <c r="J64" s="63"/>
+      <c r="K64" s="63"/>
+      <c r="L64" s="63"/>
+      <c r="M64" s="63"/>
+      <c r="N64" s="63"/>
+      <c r="O64" s="63"/>
+      <c r="P64" s="63"/>
+      <c r="Q64" s="63"/>
+      <c r="R64" s="63"/>
+      <c r="S64" s="63"/>
+      <c r="T64" s="50"/>
     </row>
     <row r="65" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E65" s="84"/>
-      <c r="F65" s="76"/>
-      <c r="G65" s="58"/>
-      <c r="H65" s="51"/>
-      <c r="I65" s="56" t="s">
+      <c r="E65" s="68"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="96"/>
+      <c r="I65" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="J65" s="57"/>
-      <c r="K65" s="57"/>
-      <c r="L65" s="57"/>
-      <c r="M65" s="57"/>
-      <c r="N65" s="57"/>
-      <c r="O65" s="57"/>
-      <c r="P65" s="57"/>
-      <c r="Q65" s="57"/>
-      <c r="R65" s="57"/>
-      <c r="S65" s="57"/>
-      <c r="T65" s="58"/>
+      <c r="J65" s="63"/>
+      <c r="K65" s="63"/>
+      <c r="L65" s="63"/>
+      <c r="M65" s="63"/>
+      <c r="N65" s="63"/>
+      <c r="O65" s="63"/>
+      <c r="P65" s="63"/>
+      <c r="Q65" s="63"/>
+      <c r="R65" s="63"/>
+      <c r="S65" s="63"/>
+      <c r="T65" s="50"/>
     </row>
     <row r="66" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E66" s="84"/>
+      <c r="E66" s="68"/>
       <c r="F66" s="10" t="s">
         <v>114</v>
       </c>
@@ -9508,347 +9508,347 @@
       <c r="H66" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="I66" s="56" t="s">
+      <c r="I66" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="J66" s="57"/>
-      <c r="K66" s="57"/>
-      <c r="L66" s="57"/>
-      <c r="M66" s="57"/>
-      <c r="N66" s="57"/>
-      <c r="O66" s="57"/>
-      <c r="P66" s="57"/>
-      <c r="Q66" s="57"/>
-      <c r="R66" s="57"/>
-      <c r="S66" s="57"/>
-      <c r="T66" s="58"/>
+      <c r="J66" s="63"/>
+      <c r="K66" s="63"/>
+      <c r="L66" s="63"/>
+      <c r="M66" s="63"/>
+      <c r="N66" s="63"/>
+      <c r="O66" s="63"/>
+      <c r="P66" s="63"/>
+      <c r="Q66" s="63"/>
+      <c r="R66" s="63"/>
+      <c r="S66" s="63"/>
+      <c r="T66" s="50"/>
     </row>
     <row r="67" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E67" s="84"/>
-      <c r="F67" s="76" t="s">
+      <c r="E67" s="68"/>
+      <c r="F67" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="G67" s="58"/>
+      <c r="G67" s="50"/>
       <c r="H67" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="I67" s="56" t="s">
+      <c r="I67" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="J67" s="57"/>
-      <c r="K67" s="57"/>
-      <c r="L67" s="57"/>
-      <c r="M67" s="57"/>
-      <c r="N67" s="57"/>
-      <c r="O67" s="57"/>
-      <c r="P67" s="57"/>
-      <c r="Q67" s="57"/>
-      <c r="R67" s="57"/>
-      <c r="S67" s="57"/>
-      <c r="T67" s="58"/>
+      <c r="J67" s="63"/>
+      <c r="K67" s="63"/>
+      <c r="L67" s="63"/>
+      <c r="M67" s="63"/>
+      <c r="N67" s="63"/>
+      <c r="O67" s="63"/>
+      <c r="P67" s="63"/>
+      <c r="Q67" s="63"/>
+      <c r="R67" s="63"/>
+      <c r="S67" s="63"/>
+      <c r="T67" s="50"/>
     </row>
     <row r="68" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E68" s="84"/>
-      <c r="F68" s="76" t="s">
+      <c r="E68" s="68"/>
+      <c r="F68" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="G68" s="58"/>
+      <c r="G68" s="50"/>
       <c r="H68" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="I68" s="56" t="s">
+      <c r="I68" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="J68" s="57"/>
-      <c r="K68" s="57"/>
-      <c r="L68" s="57"/>
-      <c r="M68" s="57"/>
-      <c r="N68" s="57"/>
-      <c r="O68" s="57"/>
-      <c r="P68" s="57"/>
-      <c r="Q68" s="57"/>
-      <c r="R68" s="57"/>
-      <c r="S68" s="57"/>
-      <c r="T68" s="58"/>
+      <c r="J68" s="63"/>
+      <c r="K68" s="63"/>
+      <c r="L68" s="63"/>
+      <c r="M68" s="63"/>
+      <c r="N68" s="63"/>
+      <c r="O68" s="63"/>
+      <c r="P68" s="63"/>
+      <c r="Q68" s="63"/>
+      <c r="R68" s="63"/>
+      <c r="S68" s="63"/>
+      <c r="T68" s="50"/>
     </row>
     <row r="69" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E69" s="84"/>
-      <c r="F69" s="76" t="s">
+      <c r="E69" s="68"/>
+      <c r="F69" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="G69" s="58"/>
-      <c r="H69" s="50" t="s">
+      <c r="G69" s="50"/>
+      <c r="H69" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="I69" s="56" t="s">
+      <c r="I69" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="J69" s="57"/>
-      <c r="K69" s="57"/>
-      <c r="L69" s="57"/>
-      <c r="M69" s="57"/>
-      <c r="N69" s="57"/>
-      <c r="O69" s="57"/>
-      <c r="P69" s="57"/>
-      <c r="Q69" s="57"/>
-      <c r="R69" s="57"/>
-      <c r="S69" s="57"/>
-      <c r="T69" s="58"/>
+      <c r="J69" s="63"/>
+      <c r="K69" s="63"/>
+      <c r="L69" s="63"/>
+      <c r="M69" s="63"/>
+      <c r="N69" s="63"/>
+      <c r="O69" s="63"/>
+      <c r="P69" s="63"/>
+      <c r="Q69" s="63"/>
+      <c r="R69" s="63"/>
+      <c r="S69" s="63"/>
+      <c r="T69" s="50"/>
     </row>
     <row r="70" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E70" s="84"/>
-      <c r="F70" s="76"/>
-      <c r="G70" s="58"/>
-      <c r="H70" s="51"/>
-      <c r="I70" s="56" t="s">
+      <c r="E70" s="68"/>
+      <c r="F70" s="49"/>
+      <c r="G70" s="50"/>
+      <c r="H70" s="96"/>
+      <c r="I70" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="J70" s="57"/>
-      <c r="K70" s="57"/>
-      <c r="L70" s="57"/>
-      <c r="M70" s="57"/>
-      <c r="N70" s="57"/>
-      <c r="O70" s="57"/>
-      <c r="P70" s="57"/>
-      <c r="Q70" s="57"/>
-      <c r="R70" s="57"/>
-      <c r="S70" s="57"/>
-      <c r="T70" s="58"/>
+      <c r="J70" s="63"/>
+      <c r="K70" s="63"/>
+      <c r="L70" s="63"/>
+      <c r="M70" s="63"/>
+      <c r="N70" s="63"/>
+      <c r="O70" s="63"/>
+      <c r="P70" s="63"/>
+      <c r="Q70" s="63"/>
+      <c r="R70" s="63"/>
+      <c r="S70" s="63"/>
+      <c r="T70" s="50"/>
     </row>
     <row r="71" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E71" s="84"/>
-      <c r="F71" s="76" t="s">
+      <c r="E71" s="68"/>
+      <c r="F71" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="G71" s="58"/>
-      <c r="H71" s="50" t="s">
+      <c r="G71" s="50"/>
+      <c r="H71" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="I71" s="56" t="s">
+      <c r="I71" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="J71" s="57"/>
-      <c r="K71" s="57"/>
-      <c r="L71" s="57"/>
-      <c r="M71" s="57"/>
-      <c r="N71" s="57"/>
-      <c r="O71" s="57"/>
-      <c r="P71" s="57"/>
-      <c r="Q71" s="57"/>
-      <c r="R71" s="57"/>
-      <c r="S71" s="57"/>
-      <c r="T71" s="58"/>
+      <c r="J71" s="63"/>
+      <c r="K71" s="63"/>
+      <c r="L71" s="63"/>
+      <c r="M71" s="63"/>
+      <c r="N71" s="63"/>
+      <c r="O71" s="63"/>
+      <c r="P71" s="63"/>
+      <c r="Q71" s="63"/>
+      <c r="R71" s="63"/>
+      <c r="S71" s="63"/>
+      <c r="T71" s="50"/>
     </row>
     <row r="72" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E72" s="84"/>
-      <c r="F72" s="76"/>
-      <c r="G72" s="58"/>
-      <c r="H72" s="51"/>
-      <c r="I72" s="49" t="s">
+      <c r="E72" s="68"/>
+      <c r="F72" s="49"/>
+      <c r="G72" s="50"/>
+      <c r="H72" s="96"/>
+      <c r="I72" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="J72" s="49"/>
-      <c r="K72" s="49"/>
-      <c r="L72" s="49"/>
-      <c r="M72" s="49"/>
-      <c r="N72" s="49"/>
-      <c r="O72" s="49"/>
-      <c r="P72" s="49"/>
-      <c r="Q72" s="49"/>
-      <c r="R72" s="49"/>
-      <c r="S72" s="49"/>
-      <c r="T72" s="48"/>
+      <c r="J72" s="91"/>
+      <c r="K72" s="91"/>
+      <c r="L72" s="91"/>
+      <c r="M72" s="91"/>
+      <c r="N72" s="91"/>
+      <c r="O72" s="91"/>
+      <c r="P72" s="91"/>
+      <c r="Q72" s="91"/>
+      <c r="R72" s="91"/>
+      <c r="S72" s="91"/>
+      <c r="T72" s="92"/>
     </row>
     <row r="73" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E73" s="84"/>
-      <c r="F73" s="76" t="s">
+      <c r="E73" s="68"/>
+      <c r="F73" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="G73" s="58"/>
+      <c r="G73" s="50"/>
       <c r="H73" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="I73" s="56" t="s">
-        <v>384</v>
-      </c>
-      <c r="J73" s="57"/>
-      <c r="K73" s="57"/>
-      <c r="L73" s="57"/>
-      <c r="M73" s="57"/>
-      <c r="N73" s="57"/>
-      <c r="O73" s="57"/>
-      <c r="P73" s="57"/>
-      <c r="Q73" s="57"/>
-      <c r="R73" s="57"/>
-      <c r="S73" s="57"/>
-      <c r="T73" s="58"/>
+      <c r="I73" s="62" t="s">
+        <v>382</v>
+      </c>
+      <c r="J73" s="63"/>
+      <c r="K73" s="63"/>
+      <c r="L73" s="63"/>
+      <c r="M73" s="63"/>
+      <c r="N73" s="63"/>
+      <c r="O73" s="63"/>
+      <c r="P73" s="63"/>
+      <c r="Q73" s="63"/>
+      <c r="R73" s="63"/>
+      <c r="S73" s="63"/>
+      <c r="T73" s="50"/>
     </row>
     <row r="74" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E74" s="84"/>
-      <c r="F74" s="47" t="s">
-        <v>382</v>
-      </c>
-      <c r="G74" s="48"/>
+      <c r="E74" s="68"/>
+      <c r="F74" s="98" t="s">
+        <v>380</v>
+      </c>
+      <c r="G74" s="92"/>
       <c r="H74" s="45" t="s">
+        <v>379</v>
+      </c>
+      <c r="I74" s="98" t="s">
         <v>381</v>
       </c>
-      <c r="I74" s="47" t="s">
-        <v>383</v>
-      </c>
-      <c r="J74" s="49"/>
-      <c r="K74" s="49"/>
-      <c r="L74" s="49"/>
-      <c r="M74" s="49"/>
-      <c r="N74" s="49"/>
-      <c r="O74" s="49"/>
-      <c r="P74" s="49"/>
-      <c r="Q74" s="49"/>
-      <c r="R74" s="49"/>
-      <c r="S74" s="49"/>
-      <c r="T74" s="48"/>
+      <c r="J74" s="91"/>
+      <c r="K74" s="91"/>
+      <c r="L74" s="91"/>
+      <c r="M74" s="91"/>
+      <c r="N74" s="91"/>
+      <c r="O74" s="91"/>
+      <c r="P74" s="91"/>
+      <c r="Q74" s="91"/>
+      <c r="R74" s="91"/>
+      <c r="S74" s="91"/>
+      <c r="T74" s="92"/>
     </row>
     <row r="75" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E75" s="84"/>
-      <c r="F75" s="76" t="s">
+      <c r="E75" s="68"/>
+      <c r="F75" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="G75" s="58"/>
-      <c r="H75" s="50" t="s">
+      <c r="G75" s="50"/>
+      <c r="H75" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="I75" s="56" t="s">
+      <c r="I75" s="62" t="s">
         <v>227</v>
       </c>
-      <c r="J75" s="57"/>
-      <c r="K75" s="57"/>
-      <c r="L75" s="57"/>
-      <c r="M75" s="57"/>
-      <c r="N75" s="57"/>
-      <c r="O75" s="57"/>
-      <c r="P75" s="57"/>
-      <c r="Q75" s="57"/>
-      <c r="R75" s="57"/>
-      <c r="S75" s="57"/>
-      <c r="T75" s="58"/>
+      <c r="J75" s="63"/>
+      <c r="K75" s="63"/>
+      <c r="L75" s="63"/>
+      <c r="M75" s="63"/>
+      <c r="N75" s="63"/>
+      <c r="O75" s="63"/>
+      <c r="P75" s="63"/>
+      <c r="Q75" s="63"/>
+      <c r="R75" s="63"/>
+      <c r="S75" s="63"/>
+      <c r="T75" s="50"/>
     </row>
     <row r="76" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E76" s="84"/>
-      <c r="F76" s="76"/>
-      <c r="G76" s="58"/>
-      <c r="H76" s="51"/>
-      <c r="I76" s="56" t="s">
+      <c r="E76" s="68"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="96"/>
+      <c r="I76" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="J76" s="57"/>
-      <c r="K76" s="57"/>
-      <c r="L76" s="57"/>
-      <c r="M76" s="57"/>
-      <c r="N76" s="57"/>
-      <c r="O76" s="57"/>
-      <c r="P76" s="57"/>
-      <c r="Q76" s="57"/>
-      <c r="R76" s="57"/>
-      <c r="S76" s="57"/>
-      <c r="T76" s="58"/>
+      <c r="J76" s="63"/>
+      <c r="K76" s="63"/>
+      <c r="L76" s="63"/>
+      <c r="M76" s="63"/>
+      <c r="N76" s="63"/>
+      <c r="O76" s="63"/>
+      <c r="P76" s="63"/>
+      <c r="Q76" s="63"/>
+      <c r="R76" s="63"/>
+      <c r="S76" s="63"/>
+      <c r="T76" s="50"/>
     </row>
     <row r="77" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E77" s="84"/>
-      <c r="F77" s="76" t="s">
+      <c r="E77" s="68"/>
+      <c r="F77" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="G77" s="58"/>
-      <c r="H77" s="50" t="s">
+      <c r="G77" s="50"/>
+      <c r="H77" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="I77" s="56" t="s">
+      <c r="I77" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="J77" s="57"/>
-      <c r="K77" s="57"/>
-      <c r="L77" s="57"/>
-      <c r="M77" s="57"/>
-      <c r="N77" s="57"/>
-      <c r="O77" s="57"/>
-      <c r="P77" s="57"/>
-      <c r="Q77" s="57"/>
-      <c r="R77" s="57"/>
-      <c r="S77" s="57"/>
-      <c r="T77" s="58"/>
+      <c r="J77" s="63"/>
+      <c r="K77" s="63"/>
+      <c r="L77" s="63"/>
+      <c r="M77" s="63"/>
+      <c r="N77" s="63"/>
+      <c r="O77" s="63"/>
+      <c r="P77" s="63"/>
+      <c r="Q77" s="63"/>
+      <c r="R77" s="63"/>
+      <c r="S77" s="63"/>
+      <c r="T77" s="50"/>
     </row>
     <row r="78" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E78" s="84"/>
-      <c r="F78" s="76"/>
-      <c r="G78" s="58"/>
-      <c r="H78" s="51"/>
-      <c r="I78" s="56" t="s">
+      <c r="E78" s="68"/>
+      <c r="F78" s="49"/>
+      <c r="G78" s="50"/>
+      <c r="H78" s="96"/>
+      <c r="I78" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="J78" s="57"/>
-      <c r="K78" s="57"/>
-      <c r="L78" s="57"/>
-      <c r="M78" s="57"/>
-      <c r="N78" s="57"/>
-      <c r="O78" s="57"/>
-      <c r="P78" s="57"/>
-      <c r="Q78" s="57"/>
-      <c r="R78" s="57"/>
-      <c r="S78" s="57"/>
-      <c r="T78" s="58"/>
+      <c r="J78" s="63"/>
+      <c r="K78" s="63"/>
+      <c r="L78" s="63"/>
+      <c r="M78" s="63"/>
+      <c r="N78" s="63"/>
+      <c r="O78" s="63"/>
+      <c r="P78" s="63"/>
+      <c r="Q78" s="63"/>
+      <c r="R78" s="63"/>
+      <c r="S78" s="63"/>
+      <c r="T78" s="50"/>
     </row>
     <row r="79" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E79" s="84"/>
-      <c r="F79" s="76" t="s">
+      <c r="E79" s="68"/>
+      <c r="F79" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="G79" s="58"/>
+      <c r="G79" s="50"/>
       <c r="H79" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="I79" s="56" t="s">
+      <c r="I79" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="J79" s="57"/>
-      <c r="K79" s="57"/>
-      <c r="L79" s="57"/>
-      <c r="M79" s="57"/>
-      <c r="N79" s="57"/>
-      <c r="O79" s="57"/>
-      <c r="P79" s="57"/>
-      <c r="Q79" s="57"/>
-      <c r="R79" s="57"/>
-      <c r="S79" s="57"/>
-      <c r="T79" s="58"/>
+      <c r="J79" s="63"/>
+      <c r="K79" s="63"/>
+      <c r="L79" s="63"/>
+      <c r="M79" s="63"/>
+      <c r="N79" s="63"/>
+      <c r="O79" s="63"/>
+      <c r="P79" s="63"/>
+      <c r="Q79" s="63"/>
+      <c r="R79" s="63"/>
+      <c r="S79" s="63"/>
+      <c r="T79" s="50"/>
     </row>
     <row r="80" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E80" s="84"/>
-      <c r="F80" s="76" t="s">
+      <c r="E80" s="68"/>
+      <c r="F80" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="G80" s="58"/>
+      <c r="G80" s="50"/>
       <c r="H80" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="I80" s="49" t="s">
+      <c r="I80" s="91" t="s">
         <v>210</v>
       </c>
-      <c r="J80" s="49"/>
-      <c r="K80" s="49"/>
-      <c r="L80" s="49"/>
-      <c r="M80" s="49"/>
-      <c r="N80" s="49"/>
-      <c r="O80" s="49"/>
-      <c r="P80" s="49"/>
-      <c r="Q80" s="49"/>
-      <c r="R80" s="49"/>
-      <c r="S80" s="49"/>
-      <c r="T80" s="48"/>
+      <c r="J80" s="91"/>
+      <c r="K80" s="91"/>
+      <c r="L80" s="91"/>
+      <c r="M80" s="91"/>
+      <c r="N80" s="91"/>
+      <c r="O80" s="91"/>
+      <c r="P80" s="91"/>
+      <c r="Q80" s="91"/>
+      <c r="R80" s="91"/>
+      <c r="S80" s="91"/>
+      <c r="T80" s="92"/>
     </row>
     <row r="81" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E81" s="86"/>
-      <c r="F81" s="47" t="s">
+      <c r="E81" s="70"/>
+      <c r="F81" s="98" t="s">
         <v>206</v>
       </c>
-      <c r="G81" s="48"/>
+      <c r="G81" s="92"/>
       <c r="H81" s="31" t="s">
         <v>203</v>
       </c>
@@ -9868,170 +9868,170 @@
       <c r="T81" s="32"/>
     </row>
     <row r="82" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E82" s="85"/>
-      <c r="F82" s="92" t="s">
+      <c r="E82" s="69"/>
+      <c r="F82" s="78" t="s">
         <v>208</v>
       </c>
-      <c r="G82" s="93"/>
+      <c r="G82" s="79"/>
       <c r="H82" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="I82" s="72" t="s">
+      <c r="I82" s="93" t="s">
         <v>209</v>
       </c>
-      <c r="J82" s="72"/>
-      <c r="K82" s="72"/>
-      <c r="L82" s="72"/>
-      <c r="M82" s="72"/>
-      <c r="N82" s="72"/>
-      <c r="O82" s="72"/>
-      <c r="P82" s="72"/>
-      <c r="Q82" s="72"/>
-      <c r="R82" s="72"/>
-      <c r="S82" s="72"/>
-      <c r="T82" s="73"/>
+      <c r="J82" s="93"/>
+      <c r="K82" s="93"/>
+      <c r="L82" s="93"/>
+      <c r="M82" s="93"/>
+      <c r="N82" s="93"/>
+      <c r="O82" s="93"/>
+      <c r="P82" s="93"/>
+      <c r="Q82" s="93"/>
+      <c r="R82" s="93"/>
+      <c r="S82" s="93"/>
+      <c r="T82" s="94"/>
     </row>
     <row r="83" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="82" t="s">
+      <c r="E83" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="F83" s="94" t="s">
+      <c r="F83" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="G83" s="61"/>
+      <c r="G83" s="56"/>
       <c r="H83" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="I83" s="59" t="s">
+      <c r="I83" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="J83" s="60"/>
-      <c r="K83" s="60"/>
-      <c r="L83" s="60"/>
-      <c r="M83" s="60"/>
-      <c r="N83" s="60"/>
-      <c r="O83" s="60"/>
-      <c r="P83" s="60"/>
-      <c r="Q83" s="60"/>
-      <c r="R83" s="60"/>
-      <c r="S83" s="60"/>
-      <c r="T83" s="61"/>
+      <c r="J83" s="55"/>
+      <c r="K83" s="55"/>
+      <c r="L83" s="55"/>
+      <c r="M83" s="55"/>
+      <c r="N83" s="55"/>
+      <c r="O83" s="55"/>
+      <c r="P83" s="55"/>
+      <c r="Q83" s="55"/>
+      <c r="R83" s="55"/>
+      <c r="S83" s="55"/>
+      <c r="T83" s="56"/>
     </row>
     <row r="84" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E84" s="83"/>
-      <c r="F84" s="52" t="s">
+      <c r="E84" s="67"/>
+      <c r="F84" s="99" t="s">
         <v>186</v>
       </c>
-      <c r="G84" s="53"/>
-      <c r="H84" s="50" t="s">
+      <c r="G84" s="100"/>
+      <c r="H84" s="97" t="s">
         <v>187</v>
       </c>
-      <c r="I84" s="47" t="s">
+      <c r="I84" s="98" t="s">
         <v>188</v>
       </c>
-      <c r="J84" s="49"/>
-      <c r="K84" s="49"/>
-      <c r="L84" s="49"/>
-      <c r="M84" s="49"/>
-      <c r="N84" s="49"/>
-      <c r="O84" s="49"/>
-      <c r="P84" s="49"/>
-      <c r="Q84" s="49"/>
-      <c r="R84" s="49"/>
-      <c r="S84" s="49"/>
-      <c r="T84" s="48"/>
+      <c r="J84" s="91"/>
+      <c r="K84" s="91"/>
+      <c r="L84" s="91"/>
+      <c r="M84" s="91"/>
+      <c r="N84" s="91"/>
+      <c r="O84" s="91"/>
+      <c r="P84" s="91"/>
+      <c r="Q84" s="91"/>
+      <c r="R84" s="91"/>
+      <c r="S84" s="91"/>
+      <c r="T84" s="92"/>
     </row>
     <row r="85" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E85" s="83"/>
-      <c r="F85" s="54"/>
-      <c r="G85" s="55"/>
-      <c r="H85" s="51"/>
-      <c r="I85" s="47" t="s">
+      <c r="E85" s="67"/>
+      <c r="F85" s="101"/>
+      <c r="G85" s="102"/>
+      <c r="H85" s="96"/>
+      <c r="I85" s="98" t="s">
         <v>189</v>
       </c>
-      <c r="J85" s="49"/>
-      <c r="K85" s="49"/>
-      <c r="L85" s="49"/>
-      <c r="M85" s="49"/>
-      <c r="N85" s="49"/>
-      <c r="O85" s="49"/>
-      <c r="P85" s="49"/>
-      <c r="Q85" s="49"/>
-      <c r="R85" s="49"/>
-      <c r="S85" s="49"/>
-      <c r="T85" s="48"/>
+      <c r="J85" s="91"/>
+      <c r="K85" s="91"/>
+      <c r="L85" s="91"/>
+      <c r="M85" s="91"/>
+      <c r="N85" s="91"/>
+      <c r="O85" s="91"/>
+      <c r="P85" s="91"/>
+      <c r="Q85" s="91"/>
+      <c r="R85" s="91"/>
+      <c r="S85" s="91"/>
+      <c r="T85" s="92"/>
     </row>
     <row r="86" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E86" s="84"/>
-      <c r="F86" s="89" t="s">
+      <c r="E86" s="68"/>
+      <c r="F86" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="G86" s="65"/>
+      <c r="G86" s="73"/>
       <c r="H86" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="I86" s="63" t="s">
+      <c r="I86" s="85" t="s">
         <v>126</v>
       </c>
-      <c r="J86" s="64"/>
-      <c r="K86" s="64"/>
-      <c r="L86" s="64"/>
-      <c r="M86" s="64"/>
-      <c r="N86" s="64"/>
-      <c r="O86" s="64"/>
-      <c r="P86" s="64"/>
-      <c r="Q86" s="64"/>
-      <c r="R86" s="64"/>
-      <c r="S86" s="64"/>
-      <c r="T86" s="65"/>
+      <c r="J86" s="86"/>
+      <c r="K86" s="86"/>
+      <c r="L86" s="86"/>
+      <c r="M86" s="86"/>
+      <c r="N86" s="86"/>
+      <c r="O86" s="86"/>
+      <c r="P86" s="86"/>
+      <c r="Q86" s="86"/>
+      <c r="R86" s="86"/>
+      <c r="S86" s="86"/>
+      <c r="T86" s="73"/>
     </row>
     <row r="87" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E87" s="84"/>
-      <c r="F87" s="90" t="s">
+      <c r="E87" s="68"/>
+      <c r="F87" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="G87" s="68"/>
+      <c r="G87" s="75"/>
       <c r="H87" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="I87" s="66" t="s">
+      <c r="I87" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="J87" s="67"/>
-      <c r="K87" s="67"/>
-      <c r="L87" s="67"/>
-      <c r="M87" s="67"/>
-      <c r="N87" s="67"/>
-      <c r="O87" s="67"/>
-      <c r="P87" s="67"/>
-      <c r="Q87" s="67"/>
-      <c r="R87" s="67"/>
-      <c r="S87" s="67"/>
-      <c r="T87" s="68"/>
+      <c r="J87" s="88"/>
+      <c r="K87" s="88"/>
+      <c r="L87" s="88"/>
+      <c r="M87" s="88"/>
+      <c r="N87" s="88"/>
+      <c r="O87" s="88"/>
+      <c r="P87" s="88"/>
+      <c r="Q87" s="88"/>
+      <c r="R87" s="88"/>
+      <c r="S87" s="88"/>
+      <c r="T87" s="75"/>
     </row>
     <row r="88" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E88" s="85"/>
-      <c r="F88" s="91" t="s">
+      <c r="E88" s="69"/>
+      <c r="F88" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="G88" s="71"/>
+      <c r="G88" s="77"/>
       <c r="H88" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="I88" s="69" t="s">
+      <c r="I88" s="89" t="s">
         <v>128</v>
       </c>
-      <c r="J88" s="70"/>
-      <c r="K88" s="70"/>
-      <c r="L88" s="70"/>
-      <c r="M88" s="70"/>
-      <c r="N88" s="70"/>
-      <c r="O88" s="70"/>
-      <c r="P88" s="70"/>
-      <c r="Q88" s="70"/>
-      <c r="R88" s="70"/>
-      <c r="S88" s="70"/>
-      <c r="T88" s="71"/>
+      <c r="J88" s="90"/>
+      <c r="K88" s="90"/>
+      <c r="L88" s="90"/>
+      <c r="M88" s="90"/>
+      <c r="N88" s="90"/>
+      <c r="O88" s="90"/>
+      <c r="P88" s="90"/>
+      <c r="Q88" s="90"/>
+      <c r="R88" s="90"/>
+      <c r="S88" s="90"/>
+      <c r="T88" s="77"/>
     </row>
     <row r="89" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F89" s="7" t="s">
@@ -10040,11 +10040,69 @@
     </row>
     <row r="90" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F90" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="I74:T74"/>
+    <mergeCell ref="I84:T84"/>
+    <mergeCell ref="I85:T85"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="F84:G85"/>
+    <mergeCell ref="I77:T77"/>
+    <mergeCell ref="I83:T83"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="I71:T71"/>
+    <mergeCell ref="I73:T73"/>
+    <mergeCell ref="I75:T75"/>
+    <mergeCell ref="I76:T76"/>
+    <mergeCell ref="I69:T69"/>
+    <mergeCell ref="I70:T70"/>
+    <mergeCell ref="G56:T56"/>
+    <mergeCell ref="I86:T86"/>
+    <mergeCell ref="I87:T87"/>
+    <mergeCell ref="I88:T88"/>
+    <mergeCell ref="I78:T78"/>
+    <mergeCell ref="I79:T79"/>
+    <mergeCell ref="I72:T72"/>
+    <mergeCell ref="I80:T80"/>
+    <mergeCell ref="I82:T82"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I66:T66"/>
+    <mergeCell ref="G51:T51"/>
+    <mergeCell ref="G52:T52"/>
+    <mergeCell ref="G53:T53"/>
+    <mergeCell ref="G54:T54"/>
+    <mergeCell ref="G55:T55"/>
+    <mergeCell ref="F64:G65"/>
+    <mergeCell ref="F62:G63"/>
+    <mergeCell ref="I61:T61"/>
+    <mergeCell ref="I67:T67"/>
+    <mergeCell ref="I68:T68"/>
+    <mergeCell ref="I63:T63"/>
+    <mergeCell ref="E83:E88"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E62:E82"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="F77:G78"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F75:G76"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F71:G72"/>
+    <mergeCell ref="F73:G73"/>
     <mergeCell ref="C2:V3"/>
     <mergeCell ref="F69:G70"/>
     <mergeCell ref="I59:T59"/>
@@ -10061,64 +10119,6 @@
     <mergeCell ref="F61:G61"/>
     <mergeCell ref="F67:G67"/>
     <mergeCell ref="F68:G68"/>
-    <mergeCell ref="E83:E88"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="E62:E82"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="F77:G78"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F75:G76"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F71:G72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F64:G65"/>
-    <mergeCell ref="F62:G63"/>
-    <mergeCell ref="I61:T61"/>
-    <mergeCell ref="I67:T67"/>
-    <mergeCell ref="I68:T68"/>
-    <mergeCell ref="I63:T63"/>
-    <mergeCell ref="G51:T51"/>
-    <mergeCell ref="G52:T52"/>
-    <mergeCell ref="G53:T53"/>
-    <mergeCell ref="G54:T54"/>
-    <mergeCell ref="G55:T55"/>
-    <mergeCell ref="G56:T56"/>
-    <mergeCell ref="I86:T86"/>
-    <mergeCell ref="I87:T87"/>
-    <mergeCell ref="I88:T88"/>
-    <mergeCell ref="I78:T78"/>
-    <mergeCell ref="I79:T79"/>
-    <mergeCell ref="I72:T72"/>
-    <mergeCell ref="I80:T80"/>
-    <mergeCell ref="I82:T82"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I66:T66"/>
-    <mergeCell ref="I71:T71"/>
-    <mergeCell ref="I73:T73"/>
-    <mergeCell ref="I75:T75"/>
-    <mergeCell ref="I76:T76"/>
-    <mergeCell ref="I69:T69"/>
-    <mergeCell ref="I70:T70"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="I74:T74"/>
-    <mergeCell ref="I84:T84"/>
-    <mergeCell ref="I85:T85"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="F84:G85"/>
-    <mergeCell ref="I77:T77"/>
-    <mergeCell ref="I83:T83"/>
-    <mergeCell ref="F81:G81"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10141,46 +10141,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
     </row>
     <row r="4" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
     </row>
     <row r="6" spans="3:20" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="5"/>
@@ -10380,8 +10380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AG11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView showGridLines="0" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V9" sqref="V9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10413,50 +10413,50 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="114" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="110" t="s">
-        <v>377</v>
-      </c>
-      <c r="J3" s="109"/>
-      <c r="K3" s="116" t="s">
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="121" t="s">
+        <v>375</v>
+      </c>
+      <c r="J3" s="120"/>
+      <c r="K3" s="112" t="s">
         <v>91</v>
       </c>
-      <c r="L3" s="116"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="117"/>
-      <c r="S3" s="117"/>
-      <c r="T3" s="117"/>
-      <c r="U3" s="117"/>
-      <c r="V3" s="107"/>
-      <c r="W3" s="118" t="s">
+      <c r="L3" s="112"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="113"/>
+      <c r="Q3" s="113"/>
+      <c r="R3" s="113"/>
+      <c r="S3" s="113"/>
+      <c r="T3" s="113"/>
+      <c r="U3" s="113"/>
+      <c r="V3" s="114"/>
+      <c r="W3" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="X3" s="107"/>
-      <c r="Y3" s="110" t="s">
+      <c r="X3" s="114"/>
+      <c r="Y3" s="121" t="s">
         <v>90</v>
       </c>
-      <c r="Z3" s="108"/>
-      <c r="AA3" s="109"/>
-      <c r="AB3" s="114" t="s">
+      <c r="Z3" s="119"/>
+      <c r="AA3" s="120"/>
+      <c r="AB3" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="AC3" s="115"/>
-      <c r="AD3" s="115"/>
-      <c r="AE3" s="115"/>
-      <c r="AF3" s="115"/>
-      <c r="AG3" s="115"/>
+      <c r="AC3" s="108"/>
+      <c r="AD3" s="108"/>
+      <c r="AE3" s="108"/>
+      <c r="AF3" s="108"/>
+      <c r="AG3" s="108"/>
     </row>
     <row r="4" spans="2:33" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
@@ -10490,7 +10490,7 @@
         <v>86</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="M4" s="12" t="s">
         <v>85</v>
@@ -10502,7 +10502,7 @@
         <v>86</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>85</v>
@@ -10511,10 +10511,10 @@
         <v>85</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="U4" s="12" t="s">
         <v>86</v>
@@ -10528,11 +10528,11 @@
       <c r="X4" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="Y4" s="119" t="s">
+      <c r="Y4" s="116" t="s">
         <v>85</v>
       </c>
-      <c r="Z4" s="120"/>
-      <c r="AA4" s="121"/>
+      <c r="Z4" s="117"/>
+      <c r="AA4" s="118"/>
       <c r="AB4" s="23" t="s">
         <v>86</v>
       </c>
@@ -10584,7 +10584,7 @@
         <v>157</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="M5" s="39" t="s">
         <v>76</v>
@@ -10596,7 +10596,7 @@
         <v>74</v>
       </c>
       <c r="P5" s="46" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="Q5" s="21" t="s">
         <v>73</v>
@@ -10608,7 +10608,7 @@
         <v>192</v>
       </c>
       <c r="T5" s="46" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="U5" s="21" t="s">
         <v>71</v>
@@ -10622,11 +10622,11 @@
       <c r="X5" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="Y5" s="111" t="s">
-        <v>375</v>
-      </c>
-      <c r="Z5" s="112"/>
-      <c r="AA5" s="113"/>
+      <c r="Y5" s="109" t="s">
+        <v>373</v>
+      </c>
+      <c r="Z5" s="110"/>
+      <c r="AA5" s="111"/>
       <c r="AB5" s="22" t="s">
         <v>207</v>
       </c>
@@ -10668,7 +10668,7 @@
         <v>0</v>
       </c>
       <c r="J6" s="39" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="K6" s="35"/>
       <c r="L6" s="35"/>
@@ -10736,11 +10736,11 @@
       <c r="V7" s="17"/>
       <c r="W7" s="36"/>
       <c r="X7" s="37"/>
-      <c r="Y7" s="111">
+      <c r="Y7" s="109">
         <v>1</v>
       </c>
-      <c r="Z7" s="112"/>
-      <c r="AA7" s="113"/>
+      <c r="Z7" s="110"/>
+      <c r="AA7" s="111"/>
       <c r="AB7" s="22"/>
       <c r="AC7" s="21"/>
       <c r="AD7" s="21"/>
@@ -10788,9 +10788,9 @@
       <c r="V8" s="1"/>
       <c r="W8" s="36"/>
       <c r="X8" s="37"/>
-      <c r="Y8" s="111"/>
-      <c r="Z8" s="112"/>
-      <c r="AA8" s="113"/>
+      <c r="Y8" s="109"/>
+      <c r="Z8" s="110"/>
+      <c r="AA8" s="111"/>
       <c r="AB8" s="9" t="s">
         <v>193</v>
       </c>
@@ -10839,7 +10839,7 @@
         <v>11</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="1">
@@ -10859,7 +10859,7 @@
         <v>9</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1">
@@ -10870,9 +10870,9 @@
       </c>
       <c r="W9" s="36"/>
       <c r="X9" s="37"/>
-      <c r="Y9" s="111"/>
-      <c r="Z9" s="112"/>
-      <c r="AA9" s="113"/>
+      <c r="Y9" s="109"/>
+      <c r="Z9" s="110"/>
+      <c r="AA9" s="111"/>
       <c r="AB9" s="9"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
@@ -10926,9 +10926,9 @@
       <c r="X10" s="37">
         <v>13</v>
       </c>
-      <c r="Y10" s="111"/>
-      <c r="Z10" s="112"/>
-      <c r="AA10" s="113"/>
+      <c r="Y10" s="109"/>
+      <c r="Z10" s="110"/>
+      <c r="AA10" s="111"/>
       <c r="AB10" s="9"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
@@ -10943,6 +10943,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="Y8:AA8"/>
     <mergeCell ref="AB3:AG3"/>
     <mergeCell ref="Y9:AA9"/>
     <mergeCell ref="Y10:AA10"/>
@@ -10950,11 +10955,6 @@
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y4:AA4"/>
     <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="Y8:AA8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10967,8 +10967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11975,7 +11975,7 @@
         <v>217</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>347</v>
+        <v>391</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.3">
@@ -11986,7 +11986,7 @@
         <v>234</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>348</v>
+        <v>392</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.3">
@@ -12008,7 +12008,7 @@
         <v>217</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.3">
@@ -12019,7 +12019,7 @@
         <v>217</v>
       </c>
       <c r="D96" s="28" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.3">
@@ -12041,7 +12041,7 @@
         <v>217</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.3">
@@ -12052,7 +12052,7 @@
         <v>217</v>
       </c>
       <c r="D99" s="28" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.3">
@@ -12063,7 +12063,7 @@
         <v>254</v>
       </c>
       <c r="D100" s="28" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.3">
@@ -12085,7 +12085,7 @@
         <v>217</v>
       </c>
       <c r="D102" s="28" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.3">
@@ -12107,7 +12107,7 @@
         <v>257</v>
       </c>
       <c r="D104" s="28" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.3">
@@ -12129,7 +12129,7 @@
         <v>217</v>
       </c>
       <c r="D106" s="28" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.3">
@@ -12140,7 +12140,7 @@
         <v>221</v>
       </c>
       <c r="D107" s="28" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.3">
@@ -12151,7 +12151,7 @@
         <v>217</v>
       </c>
       <c r="D108" s="28" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.3">
@@ -12217,7 +12217,7 @@
         <v>217</v>
       </c>
       <c r="D114" s="28" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.3">
@@ -12239,7 +12239,7 @@
         <v>221</v>
       </c>
       <c r="D116" s="28" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.3">
@@ -12261,7 +12261,7 @@
         <v>218</v>
       </c>
       <c r="D118" s="28" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.3">
@@ -12272,7 +12272,7 @@
         <v>217</v>
       </c>
       <c r="D119" s="28" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.3">
@@ -12283,7 +12283,7 @@
         <v>269</v>
       </c>
       <c r="D120" s="28" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.3">
@@ -12327,7 +12327,7 @@
         <v>221</v>
       </c>
       <c r="D124" s="28" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.3">
@@ -12338,7 +12338,7 @@
         <v>276</v>
       </c>
       <c r="D125" s="28" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.3">
@@ -12371,7 +12371,7 @@
         <v>217</v>
       </c>
       <c r="D128" s="28" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.3">
@@ -12404,7 +12404,7 @@
         <v>218</v>
       </c>
       <c r="D131" s="28" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.3">
@@ -12415,7 +12415,7 @@
         <v>217</v>
       </c>
       <c r="D132" s="28" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.3">
@@ -12426,7 +12426,7 @@
         <v>217</v>
       </c>
       <c r="D133" s="28" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.3">
@@ -12448,7 +12448,7 @@
         <v>217</v>
       </c>
       <c r="D135" s="28" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.3">
@@ -12459,7 +12459,7 @@
         <v>234</v>
       </c>
       <c r="D136" s="28" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.3">
@@ -12470,7 +12470,7 @@
         <v>286</v>
       </c>
       <c r="D137" s="28" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.3">
@@ -12503,7 +12503,7 @@
         <v>217</v>
       </c>
       <c r="D140" s="28" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.3">
@@ -12525,7 +12525,7 @@
         <v>217</v>
       </c>
       <c r="D142" s="28" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.3">

--- a/00.기획서/221016_스테이지 기획서_V110.xlsx
+++ b/00.기획서/221016_스테이지 기획서_V110.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RocketTeamDocu\00.기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\RocketTeamDocu\00.기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="docu_1" sheetId="7" r:id="rId1"/>
@@ -5439,7 +5439,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="396">
   <si>
     <t>choose_1_Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7010,6 +7010,15 @@
   <si>
     <t>비타민을… 사 온 거야?</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s0_Patch.prefab</t>
+  </si>
+  <si>
+    <t>s0_Pills.prefab</t>
+  </si>
+  <si>
+    <t>s0_Vitamin.prefab</t>
   </si>
 </sst>
 </file>
@@ -8020,26 +8029,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -8050,28 +8074,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8095,22 +8152,16 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8122,70 +8173,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8200,10 +8209,16 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8215,13 +8230,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8234,15 +8252,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8935,50 +8944,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
     </row>
     <row r="3" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="96"/>
     </row>
     <row r="5" spans="3:22" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="3"/>
@@ -9197,136 +9206,136 @@
       </c>
     </row>
     <row r="51" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E51" s="61" t="s">
+      <c r="E51" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="61"/>
-      <c r="G51" s="61" t="s">
+      <c r="F51" s="75"/>
+      <c r="G51" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="H51" s="61"/>
-      <c r="I51" s="61"/>
-      <c r="J51" s="61"/>
-      <c r="K51" s="61"/>
-      <c r="L51" s="61"/>
-      <c r="M51" s="61"/>
-      <c r="N51" s="61"/>
-      <c r="O51" s="61"/>
-      <c r="P51" s="61"/>
-      <c r="Q51" s="61"/>
-      <c r="R51" s="61"/>
-      <c r="S51" s="61"/>
-      <c r="T51" s="61"/>
+      <c r="H51" s="75"/>
+      <c r="I51" s="75"/>
+      <c r="J51" s="75"/>
+      <c r="K51" s="75"/>
+      <c r="L51" s="75"/>
+      <c r="M51" s="75"/>
+      <c r="N51" s="75"/>
+      <c r="O51" s="75"/>
+      <c r="P51" s="75"/>
+      <c r="Q51" s="75"/>
+      <c r="R51" s="75"/>
+      <c r="S51" s="75"/>
+      <c r="T51" s="75"/>
     </row>
     <row r="52" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E52" s="60" t="s">
+      <c r="E52" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="F52" s="60"/>
-      <c r="G52" s="84" t="s">
+      <c r="F52" s="101"/>
+      <c r="G52" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="H52" s="84"/>
-      <c r="I52" s="84"/>
-      <c r="J52" s="84"/>
-      <c r="K52" s="84"/>
-      <c r="L52" s="84"/>
-      <c r="M52" s="84"/>
-      <c r="N52" s="84"/>
-      <c r="O52" s="84"/>
-      <c r="P52" s="84"/>
-      <c r="Q52" s="84"/>
-      <c r="R52" s="84"/>
-      <c r="S52" s="84"/>
-      <c r="T52" s="84"/>
+      <c r="H52" s="62"/>
+      <c r="I52" s="62"/>
+      <c r="J52" s="62"/>
+      <c r="K52" s="62"/>
+      <c r="L52" s="62"/>
+      <c r="M52" s="62"/>
+      <c r="N52" s="62"/>
+      <c r="O52" s="62"/>
+      <c r="P52" s="62"/>
+      <c r="Q52" s="62"/>
+      <c r="R52" s="62"/>
+      <c r="S52" s="62"/>
+      <c r="T52" s="62"/>
     </row>
     <row r="53" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E53" s="60" t="s">
+      <c r="E53" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="F53" s="60"/>
-      <c r="G53" s="84" t="s">
+      <c r="F53" s="101"/>
+      <c r="G53" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="H53" s="84"/>
-      <c r="I53" s="84"/>
-      <c r="J53" s="84"/>
-      <c r="K53" s="84"/>
-      <c r="L53" s="84"/>
-      <c r="M53" s="84"/>
-      <c r="N53" s="84"/>
-      <c r="O53" s="84"/>
-      <c r="P53" s="84"/>
-      <c r="Q53" s="84"/>
-      <c r="R53" s="84"/>
-      <c r="S53" s="84"/>
-      <c r="T53" s="84"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="62"/>
+      <c r="J53" s="62"/>
+      <c r="K53" s="62"/>
+      <c r="L53" s="62"/>
+      <c r="M53" s="62"/>
+      <c r="N53" s="62"/>
+      <c r="O53" s="62"/>
+      <c r="P53" s="62"/>
+      <c r="Q53" s="62"/>
+      <c r="R53" s="62"/>
+      <c r="S53" s="62"/>
+      <c r="T53" s="62"/>
     </row>
     <row r="54" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E54" s="60" t="s">
+      <c r="E54" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="F54" s="60"/>
-      <c r="G54" s="84" t="s">
+      <c r="F54" s="101"/>
+      <c r="G54" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="H54" s="84"/>
-      <c r="I54" s="84"/>
-      <c r="J54" s="84"/>
-      <c r="K54" s="84"/>
-      <c r="L54" s="84"/>
-      <c r="M54" s="84"/>
-      <c r="N54" s="84"/>
-      <c r="O54" s="84"/>
-      <c r="P54" s="84"/>
-      <c r="Q54" s="84"/>
-      <c r="R54" s="84"/>
-      <c r="S54" s="84"/>
-      <c r="T54" s="84"/>
+      <c r="H54" s="62"/>
+      <c r="I54" s="62"/>
+      <c r="J54" s="62"/>
+      <c r="K54" s="62"/>
+      <c r="L54" s="62"/>
+      <c r="M54" s="62"/>
+      <c r="N54" s="62"/>
+      <c r="O54" s="62"/>
+      <c r="P54" s="62"/>
+      <c r="Q54" s="62"/>
+      <c r="R54" s="62"/>
+      <c r="S54" s="62"/>
+      <c r="T54" s="62"/>
     </row>
     <row r="55" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E55" s="60" t="s">
+      <c r="E55" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="F55" s="60"/>
-      <c r="G55" s="84" t="s">
+      <c r="F55" s="101"/>
+      <c r="G55" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="H55" s="84"/>
-      <c r="I55" s="84"/>
-      <c r="J55" s="84"/>
-      <c r="K55" s="84"/>
-      <c r="L55" s="84"/>
-      <c r="M55" s="84"/>
-      <c r="N55" s="84"/>
-      <c r="O55" s="84"/>
-      <c r="P55" s="84"/>
-      <c r="Q55" s="84"/>
-      <c r="R55" s="84"/>
-      <c r="S55" s="84"/>
-      <c r="T55" s="84"/>
+      <c r="H55" s="62"/>
+      <c r="I55" s="62"/>
+      <c r="J55" s="62"/>
+      <c r="K55" s="62"/>
+      <c r="L55" s="62"/>
+      <c r="M55" s="62"/>
+      <c r="N55" s="62"/>
+      <c r="O55" s="62"/>
+      <c r="P55" s="62"/>
+      <c r="Q55" s="62"/>
+      <c r="R55" s="62"/>
+      <c r="S55" s="62"/>
+      <c r="T55" s="62"/>
     </row>
     <row r="56" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E56" s="60" t="s">
+      <c r="E56" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="F56" s="60"/>
-      <c r="G56" s="84" t="s">
+      <c r="F56" s="101"/>
+      <c r="G56" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="H56" s="84"/>
-      <c r="I56" s="84"/>
-      <c r="J56" s="84"/>
-      <c r="K56" s="84"/>
-      <c r="L56" s="84"/>
-      <c r="M56" s="84"/>
-      <c r="N56" s="84"/>
-      <c r="O56" s="84"/>
-      <c r="P56" s="84"/>
-      <c r="Q56" s="84"/>
-      <c r="R56" s="84"/>
-      <c r="S56" s="84"/>
-      <c r="T56" s="84"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="62"/>
+      <c r="J56" s="62"/>
+      <c r="K56" s="62"/>
+      <c r="L56" s="62"/>
+      <c r="M56" s="62"/>
+      <c r="N56" s="62"/>
+      <c r="O56" s="62"/>
+      <c r="P56" s="62"/>
+      <c r="Q56" s="62"/>
+      <c r="R56" s="62"/>
+      <c r="S56" s="62"/>
+      <c r="T56" s="62"/>
     </row>
     <row r="58" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
@@ -9337,170 +9346,170 @@
       <c r="E59" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F59" s="71" t="s">
+      <c r="F59" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="G59" s="53"/>
+      <c r="G59" s="88"/>
       <c r="H59" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="I59" s="51" t="s">
+      <c r="I59" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="J59" s="52"/>
-      <c r="K59" s="52"/>
-      <c r="L59" s="52"/>
-      <c r="M59" s="52"/>
-      <c r="N59" s="52"/>
-      <c r="O59" s="52"/>
-      <c r="P59" s="52"/>
-      <c r="Q59" s="52"/>
-      <c r="R59" s="52"/>
-      <c r="S59" s="52"/>
-      <c r="T59" s="53"/>
+      <c r="J59" s="98"/>
+      <c r="K59" s="98"/>
+      <c r="L59" s="98"/>
+      <c r="M59" s="98"/>
+      <c r="N59" s="98"/>
+      <c r="O59" s="98"/>
+      <c r="P59" s="98"/>
+      <c r="Q59" s="98"/>
+      <c r="R59" s="98"/>
+      <c r="S59" s="98"/>
+      <c r="T59" s="88"/>
     </row>
     <row r="60" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E60" s="66" t="s">
+      <c r="E60" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="F60" s="80" t="s">
+      <c r="F60" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="G60" s="56"/>
+      <c r="G60" s="61"/>
       <c r="H60" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="I60" s="54" t="s">
+      <c r="I60" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="J60" s="55"/>
-      <c r="K60" s="55"/>
-      <c r="L60" s="55"/>
-      <c r="M60" s="55"/>
-      <c r="N60" s="55"/>
-      <c r="O60" s="55"/>
-      <c r="P60" s="55"/>
-      <c r="Q60" s="55"/>
-      <c r="R60" s="55"/>
-      <c r="S60" s="55"/>
-      <c r="T60" s="56"/>
+      <c r="J60" s="60"/>
+      <c r="K60" s="60"/>
+      <c r="L60" s="60"/>
+      <c r="M60" s="60"/>
+      <c r="N60" s="60"/>
+      <c r="O60" s="60"/>
+      <c r="P60" s="60"/>
+      <c r="Q60" s="60"/>
+      <c r="R60" s="60"/>
+      <c r="S60" s="60"/>
+      <c r="T60" s="61"/>
     </row>
     <row r="61" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E61" s="69"/>
-      <c r="F61" s="64" t="s">
+      <c r="E61" s="85"/>
+      <c r="F61" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="G61" s="65"/>
+      <c r="G61" s="81"/>
       <c r="H61" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="I61" s="82" t="s">
+      <c r="I61" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="J61" s="83"/>
-      <c r="K61" s="83"/>
-      <c r="L61" s="83"/>
-      <c r="M61" s="83"/>
-      <c r="N61" s="83"/>
-      <c r="O61" s="83"/>
-      <c r="P61" s="83"/>
-      <c r="Q61" s="83"/>
-      <c r="R61" s="83"/>
-      <c r="S61" s="83"/>
-      <c r="T61" s="65"/>
+      <c r="J61" s="80"/>
+      <c r="K61" s="80"/>
+      <c r="L61" s="80"/>
+      <c r="M61" s="80"/>
+      <c r="N61" s="80"/>
+      <c r="O61" s="80"/>
+      <c r="P61" s="80"/>
+      <c r="Q61" s="80"/>
+      <c r="R61" s="80"/>
+      <c r="S61" s="80"/>
+      <c r="T61" s="81"/>
     </row>
     <row r="62" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E62" s="66" t="s">
+      <c r="E62" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="F62" s="81" t="s">
+      <c r="F62" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="G62" s="59"/>
-      <c r="H62" s="95" t="s">
+      <c r="G62" s="78"/>
+      <c r="H62" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="I62" s="57" t="s">
+      <c r="I62" s="99" t="s">
         <v>118</v>
       </c>
-      <c r="J62" s="58"/>
-      <c r="K62" s="58"/>
-      <c r="L62" s="58"/>
-      <c r="M62" s="58"/>
-      <c r="N62" s="58"/>
-      <c r="O62" s="58"/>
-      <c r="P62" s="58"/>
-      <c r="Q62" s="58"/>
-      <c r="R62" s="58"/>
-      <c r="S62" s="58"/>
-      <c r="T62" s="59"/>
+      <c r="J62" s="100"/>
+      <c r="K62" s="100"/>
+      <c r="L62" s="100"/>
+      <c r="M62" s="100"/>
+      <c r="N62" s="100"/>
+      <c r="O62" s="100"/>
+      <c r="P62" s="100"/>
+      <c r="Q62" s="100"/>
+      <c r="R62" s="100"/>
+      <c r="S62" s="100"/>
+      <c r="T62" s="78"/>
     </row>
     <row r="63" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="68"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="50"/>
-      <c r="H63" s="96"/>
-      <c r="I63" s="62" t="s">
+      <c r="E63" s="84"/>
+      <c r="F63" s="76"/>
+      <c r="G63" s="58"/>
+      <c r="H63" s="51"/>
+      <c r="I63" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="J63" s="63"/>
-      <c r="K63" s="63"/>
-      <c r="L63" s="63"/>
-      <c r="M63" s="63"/>
-      <c r="N63" s="63"/>
-      <c r="O63" s="63"/>
-      <c r="P63" s="63"/>
-      <c r="Q63" s="63"/>
-      <c r="R63" s="63"/>
-      <c r="S63" s="63"/>
-      <c r="T63" s="50"/>
+      <c r="J63" s="57"/>
+      <c r="K63" s="57"/>
+      <c r="L63" s="57"/>
+      <c r="M63" s="57"/>
+      <c r="N63" s="57"/>
+      <c r="O63" s="57"/>
+      <c r="P63" s="57"/>
+      <c r="Q63" s="57"/>
+      <c r="R63" s="57"/>
+      <c r="S63" s="57"/>
+      <c r="T63" s="58"/>
     </row>
     <row r="64" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E64" s="68"/>
-      <c r="F64" s="49" t="s">
+      <c r="E64" s="84"/>
+      <c r="F64" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="G64" s="50"/>
-      <c r="H64" s="97" t="s">
+      <c r="G64" s="58"/>
+      <c r="H64" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="I64" s="62" t="s">
+      <c r="I64" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="J64" s="63"/>
-      <c r="K64" s="63"/>
-      <c r="L64" s="63"/>
-      <c r="M64" s="63"/>
-      <c r="N64" s="63"/>
-      <c r="O64" s="63"/>
-      <c r="P64" s="63"/>
-      <c r="Q64" s="63"/>
-      <c r="R64" s="63"/>
-      <c r="S64" s="63"/>
-      <c r="T64" s="50"/>
+      <c r="J64" s="57"/>
+      <c r="K64" s="57"/>
+      <c r="L64" s="57"/>
+      <c r="M64" s="57"/>
+      <c r="N64" s="57"/>
+      <c r="O64" s="57"/>
+      <c r="P64" s="57"/>
+      <c r="Q64" s="57"/>
+      <c r="R64" s="57"/>
+      <c r="S64" s="57"/>
+      <c r="T64" s="58"/>
     </row>
     <row r="65" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E65" s="68"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="50"/>
-      <c r="H65" s="96"/>
-      <c r="I65" s="62" t="s">
+      <c r="E65" s="84"/>
+      <c r="F65" s="76"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="J65" s="63"/>
-      <c r="K65" s="63"/>
-      <c r="L65" s="63"/>
-      <c r="M65" s="63"/>
-      <c r="N65" s="63"/>
-      <c r="O65" s="63"/>
-      <c r="P65" s="63"/>
-      <c r="Q65" s="63"/>
-      <c r="R65" s="63"/>
-      <c r="S65" s="63"/>
-      <c r="T65" s="50"/>
+      <c r="J65" s="57"/>
+      <c r="K65" s="57"/>
+      <c r="L65" s="57"/>
+      <c r="M65" s="57"/>
+      <c r="N65" s="57"/>
+      <c r="O65" s="57"/>
+      <c r="P65" s="57"/>
+      <c r="Q65" s="57"/>
+      <c r="R65" s="57"/>
+      <c r="S65" s="57"/>
+      <c r="T65" s="58"/>
     </row>
     <row r="66" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E66" s="68"/>
+      <c r="E66" s="84"/>
       <c r="F66" s="10" t="s">
         <v>114</v>
       </c>
@@ -9508,347 +9517,347 @@
       <c r="H66" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="I66" s="62" t="s">
+      <c r="I66" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="J66" s="63"/>
-      <c r="K66" s="63"/>
-      <c r="L66" s="63"/>
-      <c r="M66" s="63"/>
-      <c r="N66" s="63"/>
-      <c r="O66" s="63"/>
-      <c r="P66" s="63"/>
-      <c r="Q66" s="63"/>
-      <c r="R66" s="63"/>
-      <c r="S66" s="63"/>
-      <c r="T66" s="50"/>
+      <c r="J66" s="57"/>
+      <c r="K66" s="57"/>
+      <c r="L66" s="57"/>
+      <c r="M66" s="57"/>
+      <c r="N66" s="57"/>
+      <c r="O66" s="57"/>
+      <c r="P66" s="57"/>
+      <c r="Q66" s="57"/>
+      <c r="R66" s="57"/>
+      <c r="S66" s="57"/>
+      <c r="T66" s="58"/>
     </row>
     <row r="67" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E67" s="68"/>
-      <c r="F67" s="49" t="s">
+      <c r="E67" s="84"/>
+      <c r="F67" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="G67" s="50"/>
+      <c r="G67" s="58"/>
       <c r="H67" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="I67" s="62" t="s">
+      <c r="I67" s="56" t="s">
         <v>191</v>
       </c>
-      <c r="J67" s="63"/>
-      <c r="K67" s="63"/>
-      <c r="L67" s="63"/>
-      <c r="M67" s="63"/>
-      <c r="N67" s="63"/>
-      <c r="O67" s="63"/>
-      <c r="P67" s="63"/>
-      <c r="Q67" s="63"/>
-      <c r="R67" s="63"/>
-      <c r="S67" s="63"/>
-      <c r="T67" s="50"/>
+      <c r="J67" s="57"/>
+      <c r="K67" s="57"/>
+      <c r="L67" s="57"/>
+      <c r="M67" s="57"/>
+      <c r="N67" s="57"/>
+      <c r="O67" s="57"/>
+      <c r="P67" s="57"/>
+      <c r="Q67" s="57"/>
+      <c r="R67" s="57"/>
+      <c r="S67" s="57"/>
+      <c r="T67" s="58"/>
     </row>
     <row r="68" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E68" s="68"/>
-      <c r="F68" s="49" t="s">
+      <c r="E68" s="84"/>
+      <c r="F68" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="G68" s="50"/>
+      <c r="G68" s="58"/>
       <c r="H68" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="I68" s="62" t="s">
+      <c r="I68" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="J68" s="63"/>
-      <c r="K68" s="63"/>
-      <c r="L68" s="63"/>
-      <c r="M68" s="63"/>
-      <c r="N68" s="63"/>
-      <c r="O68" s="63"/>
-      <c r="P68" s="63"/>
-      <c r="Q68" s="63"/>
-      <c r="R68" s="63"/>
-      <c r="S68" s="63"/>
-      <c r="T68" s="50"/>
+      <c r="J68" s="57"/>
+      <c r="K68" s="57"/>
+      <c r="L68" s="57"/>
+      <c r="M68" s="57"/>
+      <c r="N68" s="57"/>
+      <c r="O68" s="57"/>
+      <c r="P68" s="57"/>
+      <c r="Q68" s="57"/>
+      <c r="R68" s="57"/>
+      <c r="S68" s="57"/>
+      <c r="T68" s="58"/>
     </row>
     <row r="69" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E69" s="68"/>
-      <c r="F69" s="49" t="s">
+      <c r="E69" s="84"/>
+      <c r="F69" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="G69" s="50"/>
-      <c r="H69" s="97" t="s">
+      <c r="G69" s="58"/>
+      <c r="H69" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="I69" s="62" t="s">
+      <c r="I69" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="J69" s="63"/>
-      <c r="K69" s="63"/>
-      <c r="L69" s="63"/>
-      <c r="M69" s="63"/>
-      <c r="N69" s="63"/>
-      <c r="O69" s="63"/>
-      <c r="P69" s="63"/>
-      <c r="Q69" s="63"/>
-      <c r="R69" s="63"/>
-      <c r="S69" s="63"/>
-      <c r="T69" s="50"/>
+      <c r="J69" s="57"/>
+      <c r="K69" s="57"/>
+      <c r="L69" s="57"/>
+      <c r="M69" s="57"/>
+      <c r="N69" s="57"/>
+      <c r="O69" s="57"/>
+      <c r="P69" s="57"/>
+      <c r="Q69" s="57"/>
+      <c r="R69" s="57"/>
+      <c r="S69" s="57"/>
+      <c r="T69" s="58"/>
     </row>
     <row r="70" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E70" s="68"/>
-      <c r="F70" s="49"/>
-      <c r="G70" s="50"/>
-      <c r="H70" s="96"/>
-      <c r="I70" s="62" t="s">
+      <c r="E70" s="84"/>
+      <c r="F70" s="76"/>
+      <c r="G70" s="58"/>
+      <c r="H70" s="51"/>
+      <c r="I70" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="J70" s="63"/>
-      <c r="K70" s="63"/>
-      <c r="L70" s="63"/>
-      <c r="M70" s="63"/>
-      <c r="N70" s="63"/>
-      <c r="O70" s="63"/>
-      <c r="P70" s="63"/>
-      <c r="Q70" s="63"/>
-      <c r="R70" s="63"/>
-      <c r="S70" s="63"/>
-      <c r="T70" s="50"/>
+      <c r="J70" s="57"/>
+      <c r="K70" s="57"/>
+      <c r="L70" s="57"/>
+      <c r="M70" s="57"/>
+      <c r="N70" s="57"/>
+      <c r="O70" s="57"/>
+      <c r="P70" s="57"/>
+      <c r="Q70" s="57"/>
+      <c r="R70" s="57"/>
+      <c r="S70" s="57"/>
+      <c r="T70" s="58"/>
     </row>
     <row r="71" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E71" s="68"/>
-      <c r="F71" s="49" t="s">
+      <c r="E71" s="84"/>
+      <c r="F71" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="G71" s="50"/>
-      <c r="H71" s="97" t="s">
+      <c r="G71" s="58"/>
+      <c r="H71" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="I71" s="62" t="s">
+      <c r="I71" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="J71" s="63"/>
-      <c r="K71" s="63"/>
-      <c r="L71" s="63"/>
-      <c r="M71" s="63"/>
-      <c r="N71" s="63"/>
-      <c r="O71" s="63"/>
-      <c r="P71" s="63"/>
-      <c r="Q71" s="63"/>
-      <c r="R71" s="63"/>
-      <c r="S71" s="63"/>
-      <c r="T71" s="50"/>
+      <c r="J71" s="57"/>
+      <c r="K71" s="57"/>
+      <c r="L71" s="57"/>
+      <c r="M71" s="57"/>
+      <c r="N71" s="57"/>
+      <c r="O71" s="57"/>
+      <c r="P71" s="57"/>
+      <c r="Q71" s="57"/>
+      <c r="R71" s="57"/>
+      <c r="S71" s="57"/>
+      <c r="T71" s="58"/>
     </row>
     <row r="72" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E72" s="68"/>
-      <c r="F72" s="49"/>
-      <c r="G72" s="50"/>
-      <c r="H72" s="96"/>
-      <c r="I72" s="91" t="s">
+      <c r="E72" s="84"/>
+      <c r="F72" s="76"/>
+      <c r="G72" s="58"/>
+      <c r="H72" s="51"/>
+      <c r="I72" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="J72" s="91"/>
-      <c r="K72" s="91"/>
-      <c r="L72" s="91"/>
-      <c r="M72" s="91"/>
-      <c r="N72" s="91"/>
-      <c r="O72" s="91"/>
-      <c r="P72" s="91"/>
-      <c r="Q72" s="91"/>
-      <c r="R72" s="91"/>
-      <c r="S72" s="91"/>
-      <c r="T72" s="92"/>
+      <c r="J72" s="49"/>
+      <c r="K72" s="49"/>
+      <c r="L72" s="49"/>
+      <c r="M72" s="49"/>
+      <c r="N72" s="49"/>
+      <c r="O72" s="49"/>
+      <c r="P72" s="49"/>
+      <c r="Q72" s="49"/>
+      <c r="R72" s="49"/>
+      <c r="S72" s="49"/>
+      <c r="T72" s="48"/>
     </row>
     <row r="73" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E73" s="68"/>
-      <c r="F73" s="49" t="s">
+      <c r="E73" s="84"/>
+      <c r="F73" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="G73" s="50"/>
+      <c r="G73" s="58"/>
       <c r="H73" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="I73" s="62" t="s">
+      <c r="I73" s="56" t="s">
         <v>382</v>
       </c>
-      <c r="J73" s="63"/>
-      <c r="K73" s="63"/>
-      <c r="L73" s="63"/>
-      <c r="M73" s="63"/>
-      <c r="N73" s="63"/>
-      <c r="O73" s="63"/>
-      <c r="P73" s="63"/>
-      <c r="Q73" s="63"/>
-      <c r="R73" s="63"/>
-      <c r="S73" s="63"/>
-      <c r="T73" s="50"/>
+      <c r="J73" s="57"/>
+      <c r="K73" s="57"/>
+      <c r="L73" s="57"/>
+      <c r="M73" s="57"/>
+      <c r="N73" s="57"/>
+      <c r="O73" s="57"/>
+      <c r="P73" s="57"/>
+      <c r="Q73" s="57"/>
+      <c r="R73" s="57"/>
+      <c r="S73" s="57"/>
+      <c r="T73" s="58"/>
     </row>
     <row r="74" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E74" s="68"/>
-      <c r="F74" s="98" t="s">
+      <c r="E74" s="84"/>
+      <c r="F74" s="47" t="s">
         <v>380</v>
       </c>
-      <c r="G74" s="92"/>
+      <c r="G74" s="48"/>
       <c r="H74" s="45" t="s">
         <v>379</v>
       </c>
-      <c r="I74" s="98" t="s">
+      <c r="I74" s="47" t="s">
         <v>381</v>
       </c>
-      <c r="J74" s="91"/>
-      <c r="K74" s="91"/>
-      <c r="L74" s="91"/>
-      <c r="M74" s="91"/>
-      <c r="N74" s="91"/>
-      <c r="O74" s="91"/>
-      <c r="P74" s="91"/>
-      <c r="Q74" s="91"/>
-      <c r="R74" s="91"/>
-      <c r="S74" s="91"/>
-      <c r="T74" s="92"/>
+      <c r="J74" s="49"/>
+      <c r="K74" s="49"/>
+      <c r="L74" s="49"/>
+      <c r="M74" s="49"/>
+      <c r="N74" s="49"/>
+      <c r="O74" s="49"/>
+      <c r="P74" s="49"/>
+      <c r="Q74" s="49"/>
+      <c r="R74" s="49"/>
+      <c r="S74" s="49"/>
+      <c r="T74" s="48"/>
     </row>
     <row r="75" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E75" s="68"/>
-      <c r="F75" s="49" t="s">
+      <c r="E75" s="84"/>
+      <c r="F75" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="G75" s="50"/>
-      <c r="H75" s="97" t="s">
+      <c r="G75" s="58"/>
+      <c r="H75" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="I75" s="62" t="s">
+      <c r="I75" s="56" t="s">
         <v>227</v>
       </c>
-      <c r="J75" s="63"/>
-      <c r="K75" s="63"/>
-      <c r="L75" s="63"/>
-      <c r="M75" s="63"/>
-      <c r="N75" s="63"/>
-      <c r="O75" s="63"/>
-      <c r="P75" s="63"/>
-      <c r="Q75" s="63"/>
-      <c r="R75" s="63"/>
-      <c r="S75" s="63"/>
-      <c r="T75" s="50"/>
+      <c r="J75" s="57"/>
+      <c r="K75" s="57"/>
+      <c r="L75" s="57"/>
+      <c r="M75" s="57"/>
+      <c r="N75" s="57"/>
+      <c r="O75" s="57"/>
+      <c r="P75" s="57"/>
+      <c r="Q75" s="57"/>
+      <c r="R75" s="57"/>
+      <c r="S75" s="57"/>
+      <c r="T75" s="58"/>
     </row>
     <row r="76" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E76" s="68"/>
-      <c r="F76" s="49"/>
-      <c r="G76" s="50"/>
-      <c r="H76" s="96"/>
-      <c r="I76" s="62" t="s">
+      <c r="E76" s="84"/>
+      <c r="F76" s="76"/>
+      <c r="G76" s="58"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="J76" s="63"/>
-      <c r="K76" s="63"/>
-      <c r="L76" s="63"/>
-      <c r="M76" s="63"/>
-      <c r="N76" s="63"/>
-      <c r="O76" s="63"/>
-      <c r="P76" s="63"/>
-      <c r="Q76" s="63"/>
-      <c r="R76" s="63"/>
-      <c r="S76" s="63"/>
-      <c r="T76" s="50"/>
+      <c r="J76" s="57"/>
+      <c r="K76" s="57"/>
+      <c r="L76" s="57"/>
+      <c r="M76" s="57"/>
+      <c r="N76" s="57"/>
+      <c r="O76" s="57"/>
+      <c r="P76" s="57"/>
+      <c r="Q76" s="57"/>
+      <c r="R76" s="57"/>
+      <c r="S76" s="57"/>
+      <c r="T76" s="58"/>
     </row>
     <row r="77" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E77" s="68"/>
-      <c r="F77" s="49" t="s">
+      <c r="E77" s="84"/>
+      <c r="F77" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="G77" s="50"/>
-      <c r="H77" s="97" t="s">
+      <c r="G77" s="58"/>
+      <c r="H77" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="I77" s="62" t="s">
+      <c r="I77" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="J77" s="63"/>
-      <c r="K77" s="63"/>
-      <c r="L77" s="63"/>
-      <c r="M77" s="63"/>
-      <c r="N77" s="63"/>
-      <c r="O77" s="63"/>
-      <c r="P77" s="63"/>
-      <c r="Q77" s="63"/>
-      <c r="R77" s="63"/>
-      <c r="S77" s="63"/>
-      <c r="T77" s="50"/>
+      <c r="J77" s="57"/>
+      <c r="K77" s="57"/>
+      <c r="L77" s="57"/>
+      <c r="M77" s="57"/>
+      <c r="N77" s="57"/>
+      <c r="O77" s="57"/>
+      <c r="P77" s="57"/>
+      <c r="Q77" s="57"/>
+      <c r="R77" s="57"/>
+      <c r="S77" s="57"/>
+      <c r="T77" s="58"/>
     </row>
     <row r="78" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E78" s="68"/>
-      <c r="F78" s="49"/>
-      <c r="G78" s="50"/>
-      <c r="H78" s="96"/>
-      <c r="I78" s="62" t="s">
+      <c r="E78" s="84"/>
+      <c r="F78" s="76"/>
+      <c r="G78" s="58"/>
+      <c r="H78" s="51"/>
+      <c r="I78" s="56" t="s">
         <v>202</v>
       </c>
-      <c r="J78" s="63"/>
-      <c r="K78" s="63"/>
-      <c r="L78" s="63"/>
-      <c r="M78" s="63"/>
-      <c r="N78" s="63"/>
-      <c r="O78" s="63"/>
-      <c r="P78" s="63"/>
-      <c r="Q78" s="63"/>
-      <c r="R78" s="63"/>
-      <c r="S78" s="63"/>
-      <c r="T78" s="50"/>
+      <c r="J78" s="57"/>
+      <c r="K78" s="57"/>
+      <c r="L78" s="57"/>
+      <c r="M78" s="57"/>
+      <c r="N78" s="57"/>
+      <c r="O78" s="57"/>
+      <c r="P78" s="57"/>
+      <c r="Q78" s="57"/>
+      <c r="R78" s="57"/>
+      <c r="S78" s="57"/>
+      <c r="T78" s="58"/>
     </row>
     <row r="79" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E79" s="68"/>
-      <c r="F79" s="49" t="s">
+      <c r="E79" s="84"/>
+      <c r="F79" s="76" t="s">
         <v>199</v>
       </c>
-      <c r="G79" s="50"/>
+      <c r="G79" s="58"/>
       <c r="H79" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="I79" s="62" t="s">
+      <c r="I79" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="J79" s="63"/>
-      <c r="K79" s="63"/>
-      <c r="L79" s="63"/>
-      <c r="M79" s="63"/>
-      <c r="N79" s="63"/>
-      <c r="O79" s="63"/>
-      <c r="P79" s="63"/>
-      <c r="Q79" s="63"/>
-      <c r="R79" s="63"/>
-      <c r="S79" s="63"/>
-      <c r="T79" s="50"/>
+      <c r="J79" s="57"/>
+      <c r="K79" s="57"/>
+      <c r="L79" s="57"/>
+      <c r="M79" s="57"/>
+      <c r="N79" s="57"/>
+      <c r="O79" s="57"/>
+      <c r="P79" s="57"/>
+      <c r="Q79" s="57"/>
+      <c r="R79" s="57"/>
+      <c r="S79" s="57"/>
+      <c r="T79" s="58"/>
     </row>
     <row r="80" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E80" s="68"/>
-      <c r="F80" s="49" t="s">
+      <c r="E80" s="84"/>
+      <c r="F80" s="76" t="s">
         <v>200</v>
       </c>
-      <c r="G80" s="50"/>
+      <c r="G80" s="58"/>
       <c r="H80" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="I80" s="91" t="s">
+      <c r="I80" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="J80" s="91"/>
-      <c r="K80" s="91"/>
-      <c r="L80" s="91"/>
-      <c r="M80" s="91"/>
-      <c r="N80" s="91"/>
-      <c r="O80" s="91"/>
-      <c r="P80" s="91"/>
-      <c r="Q80" s="91"/>
-      <c r="R80" s="91"/>
-      <c r="S80" s="91"/>
-      <c r="T80" s="92"/>
+      <c r="J80" s="49"/>
+      <c r="K80" s="49"/>
+      <c r="L80" s="49"/>
+      <c r="M80" s="49"/>
+      <c r="N80" s="49"/>
+      <c r="O80" s="49"/>
+      <c r="P80" s="49"/>
+      <c r="Q80" s="49"/>
+      <c r="R80" s="49"/>
+      <c r="S80" s="49"/>
+      <c r="T80" s="48"/>
     </row>
     <row r="81" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E81" s="70"/>
-      <c r="F81" s="98" t="s">
+      <c r="E81" s="86"/>
+      <c r="F81" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="G81" s="92"/>
+      <c r="G81" s="48"/>
       <c r="H81" s="31" t="s">
         <v>203</v>
       </c>
@@ -9868,170 +9877,170 @@
       <c r="T81" s="32"/>
     </row>
     <row r="82" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E82" s="69"/>
-      <c r="F82" s="78" t="s">
+      <c r="E82" s="85"/>
+      <c r="F82" s="92" t="s">
         <v>208</v>
       </c>
-      <c r="G82" s="79"/>
+      <c r="G82" s="93"/>
       <c r="H82" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="I82" s="93" t="s">
+      <c r="I82" s="72" t="s">
         <v>209</v>
       </c>
-      <c r="J82" s="93"/>
-      <c r="K82" s="93"/>
-      <c r="L82" s="93"/>
-      <c r="M82" s="93"/>
-      <c r="N82" s="93"/>
-      <c r="O82" s="93"/>
-      <c r="P82" s="93"/>
-      <c r="Q82" s="93"/>
-      <c r="R82" s="93"/>
-      <c r="S82" s="93"/>
-      <c r="T82" s="94"/>
+      <c r="J82" s="72"/>
+      <c r="K82" s="72"/>
+      <c r="L82" s="72"/>
+      <c r="M82" s="72"/>
+      <c r="N82" s="72"/>
+      <c r="O82" s="72"/>
+      <c r="P82" s="72"/>
+      <c r="Q82" s="72"/>
+      <c r="R82" s="72"/>
+      <c r="S82" s="72"/>
+      <c r="T82" s="73"/>
     </row>
     <row r="83" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="66" t="s">
+      <c r="E83" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="F83" s="80" t="s">
+      <c r="F83" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="G83" s="56"/>
+      <c r="G83" s="61"/>
       <c r="H83" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="I83" s="54" t="s">
+      <c r="I83" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="J83" s="55"/>
-      <c r="K83" s="55"/>
-      <c r="L83" s="55"/>
-      <c r="M83" s="55"/>
-      <c r="N83" s="55"/>
-      <c r="O83" s="55"/>
-      <c r="P83" s="55"/>
-      <c r="Q83" s="55"/>
-      <c r="R83" s="55"/>
-      <c r="S83" s="55"/>
-      <c r="T83" s="56"/>
+      <c r="J83" s="60"/>
+      <c r="K83" s="60"/>
+      <c r="L83" s="60"/>
+      <c r="M83" s="60"/>
+      <c r="N83" s="60"/>
+      <c r="O83" s="60"/>
+      <c r="P83" s="60"/>
+      <c r="Q83" s="60"/>
+      <c r="R83" s="60"/>
+      <c r="S83" s="60"/>
+      <c r="T83" s="61"/>
     </row>
     <row r="84" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E84" s="67"/>
-      <c r="F84" s="99" t="s">
+      <c r="E84" s="83"/>
+      <c r="F84" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="G84" s="100"/>
-      <c r="H84" s="97" t="s">
+      <c r="G84" s="53"/>
+      <c r="H84" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="I84" s="98" t="s">
+      <c r="I84" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="J84" s="91"/>
-      <c r="K84" s="91"/>
-      <c r="L84" s="91"/>
-      <c r="M84" s="91"/>
-      <c r="N84" s="91"/>
-      <c r="O84" s="91"/>
-      <c r="P84" s="91"/>
-      <c r="Q84" s="91"/>
-      <c r="R84" s="91"/>
-      <c r="S84" s="91"/>
-      <c r="T84" s="92"/>
+      <c r="J84" s="49"/>
+      <c r="K84" s="49"/>
+      <c r="L84" s="49"/>
+      <c r="M84" s="49"/>
+      <c r="N84" s="49"/>
+      <c r="O84" s="49"/>
+      <c r="P84" s="49"/>
+      <c r="Q84" s="49"/>
+      <c r="R84" s="49"/>
+      <c r="S84" s="49"/>
+      <c r="T84" s="48"/>
     </row>
     <row r="85" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E85" s="67"/>
-      <c r="F85" s="101"/>
-      <c r="G85" s="102"/>
-      <c r="H85" s="96"/>
-      <c r="I85" s="98" t="s">
+      <c r="E85" s="83"/>
+      <c r="F85" s="54"/>
+      <c r="G85" s="55"/>
+      <c r="H85" s="51"/>
+      <c r="I85" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="J85" s="91"/>
-      <c r="K85" s="91"/>
-      <c r="L85" s="91"/>
-      <c r="M85" s="91"/>
-      <c r="N85" s="91"/>
-      <c r="O85" s="91"/>
-      <c r="P85" s="91"/>
-      <c r="Q85" s="91"/>
-      <c r="R85" s="91"/>
-      <c r="S85" s="91"/>
-      <c r="T85" s="92"/>
+      <c r="J85" s="49"/>
+      <c r="K85" s="49"/>
+      <c r="L85" s="49"/>
+      <c r="M85" s="49"/>
+      <c r="N85" s="49"/>
+      <c r="O85" s="49"/>
+      <c r="P85" s="49"/>
+      <c r="Q85" s="49"/>
+      <c r="R85" s="49"/>
+      <c r="S85" s="49"/>
+      <c r="T85" s="48"/>
     </row>
     <row r="86" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E86" s="68"/>
-      <c r="F86" s="72" t="s">
+      <c r="E86" s="84"/>
+      <c r="F86" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="G86" s="73"/>
+      <c r="G86" s="65"/>
       <c r="H86" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="I86" s="85" t="s">
+      <c r="I86" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="J86" s="86"/>
-      <c r="K86" s="86"/>
-      <c r="L86" s="86"/>
-      <c r="M86" s="86"/>
-      <c r="N86" s="86"/>
-      <c r="O86" s="86"/>
-      <c r="P86" s="86"/>
-      <c r="Q86" s="86"/>
-      <c r="R86" s="86"/>
-      <c r="S86" s="86"/>
-      <c r="T86" s="73"/>
+      <c r="J86" s="64"/>
+      <c r="K86" s="64"/>
+      <c r="L86" s="64"/>
+      <c r="M86" s="64"/>
+      <c r="N86" s="64"/>
+      <c r="O86" s="64"/>
+      <c r="P86" s="64"/>
+      <c r="Q86" s="64"/>
+      <c r="R86" s="64"/>
+      <c r="S86" s="64"/>
+      <c r="T86" s="65"/>
     </row>
     <row r="87" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E87" s="68"/>
-      <c r="F87" s="74" t="s">
+      <c r="E87" s="84"/>
+      <c r="F87" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="G87" s="75"/>
+      <c r="G87" s="68"/>
       <c r="H87" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="I87" s="87" t="s">
+      <c r="I87" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="J87" s="88"/>
-      <c r="K87" s="88"/>
-      <c r="L87" s="88"/>
-      <c r="M87" s="88"/>
-      <c r="N87" s="88"/>
-      <c r="O87" s="88"/>
-      <c r="P87" s="88"/>
-      <c r="Q87" s="88"/>
-      <c r="R87" s="88"/>
-      <c r="S87" s="88"/>
-      <c r="T87" s="75"/>
+      <c r="J87" s="67"/>
+      <c r="K87" s="67"/>
+      <c r="L87" s="67"/>
+      <c r="M87" s="67"/>
+      <c r="N87" s="67"/>
+      <c r="O87" s="67"/>
+      <c r="P87" s="67"/>
+      <c r="Q87" s="67"/>
+      <c r="R87" s="67"/>
+      <c r="S87" s="67"/>
+      <c r="T87" s="68"/>
     </row>
     <row r="88" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E88" s="69"/>
-      <c r="F88" s="76" t="s">
+      <c r="E88" s="85"/>
+      <c r="F88" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="G88" s="77"/>
+      <c r="G88" s="71"/>
       <c r="H88" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="I88" s="89" t="s">
+      <c r="I88" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="J88" s="90"/>
-      <c r="K88" s="90"/>
-      <c r="L88" s="90"/>
-      <c r="M88" s="90"/>
-      <c r="N88" s="90"/>
-      <c r="O88" s="90"/>
-      <c r="P88" s="90"/>
-      <c r="Q88" s="90"/>
-      <c r="R88" s="90"/>
-      <c r="S88" s="90"/>
-      <c r="T88" s="77"/>
+      <c r="J88" s="70"/>
+      <c r="K88" s="70"/>
+      <c r="L88" s="70"/>
+      <c r="M88" s="70"/>
+      <c r="N88" s="70"/>
+      <c r="O88" s="70"/>
+      <c r="P88" s="70"/>
+      <c r="Q88" s="70"/>
+      <c r="R88" s="70"/>
+      <c r="S88" s="70"/>
+      <c r="T88" s="71"/>
     </row>
     <row r="89" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F89" s="7" t="s">
@@ -10045,21 +10054,49 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="I74:T74"/>
-    <mergeCell ref="I84:T84"/>
-    <mergeCell ref="I85:T85"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="F84:G85"/>
-    <mergeCell ref="I77:T77"/>
-    <mergeCell ref="I83:T83"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="I71:T71"/>
-    <mergeCell ref="I73:T73"/>
-    <mergeCell ref="I75:T75"/>
-    <mergeCell ref="I76:T76"/>
-    <mergeCell ref="I69:T69"/>
-    <mergeCell ref="I70:T70"/>
+    <mergeCell ref="C2:V3"/>
+    <mergeCell ref="F69:G70"/>
+    <mergeCell ref="I59:T59"/>
+    <mergeCell ref="I60:T60"/>
+    <mergeCell ref="I62:T62"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="I64:T64"/>
+    <mergeCell ref="I65:T65"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="E83:E88"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E62:E82"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="F77:G78"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F75:G76"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F71:G72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F64:G65"/>
+    <mergeCell ref="F62:G63"/>
+    <mergeCell ref="I61:T61"/>
+    <mergeCell ref="I67:T67"/>
+    <mergeCell ref="I68:T68"/>
+    <mergeCell ref="I63:T63"/>
+    <mergeCell ref="G51:T51"/>
+    <mergeCell ref="G52:T52"/>
+    <mergeCell ref="G53:T53"/>
+    <mergeCell ref="G54:T54"/>
+    <mergeCell ref="G55:T55"/>
     <mergeCell ref="G56:T56"/>
     <mergeCell ref="I86:T86"/>
     <mergeCell ref="I87:T87"/>
@@ -10076,49 +10113,21 @@
     <mergeCell ref="H75:H76"/>
     <mergeCell ref="H77:H78"/>
     <mergeCell ref="I66:T66"/>
-    <mergeCell ref="G51:T51"/>
-    <mergeCell ref="G52:T52"/>
-    <mergeCell ref="G53:T53"/>
-    <mergeCell ref="G54:T54"/>
-    <mergeCell ref="G55:T55"/>
-    <mergeCell ref="F64:G65"/>
-    <mergeCell ref="F62:G63"/>
-    <mergeCell ref="I61:T61"/>
-    <mergeCell ref="I67:T67"/>
-    <mergeCell ref="I68:T68"/>
-    <mergeCell ref="I63:T63"/>
-    <mergeCell ref="E83:E88"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="E62:E82"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="F77:G78"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F75:G76"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F71:G72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="C2:V3"/>
-    <mergeCell ref="F69:G70"/>
-    <mergeCell ref="I59:T59"/>
-    <mergeCell ref="I60:T60"/>
-    <mergeCell ref="I62:T62"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="I64:T64"/>
-    <mergeCell ref="I65:T65"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="I71:T71"/>
+    <mergeCell ref="I73:T73"/>
+    <mergeCell ref="I75:T75"/>
+    <mergeCell ref="I76:T76"/>
+    <mergeCell ref="I69:T69"/>
+    <mergeCell ref="I70:T70"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="I74:T74"/>
+    <mergeCell ref="I84:T84"/>
+    <mergeCell ref="I85:T85"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="F84:G85"/>
+    <mergeCell ref="I77:T77"/>
+    <mergeCell ref="I83:T83"/>
+    <mergeCell ref="F81:G81"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10141,46 +10150,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="95"/>
+      <c r="T3" s="95"/>
     </row>
     <row r="4" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
     </row>
     <row r="6" spans="3:20" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="5"/>
@@ -10380,8 +10389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AG11"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V9" sqref="V9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10413,50 +10422,50 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="107" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="121" t="s">
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="110" t="s">
         <v>375</v>
       </c>
-      <c r="J3" s="120"/>
-      <c r="K3" s="112" t="s">
+      <c r="J3" s="109"/>
+      <c r="K3" s="116" t="s">
         <v>91</v>
       </c>
-      <c r="L3" s="112"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
-      <c r="U3" s="113"/>
-      <c r="V3" s="114"/>
-      <c r="W3" s="115" t="s">
+      <c r="L3" s="116"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="107"/>
+      <c r="W3" s="118" t="s">
         <v>198</v>
       </c>
-      <c r="X3" s="114"/>
-      <c r="Y3" s="121" t="s">
+      <c r="X3" s="107"/>
+      <c r="Y3" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="Z3" s="119"/>
-      <c r="AA3" s="120"/>
-      <c r="AB3" s="107" t="s">
+      <c r="Z3" s="108"/>
+      <c r="AA3" s="109"/>
+      <c r="AB3" s="114" t="s">
         <v>89</v>
       </c>
-      <c r="AC3" s="108"/>
-      <c r="AD3" s="108"/>
-      <c r="AE3" s="108"/>
-      <c r="AF3" s="108"/>
-      <c r="AG3" s="108"/>
+      <c r="AC3" s="115"/>
+      <c r="AD3" s="115"/>
+      <c r="AE3" s="115"/>
+      <c r="AF3" s="115"/>
+      <c r="AG3" s="115"/>
     </row>
     <row r="4" spans="2:33" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
@@ -10528,11 +10537,11 @@
       <c r="X4" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="Y4" s="116" t="s">
+      <c r="Y4" s="119" t="s">
         <v>85</v>
       </c>
-      <c r="Z4" s="117"/>
-      <c r="AA4" s="118"/>
+      <c r="Z4" s="120"/>
+      <c r="AA4" s="121"/>
       <c r="AB4" s="23" t="s">
         <v>86</v>
       </c>
@@ -10622,11 +10631,11 @@
       <c r="X5" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="Y5" s="109" t="s">
+      <c r="Y5" s="111" t="s">
         <v>373</v>
       </c>
-      <c r="Z5" s="110"/>
-      <c r="AA5" s="111"/>
+      <c r="Z5" s="112"/>
+      <c r="AA5" s="113"/>
       <c r="AB5" s="22" t="s">
         <v>207</v>
       </c>
@@ -10736,11 +10745,11 @@
       <c r="V7" s="17"/>
       <c r="W7" s="36"/>
       <c r="X7" s="37"/>
-      <c r="Y7" s="109">
+      <c r="Y7" s="111">
         <v>1</v>
       </c>
-      <c r="Z7" s="110"/>
-      <c r="AA7" s="111"/>
+      <c r="Z7" s="112"/>
+      <c r="AA7" s="113"/>
       <c r="AB7" s="22"/>
       <c r="AC7" s="21"/>
       <c r="AD7" s="21"/>
@@ -10788,9 +10797,9 @@
       <c r="V8" s="1"/>
       <c r="W8" s="36"/>
       <c r="X8" s="37"/>
-      <c r="Y8" s="109"/>
-      <c r="Z8" s="110"/>
-      <c r="AA8" s="111"/>
+      <c r="Y8" s="111"/>
+      <c r="Z8" s="112"/>
+      <c r="AA8" s="113"/>
       <c r="AB8" s="9" t="s">
         <v>193</v>
       </c>
@@ -10841,7 +10850,9 @@
       <c r="K9" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="L9" s="9"/>
+      <c r="L9" s="9" t="s">
+        <v>393</v>
+      </c>
       <c r="M9" s="1">
         <v>1</v>
       </c>
@@ -10851,7 +10862,9 @@
       <c r="O9" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="P9" s="1"/>
+      <c r="P9" s="1" t="s">
+        <v>394</v>
+      </c>
       <c r="Q9" s="1">
         <v>1</v>
       </c>
@@ -10861,7 +10874,9 @@
       <c r="S9" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="T9" s="1"/>
+      <c r="T9" s="1" t="s">
+        <v>395</v>
+      </c>
       <c r="U9" s="1">
         <v>2</v>
       </c>
@@ -10870,9 +10885,9 @@
       </c>
       <c r="W9" s="36"/>
       <c r="X9" s="37"/>
-      <c r="Y9" s="109"/>
-      <c r="Z9" s="110"/>
-      <c r="AA9" s="111"/>
+      <c r="Y9" s="111"/>
+      <c r="Z9" s="112"/>
+      <c r="AA9" s="113"/>
       <c r="AB9" s="9"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
@@ -10926,9 +10941,9 @@
       <c r="X10" s="37">
         <v>13</v>
       </c>
-      <c r="Y10" s="109"/>
-      <c r="Z10" s="110"/>
-      <c r="AA10" s="111"/>
+      <c r="Y10" s="111"/>
+      <c r="Z10" s="112"/>
+      <c r="AA10" s="113"/>
       <c r="AB10" s="9"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
@@ -10943,11 +10958,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="Y8:AA8"/>
     <mergeCell ref="AB3:AG3"/>
     <mergeCell ref="Y9:AA9"/>
     <mergeCell ref="Y10:AA10"/>
@@ -10955,6 +10965,11 @@
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y4:AA4"/>
     <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="Y8:AA8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10967,7 +10982,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+    <sheetView topLeftCell="A79" workbookViewId="0">
       <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>

--- a/00.기획서/221016_스테이지 기획서_V110.xlsx
+++ b/00.기획서/221016_스테이지 기획서_V110.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\RocketTeamDocu\00.기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RocketTeamDocu\00.기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
   </bookViews>
   <sheets>
     <sheet name="docu_1" sheetId="7" r:id="rId1"/>
@@ -5439,7 +5439,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="399">
   <si>
     <t>choose_1_Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -6352,14 +6352,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(약국에 들어가자마자 보인 붕대를 사서 나왔다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(머리를 꽉 잡아주면 두통이 멈춘다는 글을 인터넷에서 본 것 같아!)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6372,10 +6364,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(내가 진지하게 설명을 시작하자 하나가 작게 웃었다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6388,14 +6376,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>하나야, 내가 인터넷에서 봤는데 붕대는 잘만 사용하면 두통부터 골절까지 만병통치약으로 사용할 수 있는….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(그러더니 한참을 즐겁게 웃었다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6404,10 +6384,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>으, 응!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>진통제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6448,10 +6424,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>(안약을 본 하나는 화를 참는 듯 입을 꾹 다물었다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>두통인 것 정도는 기억해주지….</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6768,30 +6740,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>붕대를… 사 온 거야…?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(하나가 황당한 얼굴로 붕대를 내려다봤다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>설마 나 웃기려고 붕대로 사 온 거야?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸하하하…!! 이렇게 황당하고 웃긴 적은 처음이야!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(이렇게 웃어줄 줄은 몰랐지만 하나가 웃자 나도 기분이 좋았다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하하하하… 아~ 정말 넌 재밌다니까.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>하지만 머리는 계속 아프니까 이번엔 제대로 진통제로 사 와줘.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -6828,197 +6776,261 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>그래서 아무거나 집어 왔더니…웃기지? 하하하하하하하하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(이런, 기분이 많이 안 좋아 보인다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미안미안~ 이번엔 꼭 잊지 말고! 두통약으로 사 올게!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(나는 다시 진통제를 사러 약국으로 뛰어 들어갔다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(아파도 이번에 나온 신메뉴를 꼭 먹어야 한다면서…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약국에서 약 사다 줬으니까 이번엔 내가 살게.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(내가 대답도 하기 전에 하나는 계산대로 갔다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(길고 복잡하고 난생처음 보는 커피 이름이 지나갔다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(이건 마법 주문을 외우는 건지 커피를 주문하는 건지…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우와 정말 맛있다…! 이런 커피는 처음 마셔봐!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(응…? 그런데 내가 하나한테 시나몬 좋아한다고 말한 적이 있던가…?)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와, 여기 봐! 카페에서 이벤트 중인가 봐…! 우리도 참여하자.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(고민 중이던 나를 하나는 한쪽 벽으로 이끌었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(그곳엔 포스트잇이 잔뜩 붙어있었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당첨될 확률도 낮을 텐데… 굳이 참여할 필요가 있을까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래…? 그래도 재밌어 보이는데….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(이런 바보 같은 이벤트에 참여하다니. 당첨될 확률도 거의 없는데…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아~ 오랜만에 여행 떠나고 싶어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하나는 어딜 여행 가고 싶은지 즐겁게 떠들기 시작했다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(바보 같은 이벤트지만 하나의 이런 모습을 볼 수 있다면 참여할 가치가 있었는걸...)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런데… 하나야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응? 왜 불러?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 시나몬 좋아한다는 건 어떻게 알았어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안 알려주는 거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(벙찐 표정의 내가 웃긴 건지 하나는 알려줄 생각이 없어 보였다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date_3_charID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작/종료 대사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">* 공백란은 없음을 뜻함 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나의 스테이지는 최소 시작 지점 하나, 목표 지점 둘로 구성되어 있다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">목표 지점은 기획 상황에 따라 더 추가될 수 있다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_1_3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">첫번째 선택지의 3D GUI 에셋 파일명을 기입한다 / 파일명: ???  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>첫번째 선택지 명을 기입한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_1_3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_2_3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>choose_3_3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밴드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비타민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(아무거나 집어서 사 온 것은…비타민이었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비타민을… 사 온 거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s0_Patch.prefab</t>
+  </si>
+  <si>
+    <t>s0_Pills.prefab</t>
+  </si>
+  <si>
+    <t>s0_Vitamin.prefab</t>
+  </si>
+  <si>
+    <t>(비타민을 본 하나는 화를 참는 듯 입을 꾹 다물었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하지만 다시 재빨리 진통제를 사와도 하나의 표정은 좋아지지 않았다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(약국에 들어가자마자 보인 밴드를 사서 나왔다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(머리도 머리지만 아까 하나가 비틀거리면서 살짝 긁힌 것 같아서 신경쓰였다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>밴드를… 사 온 거야…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(하나가 황당한 얼굴로 밴드를 내려다봤다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(내 변명을 듣던 하나가 작게 웃었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그걸 보고 밴드를 사온거야?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸하하하하….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넌 정말… 여전 하구나….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아, 알았어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나야, 그게 약국에 들어가자마자 보였는데 아까 네가 다리 긁혔던 게 생각나서 그만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래도 약을 먼저 사 왔어야 했는데 미안해 내가 다시 가서…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(그러더니 뭐가 그리 행복한지 밴드를 꼭 쥐고 웃었다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(분명 내가 잘못 사 온 건데… 그래도 하나가 웃으니 마음이 놓였다.)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>하하하…있잖아 정신없이 약국에 들어갔더니 아무것도 기억이 안 나는 거야.</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래서 아무거나 집어 왔더니…웃기지? 하하하하하하하하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(이런, 기분이 많이 안 좋아 보인다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미안미안~ 이번엔 꼭 잊지 말고! 두통약으로 사 올게!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(나는 다시 진통제를 사러 약국으로 뛰어 들어갔다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(아파도 이번에 나온 신메뉴를 꼭 먹어야 한다면서…)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>약국에서 약 사다 줬으니까 이번엔 내가 살게.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(내가 대답도 하기 전에 하나는 계산대로 갔다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(길고 복잡하고 난생처음 보는 커피 이름이 지나갔다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(이건 마법 주문을 외우는 건지 커피를 주문하는 건지…)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>우와 정말 맛있다…! 이런 커피는 처음 마셔봐!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(응…? 그런데 내가 하나한테 시나몬 좋아한다고 말한 적이 있던가…?)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>와, 여기 봐! 카페에서 이벤트 중인가 봐…! 우리도 참여하자.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(고민 중이던 나를 하나는 한쪽 벽으로 이끌었다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(그곳엔 포스트잇이 잔뜩 붙어있었다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>당첨될 확률도 낮을 텐데… 굳이 참여할 필요가 있을까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래…? 그래도 재밌어 보이는데….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(이런 바보 같은 이벤트에 참여하다니. 당첨될 확률도 거의 없는데…)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아~ 오랜만에 여행 떠나고 싶어!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(하나는 어딜 여행 가고 싶은지 즐겁게 떠들기 시작했다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(바보 같은 이벤트지만 하나의 이런 모습을 볼 수 있다면 참여할 가치가 있었는걸...)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그런데… 하나야.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>응? 왜 불러?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 시나몬 좋아한다는 건 어떻게 알았어?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안 알려주는 거야?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(벙찐 표정의 내가 웃긴 건지 하나는 알려줄 생각이 없어 보였다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>date_3_charID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시작/종료 대사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">* 공백란은 없음을 뜻함 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하나의 스테이지는 최소 시작 지점 하나, 목표 지점 둘로 구성되어 있다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">목표 지점은 기획 상황에 따라 더 추가될 수 있다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_1_3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">첫번째 선택지의 3D GUI 에셋 파일명을 기입한다 / 파일명: ???  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>첫번째 선택지 명을 기입한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_1_3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_2_3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>choose_3_3D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>밴드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비타민</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(아무거나 집어서 사 온 것은…비타민이었다.)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비타민을… 사 온 거야?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>s0_Patch.prefab</t>
-  </si>
-  <si>
-    <t>s0_Pills.prefab</t>
-  </si>
-  <si>
-    <t>s0_Vitamin.prefab</t>
   </si>
 </sst>
 </file>
@@ -8029,41 +8041,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -8074,61 +8071,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8152,16 +8116,22 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8173,28 +8143,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8209,16 +8221,10 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8230,16 +8236,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8252,6 +8255,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8935,7 +8947,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:V90"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:V3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8944,50 +8958,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="96"/>
-      <c r="E2" s="96"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="96"/>
-      <c r="O2" s="96"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
-      <c r="S2" s="96"/>
-      <c r="T2" s="96"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="96"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="48"/>
+      <c r="V2" s="48"/>
     </row>
     <row r="3" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="96"/>
-      <c r="O3" s="96"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="96"/>
-      <c r="S3" s="96"/>
-      <c r="T3" s="96"/>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+      <c r="P3" s="48"/>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="S3" s="48"/>
+      <c r="T3" s="48"/>
+      <c r="U3" s="48"/>
+      <c r="V3" s="48"/>
     </row>
     <row r="5" spans="3:22" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="3"/>
@@ -9083,12 +9097,12 @@
     </row>
     <row r="14" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
     </row>
     <row r="15" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="4:5" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -9206,136 +9220,136 @@
       </c>
     </row>
     <row r="51" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E51" s="75" t="s">
+      <c r="E51" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="75"/>
-      <c r="G51" s="75" t="s">
+      <c r="F51" s="61"/>
+      <c r="G51" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="H51" s="75"/>
-      <c r="I51" s="75"/>
-      <c r="J51" s="75"/>
-      <c r="K51" s="75"/>
-      <c r="L51" s="75"/>
-      <c r="M51" s="75"/>
-      <c r="N51" s="75"/>
-      <c r="O51" s="75"/>
-      <c r="P51" s="75"/>
-      <c r="Q51" s="75"/>
-      <c r="R51" s="75"/>
-      <c r="S51" s="75"/>
-      <c r="T51" s="75"/>
+      <c r="H51" s="61"/>
+      <c r="I51" s="61"/>
+      <c r="J51" s="61"/>
+      <c r="K51" s="61"/>
+      <c r="L51" s="61"/>
+      <c r="M51" s="61"/>
+      <c r="N51" s="61"/>
+      <c r="O51" s="61"/>
+      <c r="P51" s="61"/>
+      <c r="Q51" s="61"/>
+      <c r="R51" s="61"/>
+      <c r="S51" s="61"/>
+      <c r="T51" s="61"/>
     </row>
     <row r="52" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E52" s="101" t="s">
+      <c r="E52" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="F52" s="101"/>
-      <c r="G52" s="62" t="s">
+      <c r="F52" s="60"/>
+      <c r="G52" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="H52" s="62"/>
-      <c r="I52" s="62"/>
-      <c r="J52" s="62"/>
-      <c r="K52" s="62"/>
-      <c r="L52" s="62"/>
-      <c r="M52" s="62"/>
-      <c r="N52" s="62"/>
-      <c r="O52" s="62"/>
-      <c r="P52" s="62"/>
-      <c r="Q52" s="62"/>
-      <c r="R52" s="62"/>
-      <c r="S52" s="62"/>
-      <c r="T52" s="62"/>
+      <c r="H52" s="84"/>
+      <c r="I52" s="84"/>
+      <c r="J52" s="84"/>
+      <c r="K52" s="84"/>
+      <c r="L52" s="84"/>
+      <c r="M52" s="84"/>
+      <c r="N52" s="84"/>
+      <c r="O52" s="84"/>
+      <c r="P52" s="84"/>
+      <c r="Q52" s="84"/>
+      <c r="R52" s="84"/>
+      <c r="S52" s="84"/>
+      <c r="T52" s="84"/>
     </row>
     <row r="53" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E53" s="101" t="s">
+      <c r="E53" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="F53" s="101"/>
-      <c r="G53" s="62" t="s">
+      <c r="F53" s="60"/>
+      <c r="G53" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="H53" s="62"/>
-      <c r="I53" s="62"/>
-      <c r="J53" s="62"/>
-      <c r="K53" s="62"/>
-      <c r="L53" s="62"/>
-      <c r="M53" s="62"/>
-      <c r="N53" s="62"/>
-      <c r="O53" s="62"/>
-      <c r="P53" s="62"/>
-      <c r="Q53" s="62"/>
-      <c r="R53" s="62"/>
-      <c r="S53" s="62"/>
-      <c r="T53" s="62"/>
+      <c r="H53" s="84"/>
+      <c r="I53" s="84"/>
+      <c r="J53" s="84"/>
+      <c r="K53" s="84"/>
+      <c r="L53" s="84"/>
+      <c r="M53" s="84"/>
+      <c r="N53" s="84"/>
+      <c r="O53" s="84"/>
+      <c r="P53" s="84"/>
+      <c r="Q53" s="84"/>
+      <c r="R53" s="84"/>
+      <c r="S53" s="84"/>
+      <c r="T53" s="84"/>
     </row>
     <row r="54" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E54" s="101" t="s">
+      <c r="E54" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="F54" s="101"/>
-      <c r="G54" s="62" t="s">
+      <c r="F54" s="60"/>
+      <c r="G54" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="H54" s="62"/>
-      <c r="I54" s="62"/>
-      <c r="J54" s="62"/>
-      <c r="K54" s="62"/>
-      <c r="L54" s="62"/>
-      <c r="M54" s="62"/>
-      <c r="N54" s="62"/>
-      <c r="O54" s="62"/>
-      <c r="P54" s="62"/>
-      <c r="Q54" s="62"/>
-      <c r="R54" s="62"/>
-      <c r="S54" s="62"/>
-      <c r="T54" s="62"/>
+      <c r="H54" s="84"/>
+      <c r="I54" s="84"/>
+      <c r="J54" s="84"/>
+      <c r="K54" s="84"/>
+      <c r="L54" s="84"/>
+      <c r="M54" s="84"/>
+      <c r="N54" s="84"/>
+      <c r="O54" s="84"/>
+      <c r="P54" s="84"/>
+      <c r="Q54" s="84"/>
+      <c r="R54" s="84"/>
+      <c r="S54" s="84"/>
+      <c r="T54" s="84"/>
     </row>
     <row r="55" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E55" s="101" t="s">
+      <c r="E55" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="F55" s="101"/>
-      <c r="G55" s="62" t="s">
+      <c r="F55" s="60"/>
+      <c r="G55" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="H55" s="62"/>
-      <c r="I55" s="62"/>
-      <c r="J55" s="62"/>
-      <c r="K55" s="62"/>
-      <c r="L55" s="62"/>
-      <c r="M55" s="62"/>
-      <c r="N55" s="62"/>
-      <c r="O55" s="62"/>
-      <c r="P55" s="62"/>
-      <c r="Q55" s="62"/>
-      <c r="R55" s="62"/>
-      <c r="S55" s="62"/>
-      <c r="T55" s="62"/>
+      <c r="H55" s="84"/>
+      <c r="I55" s="84"/>
+      <c r="J55" s="84"/>
+      <c r="K55" s="84"/>
+      <c r="L55" s="84"/>
+      <c r="M55" s="84"/>
+      <c r="N55" s="84"/>
+      <c r="O55" s="84"/>
+      <c r="P55" s="84"/>
+      <c r="Q55" s="84"/>
+      <c r="R55" s="84"/>
+      <c r="S55" s="84"/>
+      <c r="T55" s="84"/>
     </row>
     <row r="56" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E56" s="101" t="s">
+      <c r="E56" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="F56" s="101"/>
-      <c r="G56" s="62" t="s">
+      <c r="F56" s="60"/>
+      <c r="G56" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="H56" s="62"/>
-      <c r="I56" s="62"/>
-      <c r="J56" s="62"/>
-      <c r="K56" s="62"/>
-      <c r="L56" s="62"/>
-      <c r="M56" s="62"/>
-      <c r="N56" s="62"/>
-      <c r="O56" s="62"/>
-      <c r="P56" s="62"/>
-      <c r="Q56" s="62"/>
-      <c r="R56" s="62"/>
-      <c r="S56" s="62"/>
-      <c r="T56" s="62"/>
+      <c r="H56" s="84"/>
+      <c r="I56" s="84"/>
+      <c r="J56" s="84"/>
+      <c r="K56" s="84"/>
+      <c r="L56" s="84"/>
+      <c r="M56" s="84"/>
+      <c r="N56" s="84"/>
+      <c r="O56" s="84"/>
+      <c r="P56" s="84"/>
+      <c r="Q56" s="84"/>
+      <c r="R56" s="84"/>
+      <c r="S56" s="84"/>
+      <c r="T56" s="84"/>
     </row>
     <row r="58" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
@@ -9346,170 +9360,170 @@
       <c r="E59" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F59" s="87" t="s">
+      <c r="F59" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="G59" s="88"/>
+      <c r="G59" s="53"/>
       <c r="H59" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="I59" s="97" t="s">
+      <c r="I59" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="J59" s="98"/>
-      <c r="K59" s="98"/>
-      <c r="L59" s="98"/>
-      <c r="M59" s="98"/>
-      <c r="N59" s="98"/>
-      <c r="O59" s="98"/>
-      <c r="P59" s="98"/>
-      <c r="Q59" s="98"/>
-      <c r="R59" s="98"/>
-      <c r="S59" s="98"/>
-      <c r="T59" s="88"/>
+      <c r="J59" s="52"/>
+      <c r="K59" s="52"/>
+      <c r="L59" s="52"/>
+      <c r="M59" s="52"/>
+      <c r="N59" s="52"/>
+      <c r="O59" s="52"/>
+      <c r="P59" s="52"/>
+      <c r="Q59" s="52"/>
+      <c r="R59" s="52"/>
+      <c r="S59" s="52"/>
+      <c r="T59" s="53"/>
     </row>
     <row r="60" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E60" s="82" t="s">
+      <c r="E60" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="F60" s="94" t="s">
+      <c r="F60" s="80" t="s">
         <v>29</v>
       </c>
-      <c r="G60" s="61"/>
+      <c r="G60" s="56"/>
       <c r="H60" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="I60" s="59" t="s">
+      <c r="I60" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="J60" s="60"/>
-      <c r="K60" s="60"/>
-      <c r="L60" s="60"/>
-      <c r="M60" s="60"/>
-      <c r="N60" s="60"/>
-      <c r="O60" s="60"/>
-      <c r="P60" s="60"/>
-      <c r="Q60" s="60"/>
-      <c r="R60" s="60"/>
-      <c r="S60" s="60"/>
-      <c r="T60" s="61"/>
+      <c r="J60" s="55"/>
+      <c r="K60" s="55"/>
+      <c r="L60" s="55"/>
+      <c r="M60" s="55"/>
+      <c r="N60" s="55"/>
+      <c r="O60" s="55"/>
+      <c r="P60" s="55"/>
+      <c r="Q60" s="55"/>
+      <c r="R60" s="55"/>
+      <c r="S60" s="55"/>
+      <c r="T60" s="56"/>
     </row>
     <row r="61" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E61" s="85"/>
-      <c r="F61" s="102" t="s">
+      <c r="E61" s="69"/>
+      <c r="F61" s="64" t="s">
         <v>105</v>
       </c>
-      <c r="G61" s="81"/>
+      <c r="G61" s="65"/>
       <c r="H61" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="I61" s="79" t="s">
+      <c r="I61" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="J61" s="80"/>
-      <c r="K61" s="80"/>
-      <c r="L61" s="80"/>
-      <c r="M61" s="80"/>
-      <c r="N61" s="80"/>
-      <c r="O61" s="80"/>
-      <c r="P61" s="80"/>
-      <c r="Q61" s="80"/>
-      <c r="R61" s="80"/>
-      <c r="S61" s="80"/>
-      <c r="T61" s="81"/>
+      <c r="J61" s="83"/>
+      <c r="K61" s="83"/>
+      <c r="L61" s="83"/>
+      <c r="M61" s="83"/>
+      <c r="N61" s="83"/>
+      <c r="O61" s="83"/>
+      <c r="P61" s="83"/>
+      <c r="Q61" s="83"/>
+      <c r="R61" s="83"/>
+      <c r="S61" s="83"/>
+      <c r="T61" s="65"/>
     </row>
     <row r="62" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E62" s="82" t="s">
+      <c r="E62" s="66" t="s">
         <v>104</v>
       </c>
-      <c r="F62" s="77" t="s">
+      <c r="F62" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="G62" s="78"/>
-      <c r="H62" s="74" t="s">
+      <c r="G62" s="59"/>
+      <c r="H62" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="I62" s="99" t="s">
+      <c r="I62" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="J62" s="100"/>
-      <c r="K62" s="100"/>
-      <c r="L62" s="100"/>
-      <c r="M62" s="100"/>
-      <c r="N62" s="100"/>
-      <c r="O62" s="100"/>
-      <c r="P62" s="100"/>
-      <c r="Q62" s="100"/>
-      <c r="R62" s="100"/>
-      <c r="S62" s="100"/>
-      <c r="T62" s="78"/>
+      <c r="J62" s="58"/>
+      <c r="K62" s="58"/>
+      <c r="L62" s="58"/>
+      <c r="M62" s="58"/>
+      <c r="N62" s="58"/>
+      <c r="O62" s="58"/>
+      <c r="P62" s="58"/>
+      <c r="Q62" s="58"/>
+      <c r="R62" s="58"/>
+      <c r="S62" s="58"/>
+      <c r="T62" s="59"/>
     </row>
     <row r="63" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="84"/>
-      <c r="F63" s="76"/>
-      <c r="G63" s="58"/>
-      <c r="H63" s="51"/>
-      <c r="I63" s="56" t="s">
+      <c r="E63" s="68"/>
+      <c r="F63" s="49"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="96"/>
+      <c r="I63" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="J63" s="57"/>
-      <c r="K63" s="57"/>
-      <c r="L63" s="57"/>
-      <c r="M63" s="57"/>
-      <c r="N63" s="57"/>
-      <c r="O63" s="57"/>
-      <c r="P63" s="57"/>
-      <c r="Q63" s="57"/>
-      <c r="R63" s="57"/>
-      <c r="S63" s="57"/>
-      <c r="T63" s="58"/>
+      <c r="J63" s="63"/>
+      <c r="K63" s="63"/>
+      <c r="L63" s="63"/>
+      <c r="M63" s="63"/>
+      <c r="N63" s="63"/>
+      <c r="O63" s="63"/>
+      <c r="P63" s="63"/>
+      <c r="Q63" s="63"/>
+      <c r="R63" s="63"/>
+      <c r="S63" s="63"/>
+      <c r="T63" s="50"/>
     </row>
     <row r="64" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E64" s="84"/>
-      <c r="F64" s="76" t="s">
+      <c r="E64" s="68"/>
+      <c r="F64" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="G64" s="58"/>
-      <c r="H64" s="50" t="s">
+      <c r="G64" s="50"/>
+      <c r="H64" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="I64" s="56" t="s">
+      <c r="I64" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="J64" s="57"/>
-      <c r="K64" s="57"/>
-      <c r="L64" s="57"/>
-      <c r="M64" s="57"/>
-      <c r="N64" s="57"/>
-      <c r="O64" s="57"/>
-      <c r="P64" s="57"/>
-      <c r="Q64" s="57"/>
-      <c r="R64" s="57"/>
-      <c r="S64" s="57"/>
-      <c r="T64" s="58"/>
+      <c r="J64" s="63"/>
+      <c r="K64" s="63"/>
+      <c r="L64" s="63"/>
+      <c r="M64" s="63"/>
+      <c r="N64" s="63"/>
+      <c r="O64" s="63"/>
+      <c r="P64" s="63"/>
+      <c r="Q64" s="63"/>
+      <c r="R64" s="63"/>
+      <c r="S64" s="63"/>
+      <c r="T64" s="50"/>
     </row>
     <row r="65" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E65" s="84"/>
-      <c r="F65" s="76"/>
-      <c r="G65" s="58"/>
-      <c r="H65" s="51"/>
-      <c r="I65" s="56" t="s">
+      <c r="E65" s="68"/>
+      <c r="F65" s="49"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="96"/>
+      <c r="I65" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="J65" s="57"/>
-      <c r="K65" s="57"/>
-      <c r="L65" s="57"/>
-      <c r="M65" s="57"/>
-      <c r="N65" s="57"/>
-      <c r="O65" s="57"/>
-      <c r="P65" s="57"/>
-      <c r="Q65" s="57"/>
-      <c r="R65" s="57"/>
-      <c r="S65" s="57"/>
-      <c r="T65" s="58"/>
+      <c r="J65" s="63"/>
+      <c r="K65" s="63"/>
+      <c r="L65" s="63"/>
+      <c r="M65" s="63"/>
+      <c r="N65" s="63"/>
+      <c r="O65" s="63"/>
+      <c r="P65" s="63"/>
+      <c r="Q65" s="63"/>
+      <c r="R65" s="63"/>
+      <c r="S65" s="63"/>
+      <c r="T65" s="50"/>
     </row>
     <row r="66" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E66" s="84"/>
+      <c r="E66" s="68"/>
       <c r="F66" s="10" t="s">
         <v>114</v>
       </c>
@@ -9517,347 +9531,347 @@
       <c r="H66" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="I66" s="56" t="s">
+      <c r="I66" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="J66" s="57"/>
-      <c r="K66" s="57"/>
-      <c r="L66" s="57"/>
-      <c r="M66" s="57"/>
-      <c r="N66" s="57"/>
-      <c r="O66" s="57"/>
-      <c r="P66" s="57"/>
-      <c r="Q66" s="57"/>
-      <c r="R66" s="57"/>
-      <c r="S66" s="57"/>
-      <c r="T66" s="58"/>
+      <c r="J66" s="63"/>
+      <c r="K66" s="63"/>
+      <c r="L66" s="63"/>
+      <c r="M66" s="63"/>
+      <c r="N66" s="63"/>
+      <c r="O66" s="63"/>
+      <c r="P66" s="63"/>
+      <c r="Q66" s="63"/>
+      <c r="R66" s="63"/>
+      <c r="S66" s="63"/>
+      <c r="T66" s="50"/>
     </row>
     <row r="67" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E67" s="84"/>
-      <c r="F67" s="76" t="s">
+      <c r="E67" s="68"/>
+      <c r="F67" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="G67" s="58"/>
+      <c r="G67" s="50"/>
       <c r="H67" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="I67" s="56" t="s">
+      <c r="I67" s="62" t="s">
         <v>191</v>
       </c>
-      <c r="J67" s="57"/>
-      <c r="K67" s="57"/>
-      <c r="L67" s="57"/>
-      <c r="M67" s="57"/>
-      <c r="N67" s="57"/>
-      <c r="O67" s="57"/>
-      <c r="P67" s="57"/>
-      <c r="Q67" s="57"/>
-      <c r="R67" s="57"/>
-      <c r="S67" s="57"/>
-      <c r="T67" s="58"/>
+      <c r="J67" s="63"/>
+      <c r="K67" s="63"/>
+      <c r="L67" s="63"/>
+      <c r="M67" s="63"/>
+      <c r="N67" s="63"/>
+      <c r="O67" s="63"/>
+      <c r="P67" s="63"/>
+      <c r="Q67" s="63"/>
+      <c r="R67" s="63"/>
+      <c r="S67" s="63"/>
+      <c r="T67" s="50"/>
     </row>
     <row r="68" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E68" s="84"/>
-      <c r="F68" s="76" t="s">
+      <c r="E68" s="68"/>
+      <c r="F68" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="G68" s="58"/>
+      <c r="G68" s="50"/>
       <c r="H68" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="I68" s="56" t="s">
+      <c r="I68" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="J68" s="57"/>
-      <c r="K68" s="57"/>
-      <c r="L68" s="57"/>
-      <c r="M68" s="57"/>
-      <c r="N68" s="57"/>
-      <c r="O68" s="57"/>
-      <c r="P68" s="57"/>
-      <c r="Q68" s="57"/>
-      <c r="R68" s="57"/>
-      <c r="S68" s="57"/>
-      <c r="T68" s="58"/>
+      <c r="J68" s="63"/>
+      <c r="K68" s="63"/>
+      <c r="L68" s="63"/>
+      <c r="M68" s="63"/>
+      <c r="N68" s="63"/>
+      <c r="O68" s="63"/>
+      <c r="P68" s="63"/>
+      <c r="Q68" s="63"/>
+      <c r="R68" s="63"/>
+      <c r="S68" s="63"/>
+      <c r="T68" s="50"/>
     </row>
     <row r="69" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E69" s="84"/>
-      <c r="F69" s="76" t="s">
+      <c r="E69" s="68"/>
+      <c r="F69" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="G69" s="58"/>
-      <c r="H69" s="50" t="s">
+      <c r="G69" s="50"/>
+      <c r="H69" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="I69" s="56" t="s">
+      <c r="I69" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="J69" s="57"/>
-      <c r="K69" s="57"/>
-      <c r="L69" s="57"/>
-      <c r="M69" s="57"/>
-      <c r="N69" s="57"/>
-      <c r="O69" s="57"/>
-      <c r="P69" s="57"/>
-      <c r="Q69" s="57"/>
-      <c r="R69" s="57"/>
-      <c r="S69" s="57"/>
-      <c r="T69" s="58"/>
+      <c r="J69" s="63"/>
+      <c r="K69" s="63"/>
+      <c r="L69" s="63"/>
+      <c r="M69" s="63"/>
+      <c r="N69" s="63"/>
+      <c r="O69" s="63"/>
+      <c r="P69" s="63"/>
+      <c r="Q69" s="63"/>
+      <c r="R69" s="63"/>
+      <c r="S69" s="63"/>
+      <c r="T69" s="50"/>
     </row>
     <row r="70" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E70" s="84"/>
-      <c r="F70" s="76"/>
-      <c r="G70" s="58"/>
-      <c r="H70" s="51"/>
-      <c r="I70" s="56" t="s">
+      <c r="E70" s="68"/>
+      <c r="F70" s="49"/>
+      <c r="G70" s="50"/>
+      <c r="H70" s="96"/>
+      <c r="I70" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="J70" s="57"/>
-      <c r="K70" s="57"/>
-      <c r="L70" s="57"/>
-      <c r="M70" s="57"/>
-      <c r="N70" s="57"/>
-      <c r="O70" s="57"/>
-      <c r="P70" s="57"/>
-      <c r="Q70" s="57"/>
-      <c r="R70" s="57"/>
-      <c r="S70" s="57"/>
-      <c r="T70" s="58"/>
+      <c r="J70" s="63"/>
+      <c r="K70" s="63"/>
+      <c r="L70" s="63"/>
+      <c r="M70" s="63"/>
+      <c r="N70" s="63"/>
+      <c r="O70" s="63"/>
+      <c r="P70" s="63"/>
+      <c r="Q70" s="63"/>
+      <c r="R70" s="63"/>
+      <c r="S70" s="63"/>
+      <c r="T70" s="50"/>
     </row>
     <row r="71" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E71" s="84"/>
-      <c r="F71" s="76" t="s">
+      <c r="E71" s="68"/>
+      <c r="F71" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="G71" s="58"/>
-      <c r="H71" s="50" t="s">
+      <c r="G71" s="50"/>
+      <c r="H71" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="I71" s="56" t="s">
+      <c r="I71" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="J71" s="57"/>
-      <c r="K71" s="57"/>
-      <c r="L71" s="57"/>
-      <c r="M71" s="57"/>
-      <c r="N71" s="57"/>
-      <c r="O71" s="57"/>
-      <c r="P71" s="57"/>
-      <c r="Q71" s="57"/>
-      <c r="R71" s="57"/>
-      <c r="S71" s="57"/>
-      <c r="T71" s="58"/>
+      <c r="J71" s="63"/>
+      <c r="K71" s="63"/>
+      <c r="L71" s="63"/>
+      <c r="M71" s="63"/>
+      <c r="N71" s="63"/>
+      <c r="O71" s="63"/>
+      <c r="P71" s="63"/>
+      <c r="Q71" s="63"/>
+      <c r="R71" s="63"/>
+      <c r="S71" s="63"/>
+      <c r="T71" s="50"/>
     </row>
     <row r="72" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E72" s="84"/>
-      <c r="F72" s="76"/>
-      <c r="G72" s="58"/>
-      <c r="H72" s="51"/>
-      <c r="I72" s="49" t="s">
+      <c r="E72" s="68"/>
+      <c r="F72" s="49"/>
+      <c r="G72" s="50"/>
+      <c r="H72" s="96"/>
+      <c r="I72" s="91" t="s">
         <v>69</v>
       </c>
-      <c r="J72" s="49"/>
-      <c r="K72" s="49"/>
-      <c r="L72" s="49"/>
-      <c r="M72" s="49"/>
-      <c r="N72" s="49"/>
-      <c r="O72" s="49"/>
-      <c r="P72" s="49"/>
-      <c r="Q72" s="49"/>
-      <c r="R72" s="49"/>
-      <c r="S72" s="49"/>
-      <c r="T72" s="48"/>
+      <c r="J72" s="91"/>
+      <c r="K72" s="91"/>
+      <c r="L72" s="91"/>
+      <c r="M72" s="91"/>
+      <c r="N72" s="91"/>
+      <c r="O72" s="91"/>
+      <c r="P72" s="91"/>
+      <c r="Q72" s="91"/>
+      <c r="R72" s="91"/>
+      <c r="S72" s="91"/>
+      <c r="T72" s="92"/>
     </row>
     <row r="73" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E73" s="84"/>
-      <c r="F73" s="76" t="s">
+      <c r="E73" s="68"/>
+      <c r="F73" s="49" t="s">
         <v>157</v>
       </c>
-      <c r="G73" s="58"/>
+      <c r="G73" s="50"/>
       <c r="H73" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="I73" s="56" t="s">
-        <v>382</v>
-      </c>
-      <c r="J73" s="57"/>
-      <c r="K73" s="57"/>
-      <c r="L73" s="57"/>
-      <c r="M73" s="57"/>
-      <c r="N73" s="57"/>
-      <c r="O73" s="57"/>
-      <c r="P73" s="57"/>
-      <c r="Q73" s="57"/>
-      <c r="R73" s="57"/>
-      <c r="S73" s="57"/>
-      <c r="T73" s="58"/>
+      <c r="I73" s="62" t="s">
+        <v>368</v>
+      </c>
+      <c r="J73" s="63"/>
+      <c r="K73" s="63"/>
+      <c r="L73" s="63"/>
+      <c r="M73" s="63"/>
+      <c r="N73" s="63"/>
+      <c r="O73" s="63"/>
+      <c r="P73" s="63"/>
+      <c r="Q73" s="63"/>
+      <c r="R73" s="63"/>
+      <c r="S73" s="63"/>
+      <c r="T73" s="50"/>
     </row>
     <row r="74" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E74" s="84"/>
-      <c r="F74" s="47" t="s">
-        <v>380</v>
-      </c>
-      <c r="G74" s="48"/>
+      <c r="E74" s="68"/>
+      <c r="F74" s="98" t="s">
+        <v>366</v>
+      </c>
+      <c r="G74" s="92"/>
       <c r="H74" s="45" t="s">
-        <v>379</v>
-      </c>
-      <c r="I74" s="47" t="s">
-        <v>381</v>
-      </c>
-      <c r="J74" s="49"/>
-      <c r="K74" s="49"/>
-      <c r="L74" s="49"/>
-      <c r="M74" s="49"/>
-      <c r="N74" s="49"/>
-      <c r="O74" s="49"/>
-      <c r="P74" s="49"/>
-      <c r="Q74" s="49"/>
-      <c r="R74" s="49"/>
-      <c r="S74" s="49"/>
-      <c r="T74" s="48"/>
+        <v>365</v>
+      </c>
+      <c r="I74" s="98" t="s">
+        <v>367</v>
+      </c>
+      <c r="J74" s="91"/>
+      <c r="K74" s="91"/>
+      <c r="L74" s="91"/>
+      <c r="M74" s="91"/>
+      <c r="N74" s="91"/>
+      <c r="O74" s="91"/>
+      <c r="P74" s="91"/>
+      <c r="Q74" s="91"/>
+      <c r="R74" s="91"/>
+      <c r="S74" s="91"/>
+      <c r="T74" s="92"/>
     </row>
     <row r="75" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E75" s="84"/>
-      <c r="F75" s="76" t="s">
+      <c r="E75" s="68"/>
+      <c r="F75" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="G75" s="58"/>
-      <c r="H75" s="50" t="s">
+      <c r="G75" s="50"/>
+      <c r="H75" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="I75" s="56" t="s">
+      <c r="I75" s="62" t="s">
         <v>227</v>
       </c>
-      <c r="J75" s="57"/>
-      <c r="K75" s="57"/>
-      <c r="L75" s="57"/>
-      <c r="M75" s="57"/>
-      <c r="N75" s="57"/>
-      <c r="O75" s="57"/>
-      <c r="P75" s="57"/>
-      <c r="Q75" s="57"/>
-      <c r="R75" s="57"/>
-      <c r="S75" s="57"/>
-      <c r="T75" s="58"/>
+      <c r="J75" s="63"/>
+      <c r="K75" s="63"/>
+      <c r="L75" s="63"/>
+      <c r="M75" s="63"/>
+      <c r="N75" s="63"/>
+      <c r="O75" s="63"/>
+      <c r="P75" s="63"/>
+      <c r="Q75" s="63"/>
+      <c r="R75" s="63"/>
+      <c r="S75" s="63"/>
+      <c r="T75" s="50"/>
     </row>
     <row r="76" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E76" s="84"/>
-      <c r="F76" s="76"/>
-      <c r="G76" s="58"/>
-      <c r="H76" s="51"/>
-      <c r="I76" s="56" t="s">
+      <c r="E76" s="68"/>
+      <c r="F76" s="49"/>
+      <c r="G76" s="50"/>
+      <c r="H76" s="96"/>
+      <c r="I76" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="J76" s="57"/>
-      <c r="K76" s="57"/>
-      <c r="L76" s="57"/>
-      <c r="M76" s="57"/>
-      <c r="N76" s="57"/>
-      <c r="O76" s="57"/>
-      <c r="P76" s="57"/>
-      <c r="Q76" s="57"/>
-      <c r="R76" s="57"/>
-      <c r="S76" s="57"/>
-      <c r="T76" s="58"/>
+      <c r="J76" s="63"/>
+      <c r="K76" s="63"/>
+      <c r="L76" s="63"/>
+      <c r="M76" s="63"/>
+      <c r="N76" s="63"/>
+      <c r="O76" s="63"/>
+      <c r="P76" s="63"/>
+      <c r="Q76" s="63"/>
+      <c r="R76" s="63"/>
+      <c r="S76" s="63"/>
+      <c r="T76" s="50"/>
     </row>
     <row r="77" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E77" s="84"/>
-      <c r="F77" s="76" t="s">
+      <c r="E77" s="68"/>
+      <c r="F77" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="G77" s="58"/>
-      <c r="H77" s="50" t="s">
+      <c r="G77" s="50"/>
+      <c r="H77" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="I77" s="56" t="s">
+      <c r="I77" s="62" t="s">
         <v>201</v>
       </c>
-      <c r="J77" s="57"/>
-      <c r="K77" s="57"/>
-      <c r="L77" s="57"/>
-      <c r="M77" s="57"/>
-      <c r="N77" s="57"/>
-      <c r="O77" s="57"/>
-      <c r="P77" s="57"/>
-      <c r="Q77" s="57"/>
-      <c r="R77" s="57"/>
-      <c r="S77" s="57"/>
-      <c r="T77" s="58"/>
+      <c r="J77" s="63"/>
+      <c r="K77" s="63"/>
+      <c r="L77" s="63"/>
+      <c r="M77" s="63"/>
+      <c r="N77" s="63"/>
+      <c r="O77" s="63"/>
+      <c r="P77" s="63"/>
+      <c r="Q77" s="63"/>
+      <c r="R77" s="63"/>
+      <c r="S77" s="63"/>
+      <c r="T77" s="50"/>
     </row>
     <row r="78" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E78" s="84"/>
-      <c r="F78" s="76"/>
-      <c r="G78" s="58"/>
-      <c r="H78" s="51"/>
-      <c r="I78" s="56" t="s">
+      <c r="E78" s="68"/>
+      <c r="F78" s="49"/>
+      <c r="G78" s="50"/>
+      <c r="H78" s="96"/>
+      <c r="I78" s="62" t="s">
         <v>202</v>
       </c>
-      <c r="J78" s="57"/>
-      <c r="K78" s="57"/>
-      <c r="L78" s="57"/>
-      <c r="M78" s="57"/>
-      <c r="N78" s="57"/>
-      <c r="O78" s="57"/>
-      <c r="P78" s="57"/>
-      <c r="Q78" s="57"/>
-      <c r="R78" s="57"/>
-      <c r="S78" s="57"/>
-      <c r="T78" s="58"/>
+      <c r="J78" s="63"/>
+      <c r="K78" s="63"/>
+      <c r="L78" s="63"/>
+      <c r="M78" s="63"/>
+      <c r="N78" s="63"/>
+      <c r="O78" s="63"/>
+      <c r="P78" s="63"/>
+      <c r="Q78" s="63"/>
+      <c r="R78" s="63"/>
+      <c r="S78" s="63"/>
+      <c r="T78" s="50"/>
     </row>
     <row r="79" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E79" s="84"/>
-      <c r="F79" s="76" t="s">
+      <c r="E79" s="68"/>
+      <c r="F79" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="G79" s="58"/>
+      <c r="G79" s="50"/>
       <c r="H79" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="I79" s="56" t="s">
+      <c r="I79" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="J79" s="57"/>
-      <c r="K79" s="57"/>
-      <c r="L79" s="57"/>
-      <c r="M79" s="57"/>
-      <c r="N79" s="57"/>
-      <c r="O79" s="57"/>
-      <c r="P79" s="57"/>
-      <c r="Q79" s="57"/>
-      <c r="R79" s="57"/>
-      <c r="S79" s="57"/>
-      <c r="T79" s="58"/>
+      <c r="J79" s="63"/>
+      <c r="K79" s="63"/>
+      <c r="L79" s="63"/>
+      <c r="M79" s="63"/>
+      <c r="N79" s="63"/>
+      <c r="O79" s="63"/>
+      <c r="P79" s="63"/>
+      <c r="Q79" s="63"/>
+      <c r="R79" s="63"/>
+      <c r="S79" s="63"/>
+      <c r="T79" s="50"/>
     </row>
     <row r="80" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E80" s="84"/>
-      <c r="F80" s="76" t="s">
+      <c r="E80" s="68"/>
+      <c r="F80" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="G80" s="58"/>
+      <c r="G80" s="50"/>
       <c r="H80" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="I80" s="49" t="s">
+      <c r="I80" s="91" t="s">
         <v>210</v>
       </c>
-      <c r="J80" s="49"/>
-      <c r="K80" s="49"/>
-      <c r="L80" s="49"/>
-      <c r="M80" s="49"/>
-      <c r="N80" s="49"/>
-      <c r="O80" s="49"/>
-      <c r="P80" s="49"/>
-      <c r="Q80" s="49"/>
-      <c r="R80" s="49"/>
-      <c r="S80" s="49"/>
-      <c r="T80" s="48"/>
+      <c r="J80" s="91"/>
+      <c r="K80" s="91"/>
+      <c r="L80" s="91"/>
+      <c r="M80" s="91"/>
+      <c r="N80" s="91"/>
+      <c r="O80" s="91"/>
+      <c r="P80" s="91"/>
+      <c r="Q80" s="91"/>
+      <c r="R80" s="91"/>
+      <c r="S80" s="91"/>
+      <c r="T80" s="92"/>
     </row>
     <row r="81" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E81" s="86"/>
-      <c r="F81" s="47" t="s">
+      <c r="E81" s="70"/>
+      <c r="F81" s="98" t="s">
         <v>206</v>
       </c>
-      <c r="G81" s="48"/>
+      <c r="G81" s="92"/>
       <c r="H81" s="31" t="s">
         <v>203</v>
       </c>
@@ -9877,170 +9891,170 @@
       <c r="T81" s="32"/>
     </row>
     <row r="82" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E82" s="85"/>
-      <c r="F82" s="92" t="s">
+      <c r="E82" s="69"/>
+      <c r="F82" s="78" t="s">
         <v>208</v>
       </c>
-      <c r="G82" s="93"/>
+      <c r="G82" s="79"/>
       <c r="H82" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="I82" s="72" t="s">
+      <c r="I82" s="93" t="s">
         <v>209</v>
       </c>
-      <c r="J82" s="72"/>
-      <c r="K82" s="72"/>
-      <c r="L82" s="72"/>
-      <c r="M82" s="72"/>
-      <c r="N82" s="72"/>
-      <c r="O82" s="72"/>
-      <c r="P82" s="72"/>
-      <c r="Q82" s="72"/>
-      <c r="R82" s="72"/>
-      <c r="S82" s="72"/>
-      <c r="T82" s="73"/>
+      <c r="J82" s="93"/>
+      <c r="K82" s="93"/>
+      <c r="L82" s="93"/>
+      <c r="M82" s="93"/>
+      <c r="N82" s="93"/>
+      <c r="O82" s="93"/>
+      <c r="P82" s="93"/>
+      <c r="Q82" s="93"/>
+      <c r="R82" s="93"/>
+      <c r="S82" s="93"/>
+      <c r="T82" s="94"/>
     </row>
     <row r="83" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="82" t="s">
+      <c r="E83" s="66" t="s">
         <v>6</v>
       </c>
-      <c r="F83" s="94" t="s">
+      <c r="F83" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="G83" s="61"/>
+      <c r="G83" s="56"/>
       <c r="H83" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="I83" s="59" t="s">
+      <c r="I83" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="J83" s="60"/>
-      <c r="K83" s="60"/>
-      <c r="L83" s="60"/>
-      <c r="M83" s="60"/>
-      <c r="N83" s="60"/>
-      <c r="O83" s="60"/>
-      <c r="P83" s="60"/>
-      <c r="Q83" s="60"/>
-      <c r="R83" s="60"/>
-      <c r="S83" s="60"/>
-      <c r="T83" s="61"/>
+      <c r="J83" s="55"/>
+      <c r="K83" s="55"/>
+      <c r="L83" s="55"/>
+      <c r="M83" s="55"/>
+      <c r="N83" s="55"/>
+      <c r="O83" s="55"/>
+      <c r="P83" s="55"/>
+      <c r="Q83" s="55"/>
+      <c r="R83" s="55"/>
+      <c r="S83" s="55"/>
+      <c r="T83" s="56"/>
     </row>
     <row r="84" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E84" s="83"/>
-      <c r="F84" s="52" t="s">
+      <c r="E84" s="67"/>
+      <c r="F84" s="99" t="s">
         <v>186</v>
       </c>
-      <c r="G84" s="53"/>
-      <c r="H84" s="50" t="s">
+      <c r="G84" s="100"/>
+      <c r="H84" s="97" t="s">
         <v>187</v>
       </c>
-      <c r="I84" s="47" t="s">
+      <c r="I84" s="98" t="s">
         <v>188</v>
       </c>
-      <c r="J84" s="49"/>
-      <c r="K84" s="49"/>
-      <c r="L84" s="49"/>
-      <c r="M84" s="49"/>
-      <c r="N84" s="49"/>
-      <c r="O84" s="49"/>
-      <c r="P84" s="49"/>
-      <c r="Q84" s="49"/>
-      <c r="R84" s="49"/>
-      <c r="S84" s="49"/>
-      <c r="T84" s="48"/>
+      <c r="J84" s="91"/>
+      <c r="K84" s="91"/>
+      <c r="L84" s="91"/>
+      <c r="M84" s="91"/>
+      <c r="N84" s="91"/>
+      <c r="O84" s="91"/>
+      <c r="P84" s="91"/>
+      <c r="Q84" s="91"/>
+      <c r="R84" s="91"/>
+      <c r="S84" s="91"/>
+      <c r="T84" s="92"/>
     </row>
     <row r="85" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E85" s="83"/>
-      <c r="F85" s="54"/>
-      <c r="G85" s="55"/>
-      <c r="H85" s="51"/>
-      <c r="I85" s="47" t="s">
+      <c r="E85" s="67"/>
+      <c r="F85" s="101"/>
+      <c r="G85" s="102"/>
+      <c r="H85" s="96"/>
+      <c r="I85" s="98" t="s">
         <v>189</v>
       </c>
-      <c r="J85" s="49"/>
-      <c r="K85" s="49"/>
-      <c r="L85" s="49"/>
-      <c r="M85" s="49"/>
-      <c r="N85" s="49"/>
-      <c r="O85" s="49"/>
-      <c r="P85" s="49"/>
-      <c r="Q85" s="49"/>
-      <c r="R85" s="49"/>
-      <c r="S85" s="49"/>
-      <c r="T85" s="48"/>
+      <c r="J85" s="91"/>
+      <c r="K85" s="91"/>
+      <c r="L85" s="91"/>
+      <c r="M85" s="91"/>
+      <c r="N85" s="91"/>
+      <c r="O85" s="91"/>
+      <c r="P85" s="91"/>
+      <c r="Q85" s="91"/>
+      <c r="R85" s="91"/>
+      <c r="S85" s="91"/>
+      <c r="T85" s="92"/>
     </row>
     <row r="86" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E86" s="84"/>
-      <c r="F86" s="89" t="s">
+      <c r="E86" s="68"/>
+      <c r="F86" s="72" t="s">
         <v>123</v>
       </c>
-      <c r="G86" s="65"/>
+      <c r="G86" s="73"/>
       <c r="H86" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="I86" s="63" t="s">
+      <c r="I86" s="85" t="s">
         <v>126</v>
       </c>
-      <c r="J86" s="64"/>
-      <c r="K86" s="64"/>
-      <c r="L86" s="64"/>
-      <c r="M86" s="64"/>
-      <c r="N86" s="64"/>
-      <c r="O86" s="64"/>
-      <c r="P86" s="64"/>
-      <c r="Q86" s="64"/>
-      <c r="R86" s="64"/>
-      <c r="S86" s="64"/>
-      <c r="T86" s="65"/>
+      <c r="J86" s="86"/>
+      <c r="K86" s="86"/>
+      <c r="L86" s="86"/>
+      <c r="M86" s="86"/>
+      <c r="N86" s="86"/>
+      <c r="O86" s="86"/>
+      <c r="P86" s="86"/>
+      <c r="Q86" s="86"/>
+      <c r="R86" s="86"/>
+      <c r="S86" s="86"/>
+      <c r="T86" s="73"/>
     </row>
     <row r="87" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E87" s="84"/>
-      <c r="F87" s="90" t="s">
+      <c r="E87" s="68"/>
+      <c r="F87" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="G87" s="68"/>
+      <c r="G87" s="75"/>
       <c r="H87" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="I87" s="66" t="s">
+      <c r="I87" s="87" t="s">
         <v>127</v>
       </c>
-      <c r="J87" s="67"/>
-      <c r="K87" s="67"/>
-      <c r="L87" s="67"/>
-      <c r="M87" s="67"/>
-      <c r="N87" s="67"/>
-      <c r="O87" s="67"/>
-      <c r="P87" s="67"/>
-      <c r="Q87" s="67"/>
-      <c r="R87" s="67"/>
-      <c r="S87" s="67"/>
-      <c r="T87" s="68"/>
+      <c r="J87" s="88"/>
+      <c r="K87" s="88"/>
+      <c r="L87" s="88"/>
+      <c r="M87" s="88"/>
+      <c r="N87" s="88"/>
+      <c r="O87" s="88"/>
+      <c r="P87" s="88"/>
+      <c r="Q87" s="88"/>
+      <c r="R87" s="88"/>
+      <c r="S87" s="88"/>
+      <c r="T87" s="75"/>
     </row>
     <row r="88" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E88" s="85"/>
-      <c r="F88" s="91" t="s">
+      <c r="E88" s="69"/>
+      <c r="F88" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="G88" s="71"/>
+      <c r="G88" s="77"/>
       <c r="H88" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="I88" s="69" t="s">
+      <c r="I88" s="89" t="s">
         <v>128</v>
       </c>
-      <c r="J88" s="70"/>
-      <c r="K88" s="70"/>
-      <c r="L88" s="70"/>
-      <c r="M88" s="70"/>
-      <c r="N88" s="70"/>
-      <c r="O88" s="70"/>
-      <c r="P88" s="70"/>
-      <c r="Q88" s="70"/>
-      <c r="R88" s="70"/>
-      <c r="S88" s="70"/>
-      <c r="T88" s="71"/>
+      <c r="J88" s="90"/>
+      <c r="K88" s="90"/>
+      <c r="L88" s="90"/>
+      <c r="M88" s="90"/>
+      <c r="N88" s="90"/>
+      <c r="O88" s="90"/>
+      <c r="P88" s="90"/>
+      <c r="Q88" s="90"/>
+      <c r="R88" s="90"/>
+      <c r="S88" s="90"/>
+      <c r="T88" s="77"/>
     </row>
     <row r="89" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F89" s="7" t="s">
@@ -10049,11 +10063,69 @@
     </row>
     <row r="90" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F90" s="7" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="I74:T74"/>
+    <mergeCell ref="I84:T84"/>
+    <mergeCell ref="I85:T85"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="F84:G85"/>
+    <mergeCell ref="I77:T77"/>
+    <mergeCell ref="I83:T83"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="I71:T71"/>
+    <mergeCell ref="I73:T73"/>
+    <mergeCell ref="I75:T75"/>
+    <mergeCell ref="I76:T76"/>
+    <mergeCell ref="I69:T69"/>
+    <mergeCell ref="I70:T70"/>
+    <mergeCell ref="G56:T56"/>
+    <mergeCell ref="I86:T86"/>
+    <mergeCell ref="I87:T87"/>
+    <mergeCell ref="I88:T88"/>
+    <mergeCell ref="I78:T78"/>
+    <mergeCell ref="I79:T79"/>
+    <mergeCell ref="I72:T72"/>
+    <mergeCell ref="I80:T80"/>
+    <mergeCell ref="I82:T82"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="H69:H70"/>
+    <mergeCell ref="H71:H72"/>
+    <mergeCell ref="H75:H76"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I66:T66"/>
+    <mergeCell ref="G51:T51"/>
+    <mergeCell ref="G52:T52"/>
+    <mergeCell ref="G53:T53"/>
+    <mergeCell ref="G54:T54"/>
+    <mergeCell ref="G55:T55"/>
+    <mergeCell ref="F64:G65"/>
+    <mergeCell ref="F62:G63"/>
+    <mergeCell ref="I61:T61"/>
+    <mergeCell ref="I67:T67"/>
+    <mergeCell ref="I68:T68"/>
+    <mergeCell ref="I63:T63"/>
+    <mergeCell ref="E83:E88"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E62:E82"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="F77:G78"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F75:G76"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F71:G72"/>
+    <mergeCell ref="F73:G73"/>
     <mergeCell ref="C2:V3"/>
     <mergeCell ref="F69:G70"/>
     <mergeCell ref="I59:T59"/>
@@ -10070,64 +10142,6 @@
     <mergeCell ref="F61:G61"/>
     <mergeCell ref="F67:G67"/>
     <mergeCell ref="F68:G68"/>
-    <mergeCell ref="E83:E88"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="E62:E82"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="F77:G78"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F75:G76"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F71:G72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="F64:G65"/>
-    <mergeCell ref="F62:G63"/>
-    <mergeCell ref="I61:T61"/>
-    <mergeCell ref="I67:T67"/>
-    <mergeCell ref="I68:T68"/>
-    <mergeCell ref="I63:T63"/>
-    <mergeCell ref="G51:T51"/>
-    <mergeCell ref="G52:T52"/>
-    <mergeCell ref="G53:T53"/>
-    <mergeCell ref="G54:T54"/>
-    <mergeCell ref="G55:T55"/>
-    <mergeCell ref="G56:T56"/>
-    <mergeCell ref="I86:T86"/>
-    <mergeCell ref="I87:T87"/>
-    <mergeCell ref="I88:T88"/>
-    <mergeCell ref="I78:T78"/>
-    <mergeCell ref="I79:T79"/>
-    <mergeCell ref="I72:T72"/>
-    <mergeCell ref="I80:T80"/>
-    <mergeCell ref="I82:T82"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="H71:H72"/>
-    <mergeCell ref="H75:H76"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I66:T66"/>
-    <mergeCell ref="I71:T71"/>
-    <mergeCell ref="I73:T73"/>
-    <mergeCell ref="I75:T75"/>
-    <mergeCell ref="I76:T76"/>
-    <mergeCell ref="I69:T69"/>
-    <mergeCell ref="I70:T70"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="I74:T74"/>
-    <mergeCell ref="I84:T84"/>
-    <mergeCell ref="I85:T85"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="F84:G85"/>
-    <mergeCell ref="I77:T77"/>
-    <mergeCell ref="I83:T83"/>
-    <mergeCell ref="F81:G81"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10140,7 +10154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:T11"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -10150,46 +10164,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="47"/>
+      <c r="M3" s="47"/>
+      <c r="N3" s="47"/>
+      <c r="O3" s="47"/>
+      <c r="P3" s="47"/>
+      <c r="Q3" s="47"/>
+      <c r="R3" s="47"/>
+      <c r="S3" s="47"/>
+      <c r="T3" s="47"/>
     </row>
     <row r="4" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="95"/>
-      <c r="Q4" s="95"/>
-      <c r="R4" s="95"/>
-      <c r="S4" s="95"/>
-      <c r="T4" s="95"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+      <c r="S4" s="47"/>
+      <c r="T4" s="47"/>
     </row>
     <row r="6" spans="3:20" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="5"/>
@@ -10285,7 +10299,7 @@
   <dimension ref="B2:G7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10325,7 +10339,7 @@
         <v>107</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>106</v>
@@ -10389,8 +10403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:AG11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10422,50 +10436,50 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B3" s="107" t="s">
+      <c r="B3" s="114" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="110" t="s">
-        <v>375</v>
-      </c>
-      <c r="J3" s="109"/>
-      <c r="K3" s="116" t="s">
+      <c r="C3" s="119"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="121" t="s">
+        <v>361</v>
+      </c>
+      <c r="J3" s="120"/>
+      <c r="K3" s="112" t="s">
         <v>91</v>
       </c>
-      <c r="L3" s="116"/>
-      <c r="M3" s="117"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="117"/>
-      <c r="P3" s="117"/>
-      <c r="Q3" s="117"/>
-      <c r="R3" s="117"/>
-      <c r="S3" s="117"/>
-      <c r="T3" s="117"/>
-      <c r="U3" s="117"/>
-      <c r="V3" s="107"/>
-      <c r="W3" s="118" t="s">
+      <c r="L3" s="112"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="113"/>
+      <c r="Q3" s="113"/>
+      <c r="R3" s="113"/>
+      <c r="S3" s="113"/>
+      <c r="T3" s="113"/>
+      <c r="U3" s="113"/>
+      <c r="V3" s="114"/>
+      <c r="W3" s="115" t="s">
         <v>198</v>
       </c>
-      <c r="X3" s="107"/>
-      <c r="Y3" s="110" t="s">
+      <c r="X3" s="114"/>
+      <c r="Y3" s="121" t="s">
         <v>90</v>
       </c>
-      <c r="Z3" s="108"/>
-      <c r="AA3" s="109"/>
-      <c r="AB3" s="114" t="s">
+      <c r="Z3" s="119"/>
+      <c r="AA3" s="120"/>
+      <c r="AB3" s="107" t="s">
         <v>89</v>
       </c>
-      <c r="AC3" s="115"/>
-      <c r="AD3" s="115"/>
-      <c r="AE3" s="115"/>
-      <c r="AF3" s="115"/>
-      <c r="AG3" s="115"/>
+      <c r="AC3" s="108"/>
+      <c r="AD3" s="108"/>
+      <c r="AE3" s="108"/>
+      <c r="AF3" s="108"/>
+      <c r="AG3" s="108"/>
     </row>
     <row r="4" spans="2:33" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
@@ -10499,7 +10513,7 @@
         <v>86</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="M4" s="12" t="s">
         <v>85</v>
@@ -10511,7 +10525,7 @@
         <v>86</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="Q4" s="12" t="s">
         <v>85</v>
@@ -10520,10 +10534,10 @@
         <v>85</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="U4" s="12" t="s">
         <v>86</v>
@@ -10537,11 +10551,11 @@
       <c r="X4" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="Y4" s="119" t="s">
+      <c r="Y4" s="116" t="s">
         <v>85</v>
       </c>
-      <c r="Z4" s="120"/>
-      <c r="AA4" s="121"/>
+      <c r="Z4" s="117"/>
+      <c r="AA4" s="118"/>
       <c r="AB4" s="23" t="s">
         <v>86</v>
       </c>
@@ -10593,7 +10607,7 @@
         <v>157</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="M5" s="39" t="s">
         <v>76</v>
@@ -10605,7 +10619,7 @@
         <v>74</v>
       </c>
       <c r="P5" s="46" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="Q5" s="21" t="s">
         <v>73</v>
@@ -10617,7 +10631,7 @@
         <v>192</v>
       </c>
       <c r="T5" s="46" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="U5" s="21" t="s">
         <v>71</v>
@@ -10631,11 +10645,11 @@
       <c r="X5" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="Y5" s="111" t="s">
-        <v>373</v>
-      </c>
-      <c r="Z5" s="112"/>
-      <c r="AA5" s="113"/>
+      <c r="Y5" s="109" t="s">
+        <v>359</v>
+      </c>
+      <c r="Z5" s="110"/>
+      <c r="AA5" s="111"/>
       <c r="AB5" s="22" t="s">
         <v>207</v>
       </c>
@@ -10670,14 +10684,14 @@
         <v>127.122929</v>
       </c>
       <c r="G6" s="39" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="H6" s="39"/>
       <c r="I6" s="39">
         <v>0</v>
       </c>
       <c r="J6" s="39" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="K6" s="35"/>
       <c r="L6" s="35"/>
@@ -10726,7 +10740,7 @@
         <v>112</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="J7" s="17">
         <v>2</v>
@@ -10745,11 +10759,11 @@
       <c r="V7" s="17"/>
       <c r="W7" s="36"/>
       <c r="X7" s="37"/>
-      <c r="Y7" s="111">
+      <c r="Y7" s="109">
         <v>1</v>
       </c>
-      <c r="Z7" s="112"/>
-      <c r="AA7" s="113"/>
+      <c r="Z7" s="110"/>
+      <c r="AA7" s="111"/>
       <c r="AB7" s="22"/>
       <c r="AC7" s="21"/>
       <c r="AD7" s="21"/>
@@ -10774,7 +10788,7 @@
         <v>127.123762</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="21">
@@ -10797,9 +10811,9 @@
       <c r="V8" s="1"/>
       <c r="W8" s="36"/>
       <c r="X8" s="37"/>
-      <c r="Y8" s="111"/>
-      <c r="Z8" s="112"/>
-      <c r="AA8" s="113"/>
+      <c r="Y8" s="109"/>
+      <c r="Z8" s="110"/>
+      <c r="AA8" s="111"/>
       <c r="AB8" s="9" t="s">
         <v>193</v>
       </c>
@@ -10848,10 +10862,10 @@
         <v>11</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="M9" s="1">
         <v>1</v>
@@ -10860,10 +10874,10 @@
         <v>8</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="Q9" s="1">
         <v>1</v>
@@ -10872,10 +10886,10 @@
         <v>9</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="U9" s="1">
         <v>2</v>
@@ -10885,9 +10899,9 @@
       </c>
       <c r="W9" s="36"/>
       <c r="X9" s="37"/>
-      <c r="Y9" s="111"/>
-      <c r="Z9" s="112"/>
-      <c r="AA9" s="113"/>
+      <c r="Y9" s="109"/>
+      <c r="Z9" s="110"/>
+      <c r="AA9" s="111"/>
       <c r="AB9" s="9"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
@@ -10941,9 +10955,9 @@
       <c r="X10" s="37">
         <v>13</v>
       </c>
-      <c r="Y10" s="111"/>
-      <c r="Z10" s="112"/>
-      <c r="AA10" s="113"/>
+      <c r="Y10" s="109"/>
+      <c r="Z10" s="110"/>
+      <c r="AA10" s="111"/>
       <c r="AB10" s="9"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
@@ -10953,11 +10967,16 @@
     </row>
     <row r="11" spans="2:33" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="Y8:AA8"/>
     <mergeCell ref="AB3:AG3"/>
     <mergeCell ref="Y9:AA9"/>
     <mergeCell ref="Y10:AA10"/>
@@ -10965,11 +10984,6 @@
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y4:AA4"/>
     <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="Y8:AA8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10980,10 +10994,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D144"/>
+  <dimension ref="B2:D146"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11044,7 +11058,7 @@
         <v>136</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
@@ -11066,7 +11080,7 @@
         <v>135</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
@@ -11077,7 +11091,7 @@
         <v>140</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
@@ -11088,7 +11102,7 @@
         <v>141</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
@@ -11110,7 +11124,7 @@
         <v>144</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
@@ -11121,7 +11135,7 @@
         <v>135</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
@@ -11143,7 +11157,7 @@
         <v>139</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.3">
@@ -11187,7 +11201,7 @@
         <v>139</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
@@ -11198,7 +11212,7 @@
         <v>148</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
@@ -11209,7 +11223,7 @@
         <v>149</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
@@ -11220,7 +11234,7 @@
         <v>131</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
@@ -11231,7 +11245,7 @@
         <v>151</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
@@ -11242,7 +11256,7 @@
         <v>152</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
@@ -11253,7 +11267,7 @@
         <v>139</v>
       </c>
       <c r="D25" s="28" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
@@ -11297,7 +11311,7 @@
         <v>135</v>
       </c>
       <c r="D29" s="28" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
@@ -11308,7 +11322,7 @@
         <v>135</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
@@ -11341,7 +11355,7 @@
         <v>162</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
@@ -11352,7 +11366,7 @@
         <v>163</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
@@ -11363,7 +11377,7 @@
         <v>160</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
@@ -11385,7 +11399,7 @@
         <v>164</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
@@ -11440,7 +11454,7 @@
         <v>163</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
@@ -11451,7 +11465,7 @@
         <v>174</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
@@ -11462,7 +11476,7 @@
         <v>174</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
@@ -11484,7 +11498,7 @@
         <v>158</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
@@ -11506,7 +11520,7 @@
         <v>163</v>
       </c>
       <c r="D48" s="28" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
@@ -11517,7 +11531,7 @@
         <v>178</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.3">
@@ -11528,7 +11542,7 @@
         <v>178</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
@@ -11550,7 +11564,7 @@
         <v>163</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
@@ -11572,7 +11586,7 @@
         <v>163</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
@@ -11605,7 +11619,7 @@
         <v>163</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
@@ -11616,7 +11630,7 @@
         <v>160</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
@@ -11693,7 +11707,7 @@
         <v>224</v>
       </c>
       <c r="D65" s="28" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="66" spans="2:4" x14ac:dyDescent="0.3">
@@ -11704,7 +11718,7 @@
         <v>217</v>
       </c>
       <c r="D66" s="28" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="67" spans="2:4" x14ac:dyDescent="0.3">
@@ -11715,7 +11729,7 @@
         <v>226</v>
       </c>
       <c r="D67" s="28" t="s">
-        <v>228</v>
+        <v>385</v>
       </c>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.3">
@@ -11726,7 +11740,7 @@
         <v>217</v>
       </c>
       <c r="D68" s="28" t="s">
-        <v>229</v>
+        <v>386</v>
       </c>
     </row>
     <row r="69" spans="2:4" x14ac:dyDescent="0.3">
@@ -11737,7 +11751,7 @@
         <v>218</v>
       </c>
       <c r="D69" s="28" t="s">
-        <v>332</v>
+        <v>387</v>
       </c>
     </row>
     <row r="70" spans="2:4" x14ac:dyDescent="0.3">
@@ -11748,7 +11762,7 @@
         <v>217</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>333</v>
+        <v>388</v>
       </c>
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.3">
@@ -11756,10 +11770,10 @@
         <v>8</v>
       </c>
       <c r="C71" s="27" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D71" s="28" t="s">
-        <v>237</v>
+        <v>394</v>
       </c>
     </row>
     <row r="72" spans="2:4" x14ac:dyDescent="0.3">
@@ -11767,10 +11781,10 @@
         <v>8</v>
       </c>
       <c r="C72" s="27" t="s">
-        <v>231</v>
+        <v>383</v>
       </c>
       <c r="D72" s="28" t="s">
-        <v>232</v>
+        <v>395</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.3">
@@ -11778,10 +11792,10 @@
         <v>8</v>
       </c>
       <c r="C73" s="27" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="74" spans="2:4" x14ac:dyDescent="0.3">
@@ -11789,10 +11803,10 @@
         <v>8</v>
       </c>
       <c r="C74" s="27" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>334</v>
+        <v>389</v>
       </c>
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.3">
@@ -11800,10 +11814,10 @@
         <v>8</v>
       </c>
       <c r="C75" s="27" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="D75" s="28" t="s">
-        <v>335</v>
+        <v>390</v>
       </c>
     </row>
     <row r="76" spans="2:4" x14ac:dyDescent="0.3">
@@ -11811,10 +11825,10 @@
         <v>8</v>
       </c>
       <c r="C76" s="27" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D76" s="28" t="s">
-        <v>238</v>
+        <v>391</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.3">
@@ -11822,10 +11836,10 @@
         <v>8</v>
       </c>
       <c r="C77" s="27" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>336</v>
+        <v>396</v>
       </c>
     </row>
     <row r="78" spans="2:4" x14ac:dyDescent="0.3">
@@ -11833,10 +11847,10 @@
         <v>8</v>
       </c>
       <c r="C78" s="27" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>337</v>
+        <v>397</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.3">
@@ -11844,10 +11858,10 @@
         <v>8</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="D79" s="28" t="s">
-        <v>338</v>
+        <v>392</v>
       </c>
     </row>
     <row r="80" spans="2:4" x14ac:dyDescent="0.3">
@@ -11855,10 +11869,10 @@
         <v>8</v>
       </c>
       <c r="C80" s="27" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D80" s="28" t="s">
-        <v>241</v>
+        <v>325</v>
       </c>
     </row>
     <row r="81" spans="2:4" x14ac:dyDescent="0.3">
@@ -11866,21 +11880,21 @@
         <v>8</v>
       </c>
       <c r="C81" s="27" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D81" s="28" t="s">
-        <v>339</v>
+        <v>393</v>
       </c>
     </row>
     <row r="82" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B82" s="28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C82" s="27" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D82" s="28" t="s">
-        <v>243</v>
+        <v>326</v>
       </c>
     </row>
     <row r="83" spans="2:4" x14ac:dyDescent="0.3">
@@ -11888,10 +11902,10 @@
         <v>9</v>
       </c>
       <c r="C83" s="27" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D83" s="28" t="s">
-        <v>340</v>
+        <v>237</v>
       </c>
     </row>
     <row r="84" spans="2:4" x14ac:dyDescent="0.3">
@@ -11899,10 +11913,10 @@
         <v>9</v>
       </c>
       <c r="C84" s="27" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="D84" s="28" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="85" spans="2:4" x14ac:dyDescent="0.3">
@@ -11910,10 +11924,10 @@
         <v>9</v>
       </c>
       <c r="C85" s="27" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D85" s="28" t="s">
-        <v>249</v>
+        <v>328</v>
       </c>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.3">
@@ -11921,10 +11935,10 @@
         <v>9</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>342</v>
+        <v>243</v>
       </c>
     </row>
     <row r="87" spans="2:4" x14ac:dyDescent="0.3">
@@ -11932,10 +11946,10 @@
         <v>9</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D87" s="28" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
     </row>
     <row r="88" spans="2:4" x14ac:dyDescent="0.3">
@@ -11943,10 +11957,10 @@
         <v>9</v>
       </c>
       <c r="C88" s="27" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="D88" s="28" t="s">
-        <v>248</v>
+        <v>330</v>
       </c>
     </row>
     <row r="89" spans="2:4" x14ac:dyDescent="0.3">
@@ -11954,21 +11968,21 @@
         <v>9</v>
       </c>
       <c r="C89" s="27" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>344</v>
+        <v>242</v>
       </c>
     </row>
     <row r="90" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B90" s="28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C90" s="27" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="D90" s="28" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="91" spans="2:4" x14ac:dyDescent="0.3">
@@ -11976,10 +11990,10 @@
         <v>10</v>
       </c>
       <c r="C91" s="27" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="D91" s="28" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
     </row>
     <row r="92" spans="2:4" x14ac:dyDescent="0.3">
@@ -11987,10 +12001,10 @@
         <v>10</v>
       </c>
       <c r="C92" s="27" t="s">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="D92" s="28" t="s">
-        <v>391</v>
+        <v>333</v>
       </c>
     </row>
     <row r="93" spans="2:4" x14ac:dyDescent="0.3">
@@ -11998,10 +12012,10 @@
         <v>10</v>
       </c>
       <c r="C93" s="27" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="D93" s="28" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.3">
@@ -12009,10 +12023,10 @@
         <v>10</v>
       </c>
       <c r="C94" s="27" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="D94" s="28" t="s">
-        <v>252</v>
+        <v>378</v>
       </c>
     </row>
     <row r="95" spans="2:4" x14ac:dyDescent="0.3">
@@ -12020,10 +12034,10 @@
         <v>10</v>
       </c>
       <c r="C95" s="27" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D95" s="28" t="s">
-        <v>347</v>
+        <v>382</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.3">
@@ -12034,7 +12048,7 @@
         <v>217</v>
       </c>
       <c r="D96" s="28" t="s">
-        <v>348</v>
+        <v>398</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.3">
@@ -12042,10 +12056,10 @@
         <v>10</v>
       </c>
       <c r="C97" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D97" s="28" t="s">
-        <v>253</v>
+        <v>334</v>
       </c>
     </row>
     <row r="98" spans="2:4" x14ac:dyDescent="0.3">
@@ -12053,10 +12067,10 @@
         <v>10</v>
       </c>
       <c r="C98" s="27" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D98" s="28" t="s">
-        <v>349</v>
+        <v>246</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.3">
@@ -12067,7 +12081,7 @@
         <v>217</v>
       </c>
       <c r="D99" s="28" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.3">
@@ -12075,54 +12089,54 @@
         <v>10</v>
       </c>
       <c r="C100" s="27" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="D100" s="28" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
     </row>
     <row r="101" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B101" s="28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C101" s="27" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="D101" s="28" t="s">
-        <v>255</v>
+        <v>337</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B102" s="28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C102" s="27" t="s">
-        <v>217</v>
+        <v>383</v>
       </c>
       <c r="D102" s="28" t="s">
-        <v>352</v>
+        <v>384</v>
       </c>
     </row>
     <row r="103" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B103" s="28">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C103" s="27" t="s">
         <v>217</v>
       </c>
       <c r="D103" s="28" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B104" s="28">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C104" s="27" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="D104" s="28" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.3">
@@ -12130,10 +12144,10 @@
         <v>12</v>
       </c>
       <c r="C105" s="27" t="s">
-        <v>258</v>
+        <v>217</v>
       </c>
       <c r="D105" s="28" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.3">
@@ -12141,10 +12155,10 @@
         <v>12</v>
       </c>
       <c r="C106" s="27" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="D106" s="28" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.3">
@@ -12152,10 +12166,10 @@
         <v>12</v>
       </c>
       <c r="C107" s="27" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="D107" s="28" t="s">
-        <v>355</v>
+        <v>252</v>
       </c>
     </row>
     <row r="108" spans="2:4" x14ac:dyDescent="0.3">
@@ -12166,7 +12180,7 @@
         <v>217</v>
       </c>
       <c r="D108" s="28" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.3">
@@ -12174,10 +12188,10 @@
         <v>12</v>
       </c>
       <c r="C109" s="27" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="D109" s="28" t="s">
-        <v>263</v>
+        <v>341</v>
       </c>
     </row>
     <row r="110" spans="2:4" x14ac:dyDescent="0.3">
@@ -12185,10 +12199,10 @@
         <v>12</v>
       </c>
       <c r="C110" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D110" s="28" t="s">
-        <v>261</v>
+        <v>342</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.3">
@@ -12196,10 +12210,10 @@
         <v>12</v>
       </c>
       <c r="C111" s="27" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="D111" s="28" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.3">
@@ -12207,10 +12221,10 @@
         <v>12</v>
       </c>
       <c r="C112" s="27" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
       <c r="D112" s="28" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.3">
@@ -12218,10 +12232,10 @@
         <v>12</v>
       </c>
       <c r="C113" s="27" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="D113" s="28" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.3">
@@ -12229,10 +12243,10 @@
         <v>12</v>
       </c>
       <c r="C114" s="27" t="s">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="D114" s="28" t="s">
-        <v>357</v>
+        <v>259</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.3">
@@ -12243,7 +12257,7 @@
         <v>218</v>
       </c>
       <c r="D115" s="28" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.3">
@@ -12251,10 +12265,10 @@
         <v>12</v>
       </c>
       <c r="C116" s="27" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D116" s="28" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.3">
@@ -12262,10 +12276,10 @@
         <v>12</v>
       </c>
       <c r="C117" s="27" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D117" s="28" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.3">
@@ -12273,10 +12287,10 @@
         <v>12</v>
       </c>
       <c r="C118" s="27" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D118" s="28" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.3">
@@ -12287,7 +12301,7 @@
         <v>217</v>
       </c>
       <c r="D119" s="28" t="s">
-        <v>360</v>
+        <v>285</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.3">
@@ -12295,10 +12309,10 @@
         <v>12</v>
       </c>
       <c r="C120" s="27" t="s">
-        <v>269</v>
+        <v>218</v>
       </c>
       <c r="D120" s="28" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.3">
@@ -12306,32 +12320,32 @@
         <v>12</v>
       </c>
       <c r="C121" s="27" t="s">
-        <v>270</v>
+        <v>217</v>
       </c>
       <c r="D121" s="28" t="s">
-        <v>271</v>
+        <v>346</v>
       </c>
     </row>
     <row r="122" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B122" s="28">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C122" s="27" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="D122" s="28" t="s">
-        <v>273</v>
+        <v>347</v>
       </c>
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B123" s="28">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C123" s="27" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="D123" s="28" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="124" spans="2:4" x14ac:dyDescent="0.3">
@@ -12339,10 +12353,10 @@
         <v>13</v>
       </c>
       <c r="C124" s="27" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="D124" s="28" t="s">
-        <v>362</v>
+        <v>266</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.3">
@@ -12350,10 +12364,10 @@
         <v>13</v>
       </c>
       <c r="C125" s="27" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D125" s="28" t="s">
-        <v>363</v>
+        <v>268</v>
       </c>
     </row>
     <row r="126" spans="2:4" x14ac:dyDescent="0.3">
@@ -12361,32 +12375,32 @@
         <v>13</v>
       </c>
       <c r="C126" s="27" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D126" s="28" t="s">
-        <v>277</v>
+        <v>348</v>
       </c>
     </row>
     <row r="127" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B127" s="28">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C127" s="27" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="D127" s="28" t="s">
-        <v>279</v>
+        <v>349</v>
       </c>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B128" s="28">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C128" s="27" t="s">
         <v>217</v>
       </c>
       <c r="D128" s="28" t="s">
-        <v>364</v>
+        <v>270</v>
       </c>
     </row>
     <row r="129" spans="2:4" x14ac:dyDescent="0.3">
@@ -12394,10 +12408,10 @@
         <v>14</v>
       </c>
       <c r="C129" s="27" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="D129" s="28" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="130" spans="2:4" x14ac:dyDescent="0.3">
@@ -12405,10 +12419,10 @@
         <v>14</v>
       </c>
       <c r="C130" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D130" s="28" t="s">
-        <v>283</v>
+        <v>350</v>
       </c>
     </row>
     <row r="131" spans="2:4" x14ac:dyDescent="0.3">
@@ -12416,10 +12430,10 @@
         <v>14</v>
       </c>
       <c r="C131" s="27" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="D131" s="28" t="s">
-        <v>365</v>
+        <v>275</v>
       </c>
     </row>
     <row r="132" spans="2:4" x14ac:dyDescent="0.3">
@@ -12427,10 +12441,10 @@
         <v>14</v>
       </c>
       <c r="C132" s="27" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D132" s="28" t="s">
-        <v>366</v>
+        <v>276</v>
       </c>
     </row>
     <row r="133" spans="2:4" x14ac:dyDescent="0.3">
@@ -12438,32 +12452,32 @@
         <v>14</v>
       </c>
       <c r="C133" s="27" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D133" s="28" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
     </row>
     <row r="134" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B134" s="28">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C134" s="27" t="s">
         <v>217</v>
       </c>
       <c r="D134" s="28" t="s">
-        <v>285</v>
+        <v>352</v>
       </c>
     </row>
     <row r="135" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B135" s="28">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C135" s="27" t="s">
         <v>217</v>
       </c>
       <c r="D135" s="28" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
     </row>
     <row r="136" spans="2:4" x14ac:dyDescent="0.3">
@@ -12471,10 +12485,10 @@
         <v>15</v>
       </c>
       <c r="C136" s="27" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="D136" s="28" t="s">
-        <v>369</v>
+        <v>278</v>
       </c>
     </row>
     <row r="137" spans="2:4" x14ac:dyDescent="0.3">
@@ -12482,10 +12496,10 @@
         <v>15</v>
       </c>
       <c r="C137" s="27" t="s">
-        <v>286</v>
+        <v>217</v>
       </c>
       <c r="D137" s="28" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
     </row>
     <row r="138" spans="2:4" x14ac:dyDescent="0.3">
@@ -12493,10 +12507,10 @@
         <v>15</v>
       </c>
       <c r="C138" s="27" t="s">
-        <v>287</v>
+        <v>231</v>
       </c>
       <c r="D138" s="28" t="s">
-        <v>288</v>
+        <v>355</v>
       </c>
     </row>
     <row r="139" spans="2:4" x14ac:dyDescent="0.3">
@@ -12504,10 +12518,10 @@
         <v>15</v>
       </c>
       <c r="C139" s="27" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D139" s="28" t="s">
-        <v>290</v>
+        <v>356</v>
       </c>
     </row>
     <row r="140" spans="2:4" x14ac:dyDescent="0.3">
@@ -12515,10 +12529,10 @@
         <v>15</v>
       </c>
       <c r="C140" s="27" t="s">
-        <v>217</v>
+        <v>280</v>
       </c>
       <c r="D140" s="28" t="s">
-        <v>371</v>
+        <v>281</v>
       </c>
     </row>
     <row r="141" spans="2:4" x14ac:dyDescent="0.3">
@@ -12526,10 +12540,10 @@
         <v>15</v>
       </c>
       <c r="C141" s="27" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="D141" s="28" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="142" spans="2:4" x14ac:dyDescent="0.3">
@@ -12540,7 +12554,7 @@
         <v>217</v>
       </c>
       <c r="D142" s="28" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
     </row>
     <row r="143" spans="2:4" x14ac:dyDescent="0.3">
@@ -12548,10 +12562,10 @@
         <v>15</v>
       </c>
       <c r="C143" s="27" t="s">
-        <v>221</v>
+        <v>286</v>
       </c>
       <c r="D143" s="28" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
     </row>
     <row r="144" spans="2:4" x14ac:dyDescent="0.3">
@@ -12559,10 +12573,32 @@
         <v>15</v>
       </c>
       <c r="C144" s="27" t="s">
-        <v>295</v>
+        <v>217</v>
       </c>
       <c r="D144" s="28" t="s">
-        <v>296</v>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B145" s="28">
+        <v>15</v>
+      </c>
+      <c r="C145" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="D145" s="28" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B146" s="28">
+        <v>15</v>
+      </c>
+      <c r="C146" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="D146" s="28" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/00.기획서/221016_스테이지 기획서_V110.xlsx
+++ b/00.기획서/221016_스테이지 기획서_V110.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RocketTeamDocu\00.기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA_23\Desktop\RoketTeam\RocketTeamDocu\00.기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -5439,7 +5439,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="400">
   <si>
     <t>choose_1_Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7030,6 +7030,10 @@
   </si>
   <si>
     <t>하하하…있잖아 정신없이 약국에 들어갔더니 아무것도 기억이 안 나는 거야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>▶ 미니맵 경로 설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8041,26 +8045,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -8071,28 +8090,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8116,22 +8168,16 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8143,70 +8189,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -8221,10 +8225,16 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -8236,13 +8246,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8255,15 +8268,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8645,6 +8649,49 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>661147</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>493479</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>40531</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2185147" y="12741088"/>
+          <a:ext cx="10085714" cy="7447619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8947,9 +8994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:V90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:V3"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8958,50 +9003,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="95" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="48"/>
-      <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-      <c r="P2" s="48"/>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="48"/>
-      <c r="S2" s="48"/>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="V2" s="48"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
+      <c r="S2" s="96"/>
+      <c r="T2" s="96"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="96"/>
     </row>
     <row r="3" spans="3:22" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
+      <c r="S3" s="96"/>
+      <c r="T3" s="96"/>
+      <c r="U3" s="96"/>
+      <c r="V3" s="96"/>
     </row>
     <row r="5" spans="3:22" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="3"/>
@@ -9220,136 +9265,136 @@
       </c>
     </row>
     <row r="51" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E51" s="61" t="s">
+      <c r="E51" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="F51" s="61"/>
-      <c r="G51" s="61" t="s">
+      <c r="F51" s="75"/>
+      <c r="G51" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="H51" s="61"/>
-      <c r="I51" s="61"/>
-      <c r="J51" s="61"/>
-      <c r="K51" s="61"/>
-      <c r="L51" s="61"/>
-      <c r="M51" s="61"/>
-      <c r="N51" s="61"/>
-      <c r="O51" s="61"/>
-      <c r="P51" s="61"/>
-      <c r="Q51" s="61"/>
-      <c r="R51" s="61"/>
-      <c r="S51" s="61"/>
-      <c r="T51" s="61"/>
+      <c r="H51" s="75"/>
+      <c r="I51" s="75"/>
+      <c r="J51" s="75"/>
+      <c r="K51" s="75"/>
+      <c r="L51" s="75"/>
+      <c r="M51" s="75"/>
+      <c r="N51" s="75"/>
+      <c r="O51" s="75"/>
+      <c r="P51" s="75"/>
+      <c r="Q51" s="75"/>
+      <c r="R51" s="75"/>
+      <c r="S51" s="75"/>
+      <c r="T51" s="75"/>
     </row>
     <row r="52" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E52" s="60" t="s">
+      <c r="E52" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="F52" s="60"/>
-      <c r="G52" s="84" t="s">
+      <c r="F52" s="101"/>
+      <c r="G52" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="H52" s="84"/>
-      <c r="I52" s="84"/>
-      <c r="J52" s="84"/>
-      <c r="K52" s="84"/>
-      <c r="L52" s="84"/>
-      <c r="M52" s="84"/>
-      <c r="N52" s="84"/>
-      <c r="O52" s="84"/>
-      <c r="P52" s="84"/>
-      <c r="Q52" s="84"/>
-      <c r="R52" s="84"/>
-      <c r="S52" s="84"/>
-      <c r="T52" s="84"/>
+      <c r="H52" s="62"/>
+      <c r="I52" s="62"/>
+      <c r="J52" s="62"/>
+      <c r="K52" s="62"/>
+      <c r="L52" s="62"/>
+      <c r="M52" s="62"/>
+      <c r="N52" s="62"/>
+      <c r="O52" s="62"/>
+      <c r="P52" s="62"/>
+      <c r="Q52" s="62"/>
+      <c r="R52" s="62"/>
+      <c r="S52" s="62"/>
+      <c r="T52" s="62"/>
     </row>
     <row r="53" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E53" s="60" t="s">
+      <c r="E53" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="F53" s="60"/>
-      <c r="G53" s="84" t="s">
+      <c r="F53" s="101"/>
+      <c r="G53" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="H53" s="84"/>
-      <c r="I53" s="84"/>
-      <c r="J53" s="84"/>
-      <c r="K53" s="84"/>
-      <c r="L53" s="84"/>
-      <c r="M53" s="84"/>
-      <c r="N53" s="84"/>
-      <c r="O53" s="84"/>
-      <c r="P53" s="84"/>
-      <c r="Q53" s="84"/>
-      <c r="R53" s="84"/>
-      <c r="S53" s="84"/>
-      <c r="T53" s="84"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="62"/>
+      <c r="J53" s="62"/>
+      <c r="K53" s="62"/>
+      <c r="L53" s="62"/>
+      <c r="M53" s="62"/>
+      <c r="N53" s="62"/>
+      <c r="O53" s="62"/>
+      <c r="P53" s="62"/>
+      <c r="Q53" s="62"/>
+      <c r="R53" s="62"/>
+      <c r="S53" s="62"/>
+      <c r="T53" s="62"/>
     </row>
     <row r="54" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E54" s="60" t="s">
+      <c r="E54" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="F54" s="60"/>
-      <c r="G54" s="84" t="s">
+      <c r="F54" s="101"/>
+      <c r="G54" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="H54" s="84"/>
-      <c r="I54" s="84"/>
-      <c r="J54" s="84"/>
-      <c r="K54" s="84"/>
-      <c r="L54" s="84"/>
-      <c r="M54" s="84"/>
-      <c r="N54" s="84"/>
-      <c r="O54" s="84"/>
-      <c r="P54" s="84"/>
-      <c r="Q54" s="84"/>
-      <c r="R54" s="84"/>
-      <c r="S54" s="84"/>
-      <c r="T54" s="84"/>
+      <c r="H54" s="62"/>
+      <c r="I54" s="62"/>
+      <c r="J54" s="62"/>
+      <c r="K54" s="62"/>
+      <c r="L54" s="62"/>
+      <c r="M54" s="62"/>
+      <c r="N54" s="62"/>
+      <c r="O54" s="62"/>
+      <c r="P54" s="62"/>
+      <c r="Q54" s="62"/>
+      <c r="R54" s="62"/>
+      <c r="S54" s="62"/>
+      <c r="T54" s="62"/>
     </row>
     <row r="55" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E55" s="60" t="s">
+      <c r="E55" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="F55" s="60"/>
-      <c r="G55" s="84" t="s">
+      <c r="F55" s="101"/>
+      <c r="G55" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="H55" s="84"/>
-      <c r="I55" s="84"/>
-      <c r="J55" s="84"/>
-      <c r="K55" s="84"/>
-      <c r="L55" s="84"/>
-      <c r="M55" s="84"/>
-      <c r="N55" s="84"/>
-      <c r="O55" s="84"/>
-      <c r="P55" s="84"/>
-      <c r="Q55" s="84"/>
-      <c r="R55" s="84"/>
-      <c r="S55" s="84"/>
-      <c r="T55" s="84"/>
+      <c r="H55" s="62"/>
+      <c r="I55" s="62"/>
+      <c r="J55" s="62"/>
+      <c r="K55" s="62"/>
+      <c r="L55" s="62"/>
+      <c r="M55" s="62"/>
+      <c r="N55" s="62"/>
+      <c r="O55" s="62"/>
+      <c r="P55" s="62"/>
+      <c r="Q55" s="62"/>
+      <c r="R55" s="62"/>
+      <c r="S55" s="62"/>
+      <c r="T55" s="62"/>
     </row>
     <row r="56" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E56" s="60" t="s">
+      <c r="E56" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="F56" s="60"/>
-      <c r="G56" s="84" t="s">
+      <c r="F56" s="101"/>
+      <c r="G56" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="H56" s="84"/>
-      <c r="I56" s="84"/>
-      <c r="J56" s="84"/>
-      <c r="K56" s="84"/>
-      <c r="L56" s="84"/>
-      <c r="M56" s="84"/>
-      <c r="N56" s="84"/>
-      <c r="O56" s="84"/>
-      <c r="P56" s="84"/>
-      <c r="Q56" s="84"/>
-      <c r="R56" s="84"/>
-      <c r="S56" s="84"/>
-      <c r="T56" s="84"/>
+      <c r="H56" s="62"/>
+      <c r="I56" s="62"/>
+      <c r="J56" s="62"/>
+      <c r="K56" s="62"/>
+      <c r="L56" s="62"/>
+      <c r="M56" s="62"/>
+      <c r="N56" s="62"/>
+      <c r="O56" s="62"/>
+      <c r="P56" s="62"/>
+      <c r="Q56" s="62"/>
+      <c r="R56" s="62"/>
+      <c r="S56" s="62"/>
+      <c r="T56" s="62"/>
     </row>
     <row r="58" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D58" t="s">
@@ -9360,170 +9405,170 @@
       <c r="E59" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F59" s="71" t="s">
+      <c r="F59" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="G59" s="53"/>
+      <c r="G59" s="88"/>
       <c r="H59" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="I59" s="51" t="s">
+      <c r="I59" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="J59" s="52"/>
-      <c r="K59" s="52"/>
-      <c r="L59" s="52"/>
-      <c r="M59" s="52"/>
-      <c r="N59" s="52"/>
-      <c r="O59" s="52"/>
-      <c r="P59" s="52"/>
-      <c r="Q59" s="52"/>
-      <c r="R59" s="52"/>
-      <c r="S59" s="52"/>
-      <c r="T59" s="53"/>
+      <c r="J59" s="98"/>
+      <c r="K59" s="98"/>
+      <c r="L59" s="98"/>
+      <c r="M59" s="98"/>
+      <c r="N59" s="98"/>
+      <c r="O59" s="98"/>
+      <c r="P59" s="98"/>
+      <c r="Q59" s="98"/>
+      <c r="R59" s="98"/>
+      <c r="S59" s="98"/>
+      <c r="T59" s="88"/>
     </row>
     <row r="60" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E60" s="66" t="s">
+      <c r="E60" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="F60" s="80" t="s">
+      <c r="F60" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="G60" s="56"/>
+      <c r="G60" s="61"/>
       <c r="H60" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="I60" s="54" t="s">
+      <c r="I60" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="J60" s="55"/>
-      <c r="K60" s="55"/>
-      <c r="L60" s="55"/>
-      <c r="M60" s="55"/>
-      <c r="N60" s="55"/>
-      <c r="O60" s="55"/>
-      <c r="P60" s="55"/>
-      <c r="Q60" s="55"/>
-      <c r="R60" s="55"/>
-      <c r="S60" s="55"/>
-      <c r="T60" s="56"/>
+      <c r="J60" s="60"/>
+      <c r="K60" s="60"/>
+      <c r="L60" s="60"/>
+      <c r="M60" s="60"/>
+      <c r="N60" s="60"/>
+      <c r="O60" s="60"/>
+      <c r="P60" s="60"/>
+      <c r="Q60" s="60"/>
+      <c r="R60" s="60"/>
+      <c r="S60" s="60"/>
+      <c r="T60" s="61"/>
     </row>
     <row r="61" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E61" s="69"/>
-      <c r="F61" s="64" t="s">
+      <c r="E61" s="85"/>
+      <c r="F61" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="G61" s="65"/>
+      <c r="G61" s="81"/>
       <c r="H61" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="I61" s="82" t="s">
+      <c r="I61" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="J61" s="83"/>
-      <c r="K61" s="83"/>
-      <c r="L61" s="83"/>
-      <c r="M61" s="83"/>
-      <c r="N61" s="83"/>
-      <c r="O61" s="83"/>
-      <c r="P61" s="83"/>
-      <c r="Q61" s="83"/>
-      <c r="R61" s="83"/>
-      <c r="S61" s="83"/>
-      <c r="T61" s="65"/>
+      <c r="J61" s="80"/>
+      <c r="K61" s="80"/>
+      <c r="L61" s="80"/>
+      <c r="M61" s="80"/>
+      <c r="N61" s="80"/>
+      <c r="O61" s="80"/>
+      <c r="P61" s="80"/>
+      <c r="Q61" s="80"/>
+      <c r="R61" s="80"/>
+      <c r="S61" s="80"/>
+      <c r="T61" s="81"/>
     </row>
     <row r="62" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E62" s="66" t="s">
+      <c r="E62" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="F62" s="81" t="s">
+      <c r="F62" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="G62" s="59"/>
-      <c r="H62" s="95" t="s">
+      <c r="G62" s="78"/>
+      <c r="H62" s="74" t="s">
         <v>98</v>
       </c>
-      <c r="I62" s="57" t="s">
+      <c r="I62" s="99" t="s">
         <v>118</v>
       </c>
-      <c r="J62" s="58"/>
-      <c r="K62" s="58"/>
-      <c r="L62" s="58"/>
-      <c r="M62" s="58"/>
-      <c r="N62" s="58"/>
-      <c r="O62" s="58"/>
-      <c r="P62" s="58"/>
-      <c r="Q62" s="58"/>
-      <c r="R62" s="58"/>
-      <c r="S62" s="58"/>
-      <c r="T62" s="59"/>
+      <c r="J62" s="100"/>
+      <c r="K62" s="100"/>
+      <c r="L62" s="100"/>
+      <c r="M62" s="100"/>
+      <c r="N62" s="100"/>
+      <c r="O62" s="100"/>
+      <c r="P62" s="100"/>
+      <c r="Q62" s="100"/>
+      <c r="R62" s="100"/>
+      <c r="S62" s="100"/>
+      <c r="T62" s="78"/>
     </row>
     <row r="63" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E63" s="68"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="50"/>
-      <c r="H63" s="96"/>
-      <c r="I63" s="62" t="s">
+      <c r="E63" s="84"/>
+      <c r="F63" s="76"/>
+      <c r="G63" s="58"/>
+      <c r="H63" s="51"/>
+      <c r="I63" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="J63" s="63"/>
-      <c r="K63" s="63"/>
-      <c r="L63" s="63"/>
-      <c r="M63" s="63"/>
-      <c r="N63" s="63"/>
-      <c r="O63" s="63"/>
-      <c r="P63" s="63"/>
-      <c r="Q63" s="63"/>
-      <c r="R63" s="63"/>
-      <c r="S63" s="63"/>
-      <c r="T63" s="50"/>
+      <c r="J63" s="57"/>
+      <c r="K63" s="57"/>
+      <c r="L63" s="57"/>
+      <c r="M63" s="57"/>
+      <c r="N63" s="57"/>
+      <c r="O63" s="57"/>
+      <c r="P63" s="57"/>
+      <c r="Q63" s="57"/>
+      <c r="R63" s="57"/>
+      <c r="S63" s="57"/>
+      <c r="T63" s="58"/>
     </row>
     <row r="64" spans="4:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E64" s="68"/>
-      <c r="F64" s="49" t="s">
+      <c r="E64" s="84"/>
+      <c r="F64" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="G64" s="50"/>
-      <c r="H64" s="97" t="s">
+      <c r="G64" s="58"/>
+      <c r="H64" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="I64" s="62" t="s">
+      <c r="I64" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="J64" s="63"/>
-      <c r="K64" s="63"/>
-      <c r="L64" s="63"/>
-      <c r="M64" s="63"/>
-      <c r="N64" s="63"/>
-      <c r="O64" s="63"/>
-      <c r="P64" s="63"/>
-      <c r="Q64" s="63"/>
-      <c r="R64" s="63"/>
-      <c r="S64" s="63"/>
-      <c r="T64" s="50"/>
+      <c r="J64" s="57"/>
+      <c r="K64" s="57"/>
+      <c r="L64" s="57"/>
+      <c r="M64" s="57"/>
+      <c r="N64" s="57"/>
+      <c r="O64" s="57"/>
+      <c r="P64" s="57"/>
+      <c r="Q64" s="57"/>
+      <c r="R64" s="57"/>
+      <c r="S64" s="57"/>
+      <c r="T64" s="58"/>
     </row>
     <row r="65" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E65" s="68"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="50"/>
-      <c r="H65" s="96"/>
-      <c r="I65" s="62" t="s">
+      <c r="E65" s="84"/>
+      <c r="F65" s="76"/>
+      <c r="G65" s="58"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="J65" s="63"/>
-      <c r="K65" s="63"/>
-      <c r="L65" s="63"/>
-      <c r="M65" s="63"/>
-      <c r="N65" s="63"/>
-      <c r="O65" s="63"/>
-      <c r="P65" s="63"/>
-      <c r="Q65" s="63"/>
-      <c r="R65" s="63"/>
-      <c r="S65" s="63"/>
-      <c r="T65" s="50"/>
+      <c r="J65" s="57"/>
+      <c r="K65" s="57"/>
+      <c r="L65" s="57"/>
+      <c r="M65" s="57"/>
+      <c r="N65" s="57"/>
+      <c r="O65" s="57"/>
+      <c r="P65" s="57"/>
+      <c r="Q65" s="57"/>
+      <c r="R65" s="57"/>
+      <c r="S65" s="57"/>
+      <c r="T65" s="58"/>
     </row>
     <row r="66" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E66" s="68"/>
+      <c r="E66" s="84"/>
       <c r="F66" s="10" t="s">
         <v>114</v>
       </c>
@@ -9531,347 +9576,347 @@
       <c r="H66" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="I66" s="62" t="s">
+      <c r="I66" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="J66" s="63"/>
-      <c r="K66" s="63"/>
-      <c r="L66" s="63"/>
-      <c r="M66" s="63"/>
-      <c r="N66" s="63"/>
-      <c r="O66" s="63"/>
-      <c r="P66" s="63"/>
-      <c r="Q66" s="63"/>
-      <c r="R66" s="63"/>
-      <c r="S66" s="63"/>
-      <c r="T66" s="50"/>
+      <c r="J66" s="57"/>
+      <c r="K66" s="57"/>
+      <c r="L66" s="57"/>
+      <c r="M66" s="57"/>
+      <c r="N66" s="57"/>
+      <c r="O66" s="57"/>
+      <c r="P66" s="57"/>
+      <c r="Q66" s="57"/>
+      <c r="R66" s="57"/>
+      <c r="S66" s="57"/>
+      <c r="T66" s="58"/>
     </row>
     <row r="67" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E67" s="68"/>
-      <c r="F67" s="49" t="s">
+      <c r="E67" s="84"/>
+      <c r="F67" s="76" t="s">
         <v>64</v>
       </c>
-      <c r="G67" s="50"/>
+      <c r="G67" s="58"/>
       <c r="H67" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="I67" s="62" t="s">
+      <c r="I67" s="56" t="s">
         <v>191</v>
       </c>
-      <c r="J67" s="63"/>
-      <c r="K67" s="63"/>
-      <c r="L67" s="63"/>
-      <c r="M67" s="63"/>
-      <c r="N67" s="63"/>
-      <c r="O67" s="63"/>
-      <c r="P67" s="63"/>
-      <c r="Q67" s="63"/>
-      <c r="R67" s="63"/>
-      <c r="S67" s="63"/>
-      <c r="T67" s="50"/>
+      <c r="J67" s="57"/>
+      <c r="K67" s="57"/>
+      <c r="L67" s="57"/>
+      <c r="M67" s="57"/>
+      <c r="N67" s="57"/>
+      <c r="O67" s="57"/>
+      <c r="P67" s="57"/>
+      <c r="Q67" s="57"/>
+      <c r="R67" s="57"/>
+      <c r="S67" s="57"/>
+      <c r="T67" s="58"/>
     </row>
     <row r="68" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E68" s="68"/>
-      <c r="F68" s="49" t="s">
+      <c r="E68" s="84"/>
+      <c r="F68" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="G68" s="50"/>
+      <c r="G68" s="58"/>
       <c r="H68" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="I68" s="62" t="s">
+      <c r="I68" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="J68" s="63"/>
-      <c r="K68" s="63"/>
-      <c r="L68" s="63"/>
-      <c r="M68" s="63"/>
-      <c r="N68" s="63"/>
-      <c r="O68" s="63"/>
-      <c r="P68" s="63"/>
-      <c r="Q68" s="63"/>
-      <c r="R68" s="63"/>
-      <c r="S68" s="63"/>
-      <c r="T68" s="50"/>
+      <c r="J68" s="57"/>
+      <c r="K68" s="57"/>
+      <c r="L68" s="57"/>
+      <c r="M68" s="57"/>
+      <c r="N68" s="57"/>
+      <c r="O68" s="57"/>
+      <c r="P68" s="57"/>
+      <c r="Q68" s="57"/>
+      <c r="R68" s="57"/>
+      <c r="S68" s="57"/>
+      <c r="T68" s="58"/>
     </row>
     <row r="69" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E69" s="68"/>
-      <c r="F69" s="49" t="s">
+      <c r="E69" s="84"/>
+      <c r="F69" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="G69" s="50"/>
-      <c r="H69" s="97" t="s">
+      <c r="G69" s="58"/>
+      <c r="H69" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="I69" s="62" t="s">
+      <c r="I69" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="J69" s="63"/>
-      <c r="K69" s="63"/>
-      <c r="L69" s="63"/>
-      <c r="M69" s="63"/>
-      <c r="N69" s="63"/>
-      <c r="O69" s="63"/>
-      <c r="P69" s="63"/>
-      <c r="Q69" s="63"/>
-      <c r="R69" s="63"/>
-      <c r="S69" s="63"/>
-      <c r="T69" s="50"/>
+      <c r="J69" s="57"/>
+      <c r="K69" s="57"/>
+      <c r="L69" s="57"/>
+      <c r="M69" s="57"/>
+      <c r="N69" s="57"/>
+      <c r="O69" s="57"/>
+      <c r="P69" s="57"/>
+      <c r="Q69" s="57"/>
+      <c r="R69" s="57"/>
+      <c r="S69" s="57"/>
+      <c r="T69" s="58"/>
     </row>
     <row r="70" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E70" s="68"/>
-      <c r="F70" s="49"/>
-      <c r="G70" s="50"/>
-      <c r="H70" s="96"/>
-      <c r="I70" s="62" t="s">
+      <c r="E70" s="84"/>
+      <c r="F70" s="76"/>
+      <c r="G70" s="58"/>
+      <c r="H70" s="51"/>
+      <c r="I70" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="J70" s="63"/>
-      <c r="K70" s="63"/>
-      <c r="L70" s="63"/>
-      <c r="M70" s="63"/>
-      <c r="N70" s="63"/>
-      <c r="O70" s="63"/>
-      <c r="P70" s="63"/>
-      <c r="Q70" s="63"/>
-      <c r="R70" s="63"/>
-      <c r="S70" s="63"/>
-      <c r="T70" s="50"/>
+      <c r="J70" s="57"/>
+      <c r="K70" s="57"/>
+      <c r="L70" s="57"/>
+      <c r="M70" s="57"/>
+      <c r="N70" s="57"/>
+      <c r="O70" s="57"/>
+      <c r="P70" s="57"/>
+      <c r="Q70" s="57"/>
+      <c r="R70" s="57"/>
+      <c r="S70" s="57"/>
+      <c r="T70" s="58"/>
     </row>
     <row r="71" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E71" s="68"/>
-      <c r="F71" s="49" t="s">
+      <c r="E71" s="84"/>
+      <c r="F71" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="G71" s="50"/>
-      <c r="H71" s="97" t="s">
+      <c r="G71" s="58"/>
+      <c r="H71" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="I71" s="62" t="s">
+      <c r="I71" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="J71" s="63"/>
-      <c r="K71" s="63"/>
-      <c r="L71" s="63"/>
-      <c r="M71" s="63"/>
-      <c r="N71" s="63"/>
-      <c r="O71" s="63"/>
-      <c r="P71" s="63"/>
-      <c r="Q71" s="63"/>
-      <c r="R71" s="63"/>
-      <c r="S71" s="63"/>
-      <c r="T71" s="50"/>
+      <c r="J71" s="57"/>
+      <c r="K71" s="57"/>
+      <c r="L71" s="57"/>
+      <c r="M71" s="57"/>
+      <c r="N71" s="57"/>
+      <c r="O71" s="57"/>
+      <c r="P71" s="57"/>
+      <c r="Q71" s="57"/>
+      <c r="R71" s="57"/>
+      <c r="S71" s="57"/>
+      <c r="T71" s="58"/>
     </row>
     <row r="72" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E72" s="68"/>
-      <c r="F72" s="49"/>
-      <c r="G72" s="50"/>
-      <c r="H72" s="96"/>
-      <c r="I72" s="91" t="s">
+      <c r="E72" s="84"/>
+      <c r="F72" s="76"/>
+      <c r="G72" s="58"/>
+      <c r="H72" s="51"/>
+      <c r="I72" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="J72" s="91"/>
-      <c r="K72" s="91"/>
-      <c r="L72" s="91"/>
-      <c r="M72" s="91"/>
-      <c r="N72" s="91"/>
-      <c r="O72" s="91"/>
-      <c r="P72" s="91"/>
-      <c r="Q72" s="91"/>
-      <c r="R72" s="91"/>
-      <c r="S72" s="91"/>
-      <c r="T72" s="92"/>
+      <c r="J72" s="49"/>
+      <c r="K72" s="49"/>
+      <c r="L72" s="49"/>
+      <c r="M72" s="49"/>
+      <c r="N72" s="49"/>
+      <c r="O72" s="49"/>
+      <c r="P72" s="49"/>
+      <c r="Q72" s="49"/>
+      <c r="R72" s="49"/>
+      <c r="S72" s="49"/>
+      <c r="T72" s="48"/>
     </row>
     <row r="73" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E73" s="68"/>
-      <c r="F73" s="49" t="s">
+      <c r="E73" s="84"/>
+      <c r="F73" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="G73" s="50"/>
+      <c r="G73" s="58"/>
       <c r="H73" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="I73" s="62" t="s">
+      <c r="I73" s="56" t="s">
         <v>368</v>
       </c>
-      <c r="J73" s="63"/>
-      <c r="K73" s="63"/>
-      <c r="L73" s="63"/>
-      <c r="M73" s="63"/>
-      <c r="N73" s="63"/>
-      <c r="O73" s="63"/>
-      <c r="P73" s="63"/>
-      <c r="Q73" s="63"/>
-      <c r="R73" s="63"/>
-      <c r="S73" s="63"/>
-      <c r="T73" s="50"/>
+      <c r="J73" s="57"/>
+      <c r="K73" s="57"/>
+      <c r="L73" s="57"/>
+      <c r="M73" s="57"/>
+      <c r="N73" s="57"/>
+      <c r="O73" s="57"/>
+      <c r="P73" s="57"/>
+      <c r="Q73" s="57"/>
+      <c r="R73" s="57"/>
+      <c r="S73" s="57"/>
+      <c r="T73" s="58"/>
     </row>
     <row r="74" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E74" s="68"/>
-      <c r="F74" s="98" t="s">
+      <c r="E74" s="84"/>
+      <c r="F74" s="47" t="s">
         <v>366</v>
       </c>
-      <c r="G74" s="92"/>
+      <c r="G74" s="48"/>
       <c r="H74" s="45" t="s">
         <v>365</v>
       </c>
-      <c r="I74" s="98" t="s">
+      <c r="I74" s="47" t="s">
         <v>367</v>
       </c>
-      <c r="J74" s="91"/>
-      <c r="K74" s="91"/>
-      <c r="L74" s="91"/>
-      <c r="M74" s="91"/>
-      <c r="N74" s="91"/>
-      <c r="O74" s="91"/>
-      <c r="P74" s="91"/>
-      <c r="Q74" s="91"/>
-      <c r="R74" s="91"/>
-      <c r="S74" s="91"/>
-      <c r="T74" s="92"/>
+      <c r="J74" s="49"/>
+      <c r="K74" s="49"/>
+      <c r="L74" s="49"/>
+      <c r="M74" s="49"/>
+      <c r="N74" s="49"/>
+      <c r="O74" s="49"/>
+      <c r="P74" s="49"/>
+      <c r="Q74" s="49"/>
+      <c r="R74" s="49"/>
+      <c r="S74" s="49"/>
+      <c r="T74" s="48"/>
     </row>
     <row r="75" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E75" s="68"/>
-      <c r="F75" s="49" t="s">
+      <c r="E75" s="84"/>
+      <c r="F75" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="G75" s="50"/>
-      <c r="H75" s="97" t="s">
+      <c r="G75" s="58"/>
+      <c r="H75" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="I75" s="62" t="s">
+      <c r="I75" s="56" t="s">
         <v>227</v>
       </c>
-      <c r="J75" s="63"/>
-      <c r="K75" s="63"/>
-      <c r="L75" s="63"/>
-      <c r="M75" s="63"/>
-      <c r="N75" s="63"/>
-      <c r="O75" s="63"/>
-      <c r="P75" s="63"/>
-      <c r="Q75" s="63"/>
-      <c r="R75" s="63"/>
-      <c r="S75" s="63"/>
-      <c r="T75" s="50"/>
+      <c r="J75" s="57"/>
+      <c r="K75" s="57"/>
+      <c r="L75" s="57"/>
+      <c r="M75" s="57"/>
+      <c r="N75" s="57"/>
+      <c r="O75" s="57"/>
+      <c r="P75" s="57"/>
+      <c r="Q75" s="57"/>
+      <c r="R75" s="57"/>
+      <c r="S75" s="57"/>
+      <c r="T75" s="58"/>
     </row>
     <row r="76" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E76" s="68"/>
-      <c r="F76" s="49"/>
-      <c r="G76" s="50"/>
-      <c r="H76" s="96"/>
-      <c r="I76" s="62" t="s">
+      <c r="E76" s="84"/>
+      <c r="F76" s="76"/>
+      <c r="G76" s="58"/>
+      <c r="H76" s="51"/>
+      <c r="I76" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="J76" s="63"/>
-      <c r="K76" s="63"/>
-      <c r="L76" s="63"/>
-      <c r="M76" s="63"/>
-      <c r="N76" s="63"/>
-      <c r="O76" s="63"/>
-      <c r="P76" s="63"/>
-      <c r="Q76" s="63"/>
-      <c r="R76" s="63"/>
-      <c r="S76" s="63"/>
-      <c r="T76" s="50"/>
+      <c r="J76" s="57"/>
+      <c r="K76" s="57"/>
+      <c r="L76" s="57"/>
+      <c r="M76" s="57"/>
+      <c r="N76" s="57"/>
+      <c r="O76" s="57"/>
+      <c r="P76" s="57"/>
+      <c r="Q76" s="57"/>
+      <c r="R76" s="57"/>
+      <c r="S76" s="57"/>
+      <c r="T76" s="58"/>
     </row>
     <row r="77" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E77" s="68"/>
-      <c r="F77" s="49" t="s">
+      <c r="E77" s="84"/>
+      <c r="F77" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="G77" s="50"/>
-      <c r="H77" s="97" t="s">
+      <c r="G77" s="58"/>
+      <c r="H77" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="I77" s="62" t="s">
+      <c r="I77" s="56" t="s">
         <v>201</v>
       </c>
-      <c r="J77" s="63"/>
-      <c r="K77" s="63"/>
-      <c r="L77" s="63"/>
-      <c r="M77" s="63"/>
-      <c r="N77" s="63"/>
-      <c r="O77" s="63"/>
-      <c r="P77" s="63"/>
-      <c r="Q77" s="63"/>
-      <c r="R77" s="63"/>
-      <c r="S77" s="63"/>
-      <c r="T77" s="50"/>
+      <c r="J77" s="57"/>
+      <c r="K77" s="57"/>
+      <c r="L77" s="57"/>
+      <c r="M77" s="57"/>
+      <c r="N77" s="57"/>
+      <c r="O77" s="57"/>
+      <c r="P77" s="57"/>
+      <c r="Q77" s="57"/>
+      <c r="R77" s="57"/>
+      <c r="S77" s="57"/>
+      <c r="T77" s="58"/>
     </row>
     <row r="78" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E78" s="68"/>
-      <c r="F78" s="49"/>
-      <c r="G78" s="50"/>
-      <c r="H78" s="96"/>
-      <c r="I78" s="62" t="s">
+      <c r="E78" s="84"/>
+      <c r="F78" s="76"/>
+      <c r="G78" s="58"/>
+      <c r="H78" s="51"/>
+      <c r="I78" s="56" t="s">
         <v>202</v>
       </c>
-      <c r="J78" s="63"/>
-      <c r="K78" s="63"/>
-      <c r="L78" s="63"/>
-      <c r="M78" s="63"/>
-      <c r="N78" s="63"/>
-      <c r="O78" s="63"/>
-      <c r="P78" s="63"/>
-      <c r="Q78" s="63"/>
-      <c r="R78" s="63"/>
-      <c r="S78" s="63"/>
-      <c r="T78" s="50"/>
+      <c r="J78" s="57"/>
+      <c r="K78" s="57"/>
+      <c r="L78" s="57"/>
+      <c r="M78" s="57"/>
+      <c r="N78" s="57"/>
+      <c r="O78" s="57"/>
+      <c r="P78" s="57"/>
+      <c r="Q78" s="57"/>
+      <c r="R78" s="57"/>
+      <c r="S78" s="57"/>
+      <c r="T78" s="58"/>
     </row>
     <row r="79" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E79" s="68"/>
-      <c r="F79" s="49" t="s">
+      <c r="E79" s="84"/>
+      <c r="F79" s="76" t="s">
         <v>199</v>
       </c>
-      <c r="G79" s="50"/>
+      <c r="G79" s="58"/>
       <c r="H79" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="I79" s="62" t="s">
+      <c r="I79" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="J79" s="63"/>
-      <c r="K79" s="63"/>
-      <c r="L79" s="63"/>
-      <c r="M79" s="63"/>
-      <c r="N79" s="63"/>
-      <c r="O79" s="63"/>
-      <c r="P79" s="63"/>
-      <c r="Q79" s="63"/>
-      <c r="R79" s="63"/>
-      <c r="S79" s="63"/>
-      <c r="T79" s="50"/>
+      <c r="J79" s="57"/>
+      <c r="K79" s="57"/>
+      <c r="L79" s="57"/>
+      <c r="M79" s="57"/>
+      <c r="N79" s="57"/>
+      <c r="O79" s="57"/>
+      <c r="P79" s="57"/>
+      <c r="Q79" s="57"/>
+      <c r="R79" s="57"/>
+      <c r="S79" s="57"/>
+      <c r="T79" s="58"/>
     </row>
     <row r="80" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E80" s="68"/>
-      <c r="F80" s="49" t="s">
+      <c r="E80" s="84"/>
+      <c r="F80" s="76" t="s">
         <v>200</v>
       </c>
-      <c r="G80" s="50"/>
+      <c r="G80" s="58"/>
       <c r="H80" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="I80" s="91" t="s">
+      <c r="I80" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="J80" s="91"/>
-      <c r="K80" s="91"/>
-      <c r="L80" s="91"/>
-      <c r="M80" s="91"/>
-      <c r="N80" s="91"/>
-      <c r="O80" s="91"/>
-      <c r="P80" s="91"/>
-      <c r="Q80" s="91"/>
-      <c r="R80" s="91"/>
-      <c r="S80" s="91"/>
-      <c r="T80" s="92"/>
+      <c r="J80" s="49"/>
+      <c r="K80" s="49"/>
+      <c r="L80" s="49"/>
+      <c r="M80" s="49"/>
+      <c r="N80" s="49"/>
+      <c r="O80" s="49"/>
+      <c r="P80" s="49"/>
+      <c r="Q80" s="49"/>
+      <c r="R80" s="49"/>
+      <c r="S80" s="49"/>
+      <c r="T80" s="48"/>
     </row>
     <row r="81" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E81" s="70"/>
-      <c r="F81" s="98" t="s">
+      <c r="E81" s="86"/>
+      <c r="F81" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="G81" s="92"/>
+      <c r="G81" s="48"/>
       <c r="H81" s="31" t="s">
         <v>203</v>
       </c>
@@ -9891,170 +9936,170 @@
       <c r="T81" s="32"/>
     </row>
     <row r="82" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E82" s="69"/>
-      <c r="F82" s="78" t="s">
+      <c r="E82" s="85"/>
+      <c r="F82" s="92" t="s">
         <v>208</v>
       </c>
-      <c r="G82" s="79"/>
+      <c r="G82" s="93"/>
       <c r="H82" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="I82" s="93" t="s">
+      <c r="I82" s="72" t="s">
         <v>209</v>
       </c>
-      <c r="J82" s="93"/>
-      <c r="K82" s="93"/>
-      <c r="L82" s="93"/>
-      <c r="M82" s="93"/>
-      <c r="N82" s="93"/>
-      <c r="O82" s="93"/>
-      <c r="P82" s="93"/>
-      <c r="Q82" s="93"/>
-      <c r="R82" s="93"/>
-      <c r="S82" s="93"/>
-      <c r="T82" s="94"/>
+      <c r="J82" s="72"/>
+      <c r="K82" s="72"/>
+      <c r="L82" s="72"/>
+      <c r="M82" s="72"/>
+      <c r="N82" s="72"/>
+      <c r="O82" s="72"/>
+      <c r="P82" s="72"/>
+      <c r="Q82" s="72"/>
+      <c r="R82" s="72"/>
+      <c r="S82" s="72"/>
+      <c r="T82" s="73"/>
     </row>
     <row r="83" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E83" s="66" t="s">
+      <c r="E83" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="F83" s="80" t="s">
+      <c r="F83" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="G83" s="56"/>
+      <c r="G83" s="61"/>
       <c r="H83" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="I83" s="54" t="s">
+      <c r="I83" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="J83" s="55"/>
-      <c r="K83" s="55"/>
-      <c r="L83" s="55"/>
-      <c r="M83" s="55"/>
-      <c r="N83" s="55"/>
-      <c r="O83" s="55"/>
-      <c r="P83" s="55"/>
-      <c r="Q83" s="55"/>
-      <c r="R83" s="55"/>
-      <c r="S83" s="55"/>
-      <c r="T83" s="56"/>
+      <c r="J83" s="60"/>
+      <c r="K83" s="60"/>
+      <c r="L83" s="60"/>
+      <c r="M83" s="60"/>
+      <c r="N83" s="60"/>
+      <c r="O83" s="60"/>
+      <c r="P83" s="60"/>
+      <c r="Q83" s="60"/>
+      <c r="R83" s="60"/>
+      <c r="S83" s="60"/>
+      <c r="T83" s="61"/>
     </row>
     <row r="84" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E84" s="67"/>
-      <c r="F84" s="99" t="s">
+      <c r="E84" s="83"/>
+      <c r="F84" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="G84" s="100"/>
-      <c r="H84" s="97" t="s">
+      <c r="G84" s="53"/>
+      <c r="H84" s="50" t="s">
         <v>187</v>
       </c>
-      <c r="I84" s="98" t="s">
+      <c r="I84" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="J84" s="91"/>
-      <c r="K84" s="91"/>
-      <c r="L84" s="91"/>
-      <c r="M84" s="91"/>
-      <c r="N84" s="91"/>
-      <c r="O84" s="91"/>
-      <c r="P84" s="91"/>
-      <c r="Q84" s="91"/>
-      <c r="R84" s="91"/>
-      <c r="S84" s="91"/>
-      <c r="T84" s="92"/>
+      <c r="J84" s="49"/>
+      <c r="K84" s="49"/>
+      <c r="L84" s="49"/>
+      <c r="M84" s="49"/>
+      <c r="N84" s="49"/>
+      <c r="O84" s="49"/>
+      <c r="P84" s="49"/>
+      <c r="Q84" s="49"/>
+      <c r="R84" s="49"/>
+      <c r="S84" s="49"/>
+      <c r="T84" s="48"/>
     </row>
     <row r="85" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E85" s="67"/>
-      <c r="F85" s="101"/>
-      <c r="G85" s="102"/>
-      <c r="H85" s="96"/>
-      <c r="I85" s="98" t="s">
+      <c r="E85" s="83"/>
+      <c r="F85" s="54"/>
+      <c r="G85" s="55"/>
+      <c r="H85" s="51"/>
+      <c r="I85" s="47" t="s">
         <v>189</v>
       </c>
-      <c r="J85" s="91"/>
-      <c r="K85" s="91"/>
-      <c r="L85" s="91"/>
-      <c r="M85" s="91"/>
-      <c r="N85" s="91"/>
-      <c r="O85" s="91"/>
-      <c r="P85" s="91"/>
-      <c r="Q85" s="91"/>
-      <c r="R85" s="91"/>
-      <c r="S85" s="91"/>
-      <c r="T85" s="92"/>
+      <c r="J85" s="49"/>
+      <c r="K85" s="49"/>
+      <c r="L85" s="49"/>
+      <c r="M85" s="49"/>
+      <c r="N85" s="49"/>
+      <c r="O85" s="49"/>
+      <c r="P85" s="49"/>
+      <c r="Q85" s="49"/>
+      <c r="R85" s="49"/>
+      <c r="S85" s="49"/>
+      <c r="T85" s="48"/>
     </row>
     <row r="86" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E86" s="68"/>
-      <c r="F86" s="72" t="s">
+      <c r="E86" s="84"/>
+      <c r="F86" s="89" t="s">
         <v>123</v>
       </c>
-      <c r="G86" s="73"/>
+      <c r="G86" s="65"/>
       <c r="H86" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="I86" s="85" t="s">
+      <c r="I86" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="J86" s="86"/>
-      <c r="K86" s="86"/>
-      <c r="L86" s="86"/>
-      <c r="M86" s="86"/>
-      <c r="N86" s="86"/>
-      <c r="O86" s="86"/>
-      <c r="P86" s="86"/>
-      <c r="Q86" s="86"/>
-      <c r="R86" s="86"/>
-      <c r="S86" s="86"/>
-      <c r="T86" s="73"/>
+      <c r="J86" s="64"/>
+      <c r="K86" s="64"/>
+      <c r="L86" s="64"/>
+      <c r="M86" s="64"/>
+      <c r="N86" s="64"/>
+      <c r="O86" s="64"/>
+      <c r="P86" s="64"/>
+      <c r="Q86" s="64"/>
+      <c r="R86" s="64"/>
+      <c r="S86" s="64"/>
+      <c r="T86" s="65"/>
     </row>
     <row r="87" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E87" s="68"/>
-      <c r="F87" s="74" t="s">
+      <c r="E87" s="84"/>
+      <c r="F87" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="G87" s="75"/>
+      <c r="G87" s="68"/>
       <c r="H87" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="I87" s="87" t="s">
+      <c r="I87" s="66" t="s">
         <v>127</v>
       </c>
-      <c r="J87" s="88"/>
-      <c r="K87" s="88"/>
-      <c r="L87" s="88"/>
-      <c r="M87" s="88"/>
-      <c r="N87" s="88"/>
-      <c r="O87" s="88"/>
-      <c r="P87" s="88"/>
-      <c r="Q87" s="88"/>
-      <c r="R87" s="88"/>
-      <c r="S87" s="88"/>
-      <c r="T87" s="75"/>
+      <c r="J87" s="67"/>
+      <c r="K87" s="67"/>
+      <c r="L87" s="67"/>
+      <c r="M87" s="67"/>
+      <c r="N87" s="67"/>
+      <c r="O87" s="67"/>
+      <c r="P87" s="67"/>
+      <c r="Q87" s="67"/>
+      <c r="R87" s="67"/>
+      <c r="S87" s="67"/>
+      <c r="T87" s="68"/>
     </row>
     <row r="88" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E88" s="69"/>
-      <c r="F88" s="76" t="s">
+      <c r="E88" s="85"/>
+      <c r="F88" s="91" t="s">
         <v>125</v>
       </c>
-      <c r="G88" s="77"/>
+      <c r="G88" s="71"/>
       <c r="H88" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="I88" s="89" t="s">
+      <c r="I88" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="J88" s="90"/>
-      <c r="K88" s="90"/>
-      <c r="L88" s="90"/>
-      <c r="M88" s="90"/>
-      <c r="N88" s="90"/>
-      <c r="O88" s="90"/>
-      <c r="P88" s="90"/>
-      <c r="Q88" s="90"/>
-      <c r="R88" s="90"/>
-      <c r="S88" s="90"/>
-      <c r="T88" s="77"/>
+      <c r="J88" s="70"/>
+      <c r="K88" s="70"/>
+      <c r="L88" s="70"/>
+      <c r="M88" s="70"/>
+      <c r="N88" s="70"/>
+      <c r="O88" s="70"/>
+      <c r="P88" s="70"/>
+      <c r="Q88" s="70"/>
+      <c r="R88" s="70"/>
+      <c r="S88" s="70"/>
+      <c r="T88" s="71"/>
     </row>
     <row r="89" spans="5:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F89" s="7" t="s">
@@ -10068,21 +10113,49 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="I74:T74"/>
-    <mergeCell ref="I84:T84"/>
-    <mergeCell ref="I85:T85"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="F84:G85"/>
-    <mergeCell ref="I77:T77"/>
-    <mergeCell ref="I83:T83"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="I71:T71"/>
-    <mergeCell ref="I73:T73"/>
-    <mergeCell ref="I75:T75"/>
-    <mergeCell ref="I76:T76"/>
-    <mergeCell ref="I69:T69"/>
-    <mergeCell ref="I70:T70"/>
+    <mergeCell ref="C2:V3"/>
+    <mergeCell ref="F69:G70"/>
+    <mergeCell ref="I59:T59"/>
+    <mergeCell ref="I60:T60"/>
+    <mergeCell ref="I62:T62"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="I64:T64"/>
+    <mergeCell ref="I65:T65"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="E83:E88"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="E62:E82"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="F77:G78"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="F75:G76"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="F71:G72"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="F64:G65"/>
+    <mergeCell ref="F62:G63"/>
+    <mergeCell ref="I61:T61"/>
+    <mergeCell ref="I67:T67"/>
+    <mergeCell ref="I68:T68"/>
+    <mergeCell ref="I63:T63"/>
+    <mergeCell ref="G51:T51"/>
+    <mergeCell ref="G52:T52"/>
+    <mergeCell ref="G53:T53"/>
+    <mergeCell ref="G54:T54"/>
+    <mergeCell ref="G55:T55"/>
     <mergeCell ref="G56:T56"/>
     <mergeCell ref="I86:T86"/>
     <mergeCell ref="I87:T87"/>
@@ -10099,49 +10172,21 @@
     <mergeCell ref="H75:H76"/>
     <mergeCell ref="H77:H78"/>
     <mergeCell ref="I66:T66"/>
-    <mergeCell ref="G51:T51"/>
-    <mergeCell ref="G52:T52"/>
-    <mergeCell ref="G53:T53"/>
-    <mergeCell ref="G54:T54"/>
-    <mergeCell ref="G55:T55"/>
-    <mergeCell ref="F64:G65"/>
-    <mergeCell ref="F62:G63"/>
-    <mergeCell ref="I61:T61"/>
-    <mergeCell ref="I67:T67"/>
-    <mergeCell ref="I68:T68"/>
-    <mergeCell ref="I63:T63"/>
-    <mergeCell ref="E83:E88"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="E62:E82"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="F77:G78"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="F75:G76"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="F71:G72"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="C2:V3"/>
-    <mergeCell ref="F69:G70"/>
-    <mergeCell ref="I59:T59"/>
-    <mergeCell ref="I60:T60"/>
-    <mergeCell ref="I62:T62"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="I64:T64"/>
-    <mergeCell ref="I65:T65"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="I71:T71"/>
+    <mergeCell ref="I73:T73"/>
+    <mergeCell ref="I75:T75"/>
+    <mergeCell ref="I76:T76"/>
+    <mergeCell ref="I69:T69"/>
+    <mergeCell ref="I70:T70"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="I74:T74"/>
+    <mergeCell ref="I84:T84"/>
+    <mergeCell ref="I85:T85"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="F84:G85"/>
+    <mergeCell ref="I77:T77"/>
+    <mergeCell ref="I83:T83"/>
+    <mergeCell ref="F81:G81"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10152,11 +10197,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:T11"/>
+  <dimension ref="C3:T38"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.1" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10164,46 +10207,46 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="47" t="s">
+      <c r="C3" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="47"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="95"/>
+      <c r="P3" s="95"/>
+      <c r="Q3" s="95"/>
+      <c r="R3" s="95"/>
+      <c r="S3" s="95"/>
+      <c r="T3" s="95"/>
     </row>
     <row r="4" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="47"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47"/>
-      <c r="T4" s="47"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="95"/>
+      <c r="P4" s="95"/>
+      <c r="Q4" s="95"/>
+      <c r="R4" s="95"/>
+      <c r="S4" s="95"/>
+      <c r="T4" s="95"/>
     </row>
     <row r="6" spans="3:20" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C6" s="5"/>
@@ -10280,6 +10323,11 @@
     <row r="11" spans="3:20" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -10436,50 +10484,50 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:33" x14ac:dyDescent="0.3">
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="107" t="s">
         <v>92</v>
       </c>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="121" t="s">
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="109"/>
+      <c r="I3" s="110" t="s">
         <v>361</v>
       </c>
-      <c r="J3" s="120"/>
-      <c r="K3" s="112" t="s">
+      <c r="J3" s="109"/>
+      <c r="K3" s="116" t="s">
         <v>91</v>
       </c>
-      <c r="L3" s="112"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="113"/>
-      <c r="S3" s="113"/>
-      <c r="T3" s="113"/>
-      <c r="U3" s="113"/>
-      <c r="V3" s="114"/>
-      <c r="W3" s="115" t="s">
+      <c r="L3" s="116"/>
+      <c r="M3" s="117"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="P3" s="117"/>
+      <c r="Q3" s="117"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="107"/>
+      <c r="W3" s="118" t="s">
         <v>198</v>
       </c>
-      <c r="X3" s="114"/>
-      <c r="Y3" s="121" t="s">
+      <c r="X3" s="107"/>
+      <c r="Y3" s="110" t="s">
         <v>90</v>
       </c>
-      <c r="Z3" s="119"/>
-      <c r="AA3" s="120"/>
-      <c r="AB3" s="107" t="s">
+      <c r="Z3" s="108"/>
+      <c r="AA3" s="109"/>
+      <c r="AB3" s="114" t="s">
         <v>89</v>
       </c>
-      <c r="AC3" s="108"/>
-      <c r="AD3" s="108"/>
-      <c r="AE3" s="108"/>
-      <c r="AF3" s="108"/>
-      <c r="AG3" s="108"/>
+      <c r="AC3" s="115"/>
+      <c r="AD3" s="115"/>
+      <c r="AE3" s="115"/>
+      <c r="AF3" s="115"/>
+      <c r="AG3" s="115"/>
     </row>
     <row r="4" spans="2:33" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
@@ -10551,11 +10599,11 @@
       <c r="X4" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="Y4" s="116" t="s">
+      <c r="Y4" s="119" t="s">
         <v>85</v>
       </c>
-      <c r="Z4" s="117"/>
-      <c r="AA4" s="118"/>
+      <c r="Z4" s="120"/>
+      <c r="AA4" s="121"/>
       <c r="AB4" s="23" t="s">
         <v>86</v>
       </c>
@@ -10645,11 +10693,11 @@
       <c r="X5" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="Y5" s="109" t="s">
+      <c r="Y5" s="111" t="s">
         <v>359</v>
       </c>
-      <c r="Z5" s="110"/>
-      <c r="AA5" s="111"/>
+      <c r="Z5" s="112"/>
+      <c r="AA5" s="113"/>
       <c r="AB5" s="22" t="s">
         <v>207</v>
       </c>
@@ -10759,11 +10807,11 @@
       <c r="V7" s="17"/>
       <c r="W7" s="36"/>
       <c r="X7" s="37"/>
-      <c r="Y7" s="109">
+      <c r="Y7" s="111">
         <v>1</v>
       </c>
-      <c r="Z7" s="110"/>
-      <c r="AA7" s="111"/>
+      <c r="Z7" s="112"/>
+      <c r="AA7" s="113"/>
       <c r="AB7" s="22"/>
       <c r="AC7" s="21"/>
       <c r="AD7" s="21"/>
@@ -10811,9 +10859,9 @@
       <c r="V8" s="1"/>
       <c r="W8" s="36"/>
       <c r="X8" s="37"/>
-      <c r="Y8" s="109"/>
-      <c r="Z8" s="110"/>
-      <c r="AA8" s="111"/>
+      <c r="Y8" s="111"/>
+      <c r="Z8" s="112"/>
+      <c r="AA8" s="113"/>
       <c r="AB8" s="9" t="s">
         <v>193</v>
       </c>
@@ -10899,9 +10947,9 @@
       </c>
       <c r="W9" s="36"/>
       <c r="X9" s="37"/>
-      <c r="Y9" s="109"/>
-      <c r="Z9" s="110"/>
-      <c r="AA9" s="111"/>
+      <c r="Y9" s="111"/>
+      <c r="Z9" s="112"/>
+      <c r="AA9" s="113"/>
       <c r="AB9" s="9"/>
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
@@ -10955,9 +11003,9 @@
       <c r="X10" s="37">
         <v>13</v>
       </c>
-      <c r="Y10" s="109"/>
-      <c r="Z10" s="110"/>
-      <c r="AA10" s="111"/>
+      <c r="Y10" s="111"/>
+      <c r="Z10" s="112"/>
+      <c r="AA10" s="113"/>
       <c r="AB10" s="9"/>
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
@@ -10972,11 +11020,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="Y8:AA8"/>
     <mergeCell ref="AB3:AG3"/>
     <mergeCell ref="Y9:AA9"/>
     <mergeCell ref="Y10:AA10"/>
@@ -10984,6 +11027,11 @@
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y4:AA4"/>
     <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="Y8:AA8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
